--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -10,6 +10,53 @@
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,22 +100,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR52"/>
+  <dimension ref="A1:BR53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
     <col min="3" max="3" width="14.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.42578125" customWidth="true"/>
-    <col min="5" max="5" width="14.42578125" customWidth="true"/>
-    <col min="6" max="6" width="14.42578125" customWidth="true"/>
-    <col min="7" max="7" width="14.7109375" customWidth="true"/>
-    <col min="8" max="8" width="14.42578125" customWidth="true"/>
-    <col min="9" max="9" width="14.42578125" customWidth="true"/>
-    <col min="10" max="10" width="14.42578125" customWidth="true"/>
-    <col min="11" max="11" width="15.5703125" customWidth="true"/>
-    <col min="12" max="12" width="15.42578125" customWidth="true"/>
-    <col min="13" max="13" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="6" max="6" width="16.42578125" customWidth="true"/>
+    <col min="7" max="7" width="16.42578125" customWidth="true"/>
+    <col min="8" max="8" width="15.42578125" customWidth="true"/>
+    <col min="9" max="9" width="15.42578125" customWidth="true"/>
+    <col min="10" max="10" width="15.42578125" customWidth="true"/>
+    <col min="11" max="11" width="14.7109375" customWidth="true"/>
+    <col min="12" max="12" width="16.42578125" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
     <col min="14" max="14" width="15.42578125" customWidth="true"/>
     <col min="15" max="15" width="14.42578125" customWidth="true"/>
     <col min="16" max="16" width="15.42578125" customWidth="true"/>
@@ -129,47 +176,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0">
-        <v>0.40139581540000002</v>
-      </c>
-      <c r="B1" s="0">
-        <v>0.59335746960000002</v>
-      </c>
-      <c r="C1" s="0">
-        <v>0</v>
-      </c>
-      <c r="D1" s="0">
-        <v>-0.26262065600000001</v>
-      </c>
-      <c r="E1" s="0">
-        <v>-0.032857592550000002</v>
-      </c>
-      <c r="F1" s="0">
-        <v>0.43763005789999998</v>
-      </c>
-      <c r="G1" s="0">
-        <v>0.20784464750000001</v>
-      </c>
-      <c r="H1" s="0">
-        <v>0</v>
-      </c>
-      <c r="I1" s="0">
-        <v>-0.02703139114</v>
-      </c>
-      <c r="J1" s="0">
-        <v>-0.75416275229999996</v>
-      </c>
-      <c r="K1" s="0">
-        <v>-0.34883616010000001</v>
-      </c>
-      <c r="L1" s="0">
-        <v>0.54172162540000002</v>
-      </c>
-      <c r="M1" s="0">
-        <v>0</v>
-      </c>
-      <c r="N1" s="0">
-        <v>-0.25819401060000002</v>
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="O1" s="0">
         <v>-0.36030029759999999</v>
@@ -342,46 +389,46 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.67251381129999999</v>
+        <v>0.14078792467500001</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.30129863880000002</v>
+        <v>0.26596551942999996</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.16630994242500002</v>
       </c>
       <c r="D2" s="0">
-        <v>0.54700750570000001</v>
+        <v>-0.10697171619500001</v>
       </c>
       <c r="E2" s="0">
-        <v>-1.0526722180000001</v>
+        <v>0.078230294397499983</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.36819422759999998</v>
+        <v>0.3620132902</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.32645735120000002</v>
+        <v>0.45045286733250001</v>
       </c>
       <c r="H2" s="0">
-        <v>0</v>
+        <v>0.051652257710499999</v>
       </c>
       <c r="I2" s="0">
-        <v>0.11397211760000001</v>
+        <v>0.23966917888525002</v>
       </c>
       <c r="J2" s="0">
-        <v>-1.1965009900000001</v>
+        <v>-0.39799031565000004</v>
       </c>
       <c r="K2" s="0">
-        <v>-0.78920822810000002</v>
+        <v>0.37361356288500003</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.06126496427</v>
+        <v>0.77566791997499995</v>
       </c>
       <c r="M2" s="0">
-        <v>0</v>
+        <v>0.35305775685000002</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.0040876548900000004</v>
+        <v>0.58037688677499999</v>
       </c>
       <c r="O2" s="0">
         <v>-2.2181104129999998</v>
@@ -554,46 +601,46 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.045589361830000001</v>
+        <v>-0.20996722792500003</v>
       </c>
       <c r="B3" s="0">
-        <v>0.93883183079999999</v>
+        <v>-0.37201425342500005</v>
       </c>
       <c r="C3" s="0">
-        <v>0.36163227930000003</v>
+        <v>-0.61009833860000007</v>
       </c>
       <c r="D3" s="0">
-        <v>0.493570913</v>
+        <v>-0.19790024845000001</v>
       </c>
       <c r="E3" s="0">
-        <v>0.25929785910000003</v>
+        <v>-0.49357198542499992</v>
       </c>
       <c r="F3" s="0">
-        <v>0.2485477281</v>
+        <v>-0.89110872922499995</v>
       </c>
       <c r="G3" s="0">
-        <v>0.35884231789999999</v>
+        <v>-0.32303606535000001</v>
       </c>
       <c r="H3" s="0">
-        <v>0.55041693069999997</v>
+        <v>-0.15099334535999998</v>
       </c>
       <c r="I3" s="0">
-        <v>0.39449871869999997</v>
+        <v>-0.58349606397499998</v>
       </c>
       <c r="J3" s="0">
-        <v>0.93802887430000004</v>
+        <v>0.15926253912500002</v>
       </c>
       <c r="K3" s="0">
-        <v>0.29917803129999998</v>
+        <v>-1.0817383018250002</v>
       </c>
       <c r="L3" s="0">
-        <v>0.1120985996</v>
+        <v>-0.61146063805000006</v>
       </c>
       <c r="M3" s="0">
-        <v>0.13761949279999999</v>
+        <v>0.017350899924999941</v>
       </c>
       <c r="N3" s="0">
-        <v>0.2418992204</v>
+        <v>-0.51186113249999998</v>
       </c>
       <c r="O3" s="0">
         <v>2.209751169</v>
@@ -766,46 +813,46 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.029054978669999999</v>
+        <v>0.011246142311999996</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29736713650000002</v>
+        <v>0.091198319780000009</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.27950413959999998</v>
+        <v>0.42554838991599997</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>0.2966529564</v>
       </c>
       <c r="E4" s="0">
-        <v>0.33902394650000001</v>
+        <v>-0.00039751792000002338</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.17578295520000001</v>
+        <v>0.12179037455999997</v>
       </c>
       <c r="G4" s="0">
-        <v>0.0052704878020000002</v>
+        <v>0.22271198225400002</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.098158639529999994</v>
+        <v>0.24734662946800001</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>-0.0187820136116</v>
       </c>
       <c r="J4" s="0">
-        <v>0.0283401356</v>
+        <v>0.21327603598800002</v>
       </c>
       <c r="K4" s="0">
-        <v>0.46734508070000003</v>
+        <v>0.058380246290000007</v>
       </c>
       <c r="L4" s="0">
-        <v>0.15542970840000001</v>
+        <v>-0.50945415488000001</v>
       </c>
       <c r="M4" s="0">
-        <v>0.041483946450000003</v>
+        <v>-0.57936641748400008</v>
       </c>
       <c r="N4" s="0">
-        <v>0</v>
+        <v>-0.66729688630000017</v>
       </c>
       <c r="O4" s="0">
         <v>0.4165435166</v>
@@ -978,46 +1025,46 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.015241109940000001</v>
+        <v>-0.265790235185</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.20937340509999999</v>
+        <v>-0.06316968052999998</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.35177540280000003</v>
+        <v>-0.02475423363249999</v>
       </c>
       <c r="D5" s="0">
-        <v>0.24674566319999999</v>
+        <v>-0.115945025625</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.42912639250000001</v>
+        <v>-0.029614134842500001</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.063943064460000004</v>
+        <v>-0.1670532945</v>
       </c>
       <c r="G5" s="0">
-        <v>0.31974871049999998</v>
+        <v>-0.33613959226750001</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.47604503660000003</v>
+        <v>-0.21393806663749998</v>
       </c>
       <c r="I5" s="0">
-        <v>0.46976384739999999</v>
+        <v>0.24070038344</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.080917237650000001</v>
+        <v>0.24815848730000001</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.20217076549999999</v>
+        <v>0.12100199635000002</v>
       </c>
       <c r="L5" s="0">
-        <v>0.38404821420000002</v>
+        <v>-0.016418232725000009</v>
       </c>
       <c r="M5" s="0">
-        <v>-0.25713706660000002</v>
+        <v>0.064603163825000004</v>
       </c>
       <c r="N5" s="0">
-        <v>0.3787432698</v>
+        <v>0.35563680199250003</v>
       </c>
       <c r="O5" s="0">
         <v>0.041952293760000002</v>
@@ -1190,46 +1237,46 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.4610807723</v>
+        <v>0.075152260453999989</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.38813394130000001</v>
+        <v>-0.083660592499999992</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.98765660489999996</v>
+        <v>-0.062494528991999976</v>
       </c>
       <c r="D6" s="0">
-        <v>0.12742799290000001</v>
+        <v>0.12776610860200002</v>
       </c>
       <c r="E6" s="0">
-        <v>0.07301219062</v>
+        <v>0.28439010749999999</v>
       </c>
       <c r="F6" s="0">
-        <v>0.79147225830000001</v>
+        <v>0.207493784958</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.11277357490000001</v>
+        <v>0.14752463677399999</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.015825974</v>
+        <v>-0.024887240086000007</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.25532232420000001</v>
+        <v>0.25218266547199997</v>
       </c>
       <c r="J6" s="0">
-        <v>0.2030372134</v>
+        <v>0.02003721643999996</v>
       </c>
       <c r="K6" s="0">
-        <v>0.54374291220000004</v>
+        <v>0.41747833310000004</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.61160153490000002</v>
+        <v>0.22016945222000001</v>
       </c>
       <c r="M6" s="0">
-        <v>-1.151763589</v>
+        <v>0.197302110374</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.102601216</v>
+        <v>0.22882967936000004</v>
       </c>
       <c r="O6" s="0">
         <v>0.36606569439999997</v>
@@ -1402,46 +1449,46 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-1.2071308780000001</v>
+        <v>-0.046250182824200001</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.50451900329999999</v>
+        <v>-0.058722906380000009</v>
       </c>
       <c r="C7" s="0">
-        <v>0.1707058615</v>
+        <v>0.10204974968</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.78544971480000003</v>
+        <v>0.16056402572400003</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.46171579569999999</v>
+        <v>0.063559975859999979</v>
       </c>
       <c r="F7" s="0">
-        <v>-1.159274827</v>
+        <v>0.051341626019999996</v>
       </c>
       <c r="G7" s="0">
-        <v>-1.041242663</v>
+        <v>0.17964860281999998</v>
       </c>
       <c r="H7" s="0">
-        <v>0.74775663950000004</v>
+        <v>-0.205075073</v>
       </c>
       <c r="I7" s="0">
-        <v>-1.0101950319999999</v>
+        <v>-0.28404945481799998</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.45341152169999999</v>
+        <v>-0.19861942588000001</v>
       </c>
       <c r="K7" s="0">
-        <v>-1.229076506</v>
+        <v>-0.18115958201999999</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.71791726199999994</v>
+        <v>0.17239634705999998</v>
       </c>
       <c r="M7" s="0">
-        <v>0.38414495430000001</v>
+        <v>-0.010100408779999992</v>
       </c>
       <c r="N7" s="0">
-        <v>-1.0001437259999999</v>
+        <v>0.054758378799999986</v>
       </c>
       <c r="O7" s="0">
         <v>-0.56850860540000003</v>
@@ -1614,46 +1661,46 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.48755488790000001</v>
+        <v>-0.44372081094000004</v>
       </c>
       <c r="B8" s="0">
-        <v>0.78673533929999995</v>
+        <v>-0.40098112718000001</v>
       </c>
       <c r="C8" s="0">
-        <v>0.64391636360000004</v>
+        <v>-0.54660805333999996</v>
       </c>
       <c r="D8" s="0">
-        <v>0.2367930261</v>
+        <v>-0.334807986286</v>
       </c>
       <c r="E8" s="0">
-        <v>0.27222956609999999</v>
+        <v>-0.48509310258000005</v>
       </c>
       <c r="F8" s="0">
-        <v>0.33531898040000002</v>
+        <v>-0.38045419493400001</v>
       </c>
       <c r="G8" s="0">
-        <v>0.3381699957</v>
+        <v>-0.22839825474</v>
       </c>
       <c r="H8" s="0">
-        <v>0.1409513154</v>
+        <v>-0.20601011471200001</v>
       </c>
       <c r="I8" s="0">
-        <v>0.48696700040000002</v>
+        <v>-0.49849447953799997</v>
       </c>
       <c r="J8" s="0">
-        <v>0.48823011519999998</v>
+        <v>-0.65786008768600002</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.23493276690000001</v>
+        <v>-0.71668320002000008</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.076455056940000002</v>
+        <v>-0.72865651773999995</v>
       </c>
       <c r="M8" s="0">
-        <v>0.51999920249999998</v>
+        <v>-0.74729739013999996</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.026515218359999999</v>
+        <v>-1.0532261623600001</v>
       </c>
       <c r="O8" s="0">
         <v>0.26118116409999997</v>
@@ -1826,46 +1873,46 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.25055478050000002</v>
+        <v>0.036879565980000008</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.7491033829</v>
+        <v>-0.064233556012599988</v>
       </c>
       <c r="C9" s="0">
-        <v>0.86169241249999995</v>
+        <v>-0.11040672753599998</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.56279399959999998</v>
+        <v>-0.50877844657600002</v>
       </c>
       <c r="E9" s="0">
-        <v>0.37016882719999999</v>
+        <v>-0.37404365519599997</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.58766417920000003</v>
+        <v>-0.18374198442999998</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.67713943619999994</v>
+        <v>-0.35802148322000005</v>
       </c>
       <c r="H9" s="0">
-        <v>0.76880250959999996</v>
+        <v>-0.28461735014599998</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.83649980239999999</v>
+        <v>-0.072612520740000047</v>
       </c>
       <c r="J9" s="0">
-        <v>0.65784015760000003</v>
+        <v>-0.66241787896000004</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.51291400470000004</v>
+        <v>0.62180340515999999</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.52608365130000001</v>
+        <v>-0.30348870484000001</v>
       </c>
       <c r="M9" s="0">
-        <v>0.76652870500000003</v>
+        <v>0.21463355250399996</v>
       </c>
       <c r="N9" s="0">
-        <v>-0.95812173379999999</v>
+        <v>0.031344307233999988</v>
       </c>
       <c r="O9" s="0">
         <v>1.475594625</v>
@@ -2038,46 +2085,46 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.58013587710000003</v>
+        <v>-0.16357386251999997</v>
       </c>
       <c r="B10" s="0">
-        <v>0.57677214730000004</v>
+        <v>-0.38012091135999998</v>
       </c>
       <c r="C10" s="0">
-        <v>0.4133965584</v>
+        <v>-0.36911390267999999</v>
       </c>
       <c r="D10" s="0">
-        <v>0.57262889630000002</v>
+        <v>-0.21916933635999997</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.165548638</v>
+        <v>-0.30566488081999998</v>
       </c>
       <c r="F10" s="0">
-        <v>0.96923663120000003</v>
+        <v>-0.14736685736400004</v>
       </c>
       <c r="G10" s="0">
-        <v>0.63719608120000004</v>
+        <v>-0.36368383753799993</v>
       </c>
       <c r="H10" s="0">
-        <v>0.394744651</v>
+        <v>-0.30805091755199998</v>
       </c>
       <c r="I10" s="0">
-        <v>1.205778367</v>
+        <v>-0.36888629785999999</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.074621501990000005</v>
+        <v>-0.34913975616600001</v>
       </c>
       <c r="K10" s="0">
-        <v>0.48310562109999999</v>
+        <v>-0.2811325241</v>
       </c>
       <c r="L10" s="0">
-        <v>0.101713257</v>
+        <v>-0.25616873369800003</v>
       </c>
       <c r="M10" s="0">
-        <v>0.038194990579999998</v>
+        <v>-0.14783237815199998</v>
       </c>
       <c r="N10" s="0">
-        <v>0.078986582520000001</v>
+        <v>-0.21109517222000002</v>
       </c>
       <c r="O10" s="0">
         <v>0.076811407009999999</v>
@@ -2250,46 +2297,46 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.195762782</v>
+        <v>0.43902604907999992</v>
       </c>
       <c r="B11" s="0">
-        <v>0.007631197476</v>
+        <v>0.62174968051399992</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.3320958316</v>
+        <v>0.002251029839999974</v>
       </c>
       <c r="D11" s="0">
-        <v>0.31411152990000002</v>
+        <v>-0.04867447251600001</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.3438927987</v>
+        <v>-0.022138395179999992</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.2024069329</v>
+        <v>0.0047877875659999569</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.11652953169999999</v>
+        <v>-0.26898757822000002</v>
       </c>
       <c r="H11" s="0">
-        <v>0.42071758840000001</v>
+        <v>0.061678997759999986</v>
       </c>
       <c r="I11" s="0">
-        <v>0.06015679644</v>
+        <v>-0.018555769572000006</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.38328148870000001</v>
+        <v>-0.050805510733999991</v>
       </c>
       <c r="K11" s="0">
-        <v>0.1192880601</v>
+        <v>-0.40895341122000001</v>
       </c>
       <c r="L11" s="0">
-        <v>0.18762940689999999</v>
+        <v>-0.12527591523999998</v>
       </c>
       <c r="M11" s="0">
-        <v>-0.015444590419999999</v>
+        <v>-0.29077796502000003</v>
       </c>
       <c r="N11" s="0">
-        <v>-0.53009159849999998</v>
+        <v>0.10336844882199998</v>
       </c>
       <c r="O11" s="0">
         <v>-0.47033640300000001</v>
@@ -2462,46 +2509,46 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.2011932031</v>
+        <v>-0.15845044899999999</v>
       </c>
       <c r="B12" s="0">
-        <v>0.18558147820000001</v>
+        <v>-0.27926780021200004</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.1636642247</v>
+        <v>-0.59725026784000002</v>
       </c>
       <c r="D12" s="0">
-        <v>0.16730130500000001</v>
+        <v>-0.059754489328000003</v>
       </c>
       <c r="E12" s="0">
-        <v>0.77530592180000002</v>
+        <v>0.19551790424000001</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.8068307482</v>
+        <v>0.03885638120599999</v>
       </c>
       <c r="G12" s="0">
-        <v>0.20343617829999999</v>
+        <v>-0.29320587951999999</v>
       </c>
       <c r="H12" s="0">
-        <v>0.23346463840000001</v>
+        <v>-0.32984070730199999</v>
       </c>
       <c r="I12" s="0">
-        <v>0.043758825080000001</v>
+        <v>-0.23668373237399995</v>
       </c>
       <c r="J12" s="0">
-        <v>0.46739215589999999</v>
+        <v>-0.35530480878999998</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.64823943439999998</v>
+        <v>-0.28550896895199995</v>
       </c>
       <c r="L12" s="0">
-        <v>0.56856668749999995</v>
+        <v>-0.25037050088399998</v>
       </c>
       <c r="M12" s="0">
-        <v>0.086545144439999999</v>
+        <v>-0.18137218692400001</v>
       </c>
       <c r="N12" s="0">
-        <v>0.61102869650000002</v>
+        <v>-0.56908704440000002</v>
       </c>
       <c r="O12" s="0">
         <v>0.24583915889999999</v>
@@ -2674,46 +2721,46 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.8758120023</v>
+        <v>0.30051822974799997</v>
       </c>
       <c r="B13" s="0">
-        <v>0.49921846320000002</v>
+        <v>0.13337583942</v>
       </c>
       <c r="C13" s="0">
-        <v>0.306073225</v>
+        <v>0.25220422283400001</v>
       </c>
       <c r="D13" s="0">
-        <v>0.1735666749</v>
+        <v>0.30396299495950002</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.1014700664</v>
+        <v>0.27963150699660005</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.55432043539999998</v>
+        <v>0.1763784175</v>
       </c>
       <c r="G13" s="0">
-        <v>0.91845257560000004</v>
+        <v>0.12031741795999999</v>
       </c>
       <c r="H13" s="0">
-        <v>0.71219798990000005</v>
+        <v>0.083529181979999992</v>
       </c>
       <c r="I13" s="0">
-        <v>-0.42298617840000002</v>
+        <v>0.0029332390199999893</v>
       </c>
       <c r="J13" s="0">
-        <v>-0.086329381080000003</v>
+        <v>-0.26878169651999995</v>
       </c>
       <c r="K13" s="0">
-        <v>-0.86421503030000002</v>
+        <v>-0.16085545205999999</v>
       </c>
       <c r="L13" s="0">
-        <v>0.97035083450000004</v>
+        <v>0.018342300159999981</v>
       </c>
       <c r="M13" s="0">
-        <v>0.65346681470000001</v>
+        <v>0.33203034508000001</v>
       </c>
       <c r="N13" s="0">
-        <v>-0.1207171207</v>
+        <v>0.042822212560000003</v>
       </c>
       <c r="O13" s="0">
         <v>-0.33513325440000002</v>
@@ -2886,46 +2933,46 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.13061387190000001</v>
+        <v>0.011303165178000002</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.99810639430000003</v>
+        <v>-0.19634436159999999</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.32525532359999998</v>
+        <v>-0.16232105578</v>
       </c>
       <c r="D14" s="0">
-        <v>0.22977137559999999</v>
+        <v>-0.10306530106</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.039689733919999998</v>
+        <v>-0.22192712380000001</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.050933843030000002</v>
+        <v>-0.13984563656000001</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.48662524159999998</v>
+        <v>-0.15166059926</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.34681083540000002</v>
+        <v>0.15729562760599999</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.4077806719</v>
+        <v>-0.051519462879999998</v>
       </c>
       <c r="J14" s="0">
-        <v>-0.1880594749</v>
+        <v>-0.082932634757999987</v>
       </c>
       <c r="K14" s="0">
-        <v>2.3307718009999999e-06</v>
+        <v>-0.31325015218000002</v>
       </c>
       <c r="L14" s="0">
-        <v>-0.099720159380000006</v>
+        <v>0.11465377557999998</v>
       </c>
       <c r="M14" s="0">
-        <v>0.24378479289999999</v>
+        <v>0.28574901727000002</v>
       </c>
       <c r="N14" s="0">
-        <v>-0.64037891830000004</v>
+        <v>-0.171643545738</v>
       </c>
       <c r="O14" s="0">
         <v>-0.21128192139999999</v>
@@ -3098,46 +3145,46 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.96831720310000002</v>
+        <v>-0.11704833063219999</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.53717949850000002</v>
+        <v>-0.41955302310799991</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.245666512</v>
+        <v>-0.43348702118800003</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.20077098769999999</v>
+        <v>-0.30481580322000001</v>
       </c>
       <c r="E15" s="0">
-        <v>0.054949621999999997</v>
+        <v>-0.221646914498</v>
       </c>
       <c r="F15" s="0">
-        <v>0.92136447590000004</v>
+        <v>-0.13184560894000003</v>
       </c>
       <c r="G15" s="0">
-        <v>-0.7048370384</v>
+        <v>-0.077638379267999991</v>
       </c>
       <c r="H15" s="0">
-        <v>-0.1652442647</v>
+        <v>-0.079360108319999997</v>
       </c>
       <c r="I15" s="0">
-        <v>-0.59559636120000004</v>
+        <v>-0.21102132151199998</v>
       </c>
       <c r="J15" s="0">
-        <v>0.17412021659999999</v>
+        <v>0.18540586064600001</v>
       </c>
       <c r="K15" s="0">
-        <v>0.78694663580000002</v>
+        <v>-0.35782008699999995</v>
       </c>
       <c r="L15" s="0">
-        <v>-0.43015226350000002</v>
+        <v>-0.23205362875999999</v>
       </c>
       <c r="M15" s="0">
-        <v>0.0092821399140000007</v>
+        <v>-0.11742046106000001</v>
       </c>
       <c r="N15" s="0">
-        <v>-0.19141605240000001</v>
+        <v>-0.36712546653400013</v>
       </c>
       <c r="O15" s="0">
         <v>-0.40024857470000003</v>
@@ -3310,46 +3357,46 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.25601499500000002</v>
+        <v>-0.163864794896</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.29568902740000003</v>
+        <v>-0.45257119024000003</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.30774166629999999</v>
+        <v>-0.24289018169999999</v>
       </c>
       <c r="D16" s="0">
-        <v>0.48082191569999999</v>
+        <v>-0.15225780405999997</v>
       </c>
       <c r="E16" s="0">
-        <v>0.26410165340000002</v>
+        <v>-0.0045503008200000082</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.60919847250000003</v>
+        <v>-0.12429446513999998</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.4063743071</v>
+        <v>-0.19612327743999999</v>
       </c>
       <c r="H16" s="0">
-        <v>-0.48599133839999997</v>
+        <v>-0.0080970890539999833</v>
       </c>
       <c r="I16" s="0">
-        <v>-0.036313552169999999</v>
+        <v>-0.0033179562679999997</v>
       </c>
       <c r="J16" s="0">
-        <v>0.41302751230000001</v>
+        <v>-0.34191488458000008</v>
       </c>
       <c r="K16" s="0">
-        <v>-0.32929951229999999</v>
+        <v>0.23085321906200001</v>
       </c>
       <c r="L16" s="0">
-        <v>-0.51672494899999999</v>
+        <v>0.12091792623999997</v>
       </c>
       <c r="M16" s="0">
-        <v>-0.34854410209999998</v>
+        <v>-0.0019727102000000052</v>
       </c>
       <c r="N16" s="0">
-        <v>-0.2638387298</v>
+        <v>-0.36020074282000003</v>
       </c>
       <c r="O16" s="0">
         <v>0.46355693100000001</v>
@@ -3522,46 +3569,46 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.44155907379999998</v>
+        <v>0.06157246027600001</v>
       </c>
       <c r="B17" s="0">
-        <v>0.25935341360000003</v>
+        <v>0.32655285828000002</v>
       </c>
       <c r="C17" s="0">
-        <v>-1.0646199750000001</v>
+        <v>0.05813387593599998</v>
       </c>
       <c r="D17" s="0">
-        <v>1.304537952</v>
+        <v>-0.06732317157999998</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>-0.111642629876</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.1066802827</v>
+        <v>0.28014878629399997</v>
       </c>
       <c r="G17" s="0">
-        <v>0.40328224109999999</v>
+        <v>0.16924211245999998</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.5366608195</v>
+        <v>-0.093072101560000009</v>
       </c>
       <c r="I17" s="0">
-        <v>0.69328915899999999</v>
+        <v>0.0026846111799999849</v>
       </c>
       <c r="J17" s="0">
-        <v>0</v>
+        <v>0.010436505385999995</v>
       </c>
       <c r="K17" s="0">
-        <v>0.17163606249999999</v>
+        <v>-0.068670296480000032</v>
       </c>
       <c r="L17" s="0">
-        <v>0.24422877700000001</v>
+        <v>0.02719032404599997</v>
       </c>
       <c r="M17" s="0">
-        <v>-0.1028440105</v>
+        <v>0.50373938381999994</v>
       </c>
       <c r="N17" s="0">
-        <v>0.73052144139999997</v>
+        <v>0.18934984831999996</v>
       </c>
       <c r="O17" s="0">
         <v>0</v>
@@ -3734,46 +3781,46 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0013241041329999999</v>
+        <v>0.021125414995000008</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.65615994320000004</v>
+        <v>-0.18004715732500001</v>
       </c>
       <c r="C18" s="0">
-        <v>0.33993802960000002</v>
+        <v>-0.0124531845925</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.24524212840000001</v>
+        <v>-0.038457621994999996</v>
       </c>
       <c r="E18" s="0">
-        <v>0</v>
+        <v>-0.23062697845000002</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.37854743219999998</v>
+        <v>-0.16930596272500001</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.49013856099999997</v>
+        <v>0.02551024525249998</v>
       </c>
       <c r="H18" s="0">
-        <v>0.204566145</v>
+        <v>0.031910031836500014</v>
       </c>
       <c r="I18" s="0">
-        <v>-0.74900835030000001</v>
+        <v>-0.10878864083000001</v>
       </c>
       <c r="J18" s="0">
-        <v>0</v>
+        <v>0.12205327093574998</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.21310105500000001</v>
+        <v>-0.26889287422499997</v>
       </c>
       <c r="L18" s="0">
-        <v>-0.64272883920000001</v>
+        <v>-0.32916763885</v>
       </c>
       <c r="M18" s="0">
-        <v>0.41988202920000001</v>
+        <v>0.24361328142500002</v>
       </c>
       <c r="N18" s="0">
-        <v>-0.38752540219999998</v>
+        <v>0.36766515242499997</v>
       </c>
       <c r="O18" s="0">
         <v>0</v>
@@ -3946,46 +3993,46 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.40604522999999998</v>
+        <v>-0.086102740804999994</v>
       </c>
       <c r="B19" s="0">
-        <v>0.39386306170000002</v>
+        <v>-0.36919370547499997</v>
       </c>
       <c r="C19" s="0">
-        <v>0.1306335079</v>
+        <v>-0.33390679635000003</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.57399754150000004</v>
+        <v>-0.21369957297499997</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.04507066941</v>
+        <v>0.1958148488375</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.028857382210000001</v>
+        <v>-0.00029785093249999096</v>
       </c>
       <c r="G19" s="0">
-        <v>0.5627389787</v>
+        <v>-0.29794626537499996</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.028685930080000002</v>
+        <v>-0.21076157285000002</v>
       </c>
       <c r="I19" s="0">
-        <v>-0.52135276109999995</v>
+        <v>-0.17427292932499999</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.35732881630000002</v>
+        <v>-0.90753095297499997</v>
       </c>
       <c r="K19" s="0">
-        <v>0.50874581419999998</v>
+        <v>-0.31283989875000001</v>
       </c>
       <c r="L19" s="0">
-        <v>0.50109687650000001</v>
+        <v>-0.45975636275000004</v>
       </c>
       <c r="M19" s="0">
-        <v>-0.35131935939999998</v>
+        <v>-0.24084082355000003</v>
       </c>
       <c r="N19" s="0">
-        <v>-0.59902102530000001</v>
+        <v>-0.039308802249999997</v>
       </c>
       <c r="O19" s="0">
         <v>-0.075442163889999997</v>
@@ -4158,46 +4205,46 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.26797722950000002</v>
+        <v>0.14451395484000001</v>
       </c>
       <c r="B20" s="0">
-        <v>0.054403537260000003</v>
+        <v>0.17043902871400002</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.25670443279999999</v>
+        <v>0.10241985370399997</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.5847577853</v>
+        <v>-0.082397305899999995</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.049274275309999997</v>
+        <v>0.022922990019999999</v>
       </c>
       <c r="F20" s="0">
-        <v>0.29220825179999999</v>
+        <v>-0.14732471937200001</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.16952059259999999</v>
+        <v>-0.34707047121199996</v>
       </c>
       <c r="H20" s="0">
-        <v>-0.76920432999999999</v>
+        <v>-0.29321269420599994</v>
       </c>
       <c r="I20" s="0">
-        <v>-0.50567960710000004</v>
+        <v>0.063502752419999989</v>
       </c>
       <c r="J20" s="0">
-        <v>-0.3812074574</v>
+        <v>-0.32747274956</v>
       </c>
       <c r="K20" s="0">
-        <v>0.07640439769</v>
+        <v>0.41330670352599996</v>
       </c>
       <c r="L20" s="0">
-        <v>-0.15404597980000001</v>
+        <v>0.098217996520000003</v>
       </c>
       <c r="M20" s="0">
-        <v>-1.0866479760000001</v>
+        <v>0.061819566079999999</v>
       </c>
       <c r="N20" s="0">
-        <v>-0.023816072800000001</v>
+        <v>0.25117686824599994</v>
       </c>
       <c r="O20" s="0">
         <v>-0.1009908342</v>
@@ -4370,46 +4417,46 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.44712758850000001</v>
+        <v>0.14248950532199997</v>
       </c>
       <c r="B21" s="0">
-        <v>0.086462402320000006</v>
+        <v>0.10957933396000001</v>
       </c>
       <c r="C21" s="0">
-        <v>0.3677974752</v>
+        <v>-0.04698306724000003</v>
       </c>
       <c r="D21" s="0">
-        <v>0</v>
+        <v>0.089475553418807988</v>
       </c>
       <c r="E21" s="0">
-        <v>0.14610145020000001</v>
+        <v>0.11315879173999999</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.4258289488</v>
+        <v>0.00045212031599999871</v>
       </c>
       <c r="G21" s="0">
-        <v>0.28147685080000001</v>
+        <v>-0.22909799363199998</v>
       </c>
       <c r="H21" s="0">
-        <v>0.50195834500000003</v>
+        <v>0.057861978550000005</v>
       </c>
       <c r="I21" s="0">
-        <v>0</v>
+        <v>0.13745205542</v>
       </c>
       <c r="J21" s="0">
-        <v>0.056238650860000003</v>
+        <v>0.0048570535800000255</v>
       </c>
       <c r="K21" s="0">
-        <v>0.074031482060000001</v>
+        <v>0.023613967320000005</v>
       </c>
       <c r="L21" s="0">
-        <v>0.27817783159999998</v>
+        <v>-0.10295946076000002</v>
       </c>
       <c r="M21" s="0">
-        <v>0.61144046959999998</v>
+        <v>-0.19244461726000001</v>
       </c>
       <c r="N21" s="0">
-        <v>0</v>
+        <v>-0.091326127019999953</v>
       </c>
       <c r="O21" s="0">
         <v>0.2490971401</v>
@@ -4582,46 +4629,46 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.90453631840000004</v>
+        <v>0.080301184349999999</v>
       </c>
       <c r="B22" s="0">
-        <v>0</v>
+        <v>0.11121237717499999</v>
       </c>
       <c r="C22" s="0">
-        <v>0.15684140669999999</v>
+        <v>0.20053681873250001</v>
       </c>
       <c r="D22" s="0">
-        <v>0</v>
+        <v>0.253788400325</v>
       </c>
       <c r="E22" s="0">
-        <v>0.70286292989999999</v>
+        <v>0.117898349175</v>
       </c>
       <c r="F22" s="0">
-        <v>-1.412192248</v>
+        <v>-0.0067020142349999961</v>
       </c>
       <c r="G22" s="0">
-        <v>0</v>
+        <v>0.059401056890000012</v>
       </c>
       <c r="H22" s="0">
-        <v>0.18739984170000001</v>
+        <v>0.090873267039000005</v>
       </c>
       <c r="I22" s="0">
-        <v>0</v>
+        <v>0.0022631391499999993</v>
       </c>
       <c r="J22" s="0">
-        <v>0.24701340299999999</v>
+        <v>0.21009968102500001</v>
       </c>
       <c r="K22" s="0">
-        <v>-1.2929541449999999</v>
+        <v>0.50044072319249999</v>
       </c>
       <c r="L22" s="0">
-        <v>0</v>
+        <v>0.17705848755000003</v>
       </c>
       <c r="M22" s="0">
-        <v>0.70005306069999995</v>
+        <v>0.14616942355499998</v>
       </c>
       <c r="N22" s="0">
-        <v>0</v>
+        <v>-0.12049259663499998</v>
       </c>
       <c r="O22" s="0">
         <v>0.112254042</v>
@@ -4794,46 +4841,46 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.086526281770000005</v>
+        <v>-0.038742500723333295</v>
       </c>
       <c r="B23" s="0">
-        <v>0.088986706949999994</v>
+        <v>0.005606001400000042</v>
       </c>
       <c r="C23" s="0">
-        <v>0.21662189509999999</v>
+        <v>-0.25072066682333333</v>
       </c>
       <c r="D23" s="0">
-        <v>0.1129782943</v>
+        <v>-0.24637354443333334</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.71186281699999998</v>
+        <v>-0.20972510433333333</v>
       </c>
       <c r="F23" s="0">
-        <v>0.44144316420000002</v>
+        <v>-0.064085606800000028</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.55846579839999999</v>
+        <v>-0.00041695513333332251</v>
       </c>
       <c r="H23" s="0">
-        <v>0.089526340839999996</v>
+        <v>-0.14675637819999998</v>
       </c>
       <c r="I23" s="0">
-        <v>-0.55184611019999996</v>
+        <v>-0.11856402789999999</v>
       </c>
       <c r="J23" s="0">
-        <v>-0.91217811209999999</v>
+        <v>0.26910250366666666</v>
       </c>
       <c r="K23" s="0">
-        <v>0.40304665589999999</v>
+        <v>0.011863568666666676</v>
       </c>
       <c r="L23" s="0">
-        <v>0.1065676986</v>
+        <v>-0.25109867266166663</v>
       </c>
       <c r="M23" s="0">
-        <v>-0.31899064059999999</v>
+        <v>-0.55927359033333335</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.75373231480000003</v>
+        <v>-0.56220660633333341</v>
       </c>
       <c r="O23" s="0">
         <v>-0.77191658500000004</v>
@@ -5006,46 +5053,46 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.079392492179999996</v>
+        <v>-0.10948256708</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.17528578440000001</v>
+        <v>0.13888830173999997</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.42785447259999998</v>
+        <v>-0.066237421699999979</v>
       </c>
       <c r="D24" s="0">
-        <v>0.025163551329999999</v>
+        <v>-0.14813689386000001</v>
       </c>
       <c r="E24" s="0">
-        <v>0.32854447520000002</v>
+        <v>-0.34964032880999996</v>
       </c>
       <c r="F24" s="0">
-        <v>0.1727453719</v>
+        <v>-0.33009275749599998</v>
       </c>
       <c r="G24" s="0">
-        <v>-0.027096188090000001</v>
+        <v>-0.267874583188</v>
       </c>
       <c r="H24" s="0">
-        <v>0.33835182089999999</v>
+        <v>-0.109783591922</v>
       </c>
       <c r="I24" s="0">
-        <v>0.072925568029999999</v>
+        <v>-0.15715466832399999</v>
       </c>
       <c r="J24" s="0">
-        <v>-0.02379636035</v>
+        <v>0.20344207060000002</v>
       </c>
       <c r="K24" s="0">
-        <v>0.110237601</v>
+        <v>-0.079265349780000022</v>
       </c>
       <c r="L24" s="0">
-        <v>0.4184824513</v>
+        <v>-0.039170010439999993</v>
       </c>
       <c r="M24" s="0">
-        <v>-0.27246737739999999</v>
+        <v>-0.2497478494</v>
       </c>
       <c r="N24" s="0">
-        <v>-0.1152114638</v>
+        <v>0.081565159547999991</v>
       </c>
       <c r="O24" s="0">
         <v>0.39063300579999999</v>
@@ -5218,46 +5265,46 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0</v>
+        <v>0.038499392198000006</v>
       </c>
       <c r="B25" s="0">
-        <v>0</v>
+        <v>0.073342423279999985</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.58317379749999998</v>
+        <v>0.097716607004000006</v>
       </c>
       <c r="D25" s="0">
-        <v>0.1500619399</v>
+        <v>-0.10004688246</v>
       </c>
       <c r="E25" s="0">
-        <v>0.3902424491</v>
+        <v>-0.043297388674000001</v>
       </c>
       <c r="F25" s="0">
-        <v>0</v>
+        <v>0.087156541693999987</v>
       </c>
       <c r="G25" s="0">
-        <v>0</v>
+        <v>0.109150521236</v>
       </c>
       <c r="H25" s="0">
-        <v>-0.3176771229</v>
+        <v>0.056874350393999996</v>
       </c>
       <c r="I25" s="0">
-        <v>-0.071987901770000001</v>
+        <v>-0.081188785966000002</v>
       </c>
       <c r="J25" s="0">
-        <v>0.010051767079999999</v>
+        <v>0.37998423557999994</v>
       </c>
       <c r="K25" s="0">
-        <v>0</v>
+        <v>0.40660311591399995</v>
       </c>
       <c r="L25" s="0">
-        <v>0</v>
+        <v>-0.049990135681999996</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.50176940869999997</v>
+        <v>-0.21499274298599999</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.11442286760000001</v>
+        <v>-0.36169255513999998</v>
       </c>
       <c r="O25" s="0">
         <v>0.32989356390000002</v>
@@ -5430,46 +5477,46 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.38785974569999998</v>
+        <v>0.061502550999999996</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.44996749549999998</v>
+        <v>0.0067346224899999989</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.094541803490000006</v>
+        <v>-0.21923077198609997</v>
       </c>
       <c r="D26" s="0">
-        <v>0</v>
+        <v>0.0085273242399999949</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.3758047967</v>
+        <v>-0.12654775467666665</v>
       </c>
       <c r="F26" s="0">
-        <v>0.2840467156</v>
+        <v>-0.41062985349999997</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.43326500559999997</v>
+        <v>-0.4066954079666667</v>
       </c>
       <c r="H26" s="0">
-        <v>0.44105200039999998</v>
+        <v>-0.17251750024666668</v>
       </c>
       <c r="I26" s="0">
-        <v>0</v>
+        <v>-0.32537496252333337</v>
       </c>
       <c r="J26" s="0">
-        <v>-0.60653401969999998</v>
+        <v>0.037885950533333351</v>
       </c>
       <c r="K26" s="0">
-        <v>0.64426112329999996</v>
+        <v>-0.65188641840000006</v>
       </c>
       <c r="L26" s="0">
-        <v>-0.6664067776</v>
+        <v>-0.35387869519999998</v>
       </c>
       <c r="M26" s="0">
-        <v>0.15526049680000001</v>
+        <v>0.097853719126666669</v>
       </c>
       <c r="N26" s="0">
-        <v>0</v>
+        <v>-0.39325813067333332</v>
       </c>
       <c r="O26" s="0">
         <v>-0.038188072500000003</v>
@@ -5642,46 +5689,46 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0049425085059999997</v>
+        <v>0.26791140154999998</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.52255196749999999</v>
+        <v>0.27317585794999999</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.26409859899999999</v>
+        <v>0.25231569792499997</v>
       </c>
       <c r="D27" s="0">
-        <v>0.92210137709999995</v>
+        <v>-0.15601855989999996</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.2378958441</v>
+        <v>-0.30020843548999998</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.1314870356</v>
+        <v>0.073465759132500003</v>
       </c>
       <c r="G27" s="0">
-        <v>-0.83088356919999995</v>
+        <v>0.058305518022500002</v>
       </c>
       <c r="H27" s="0">
-        <v>-0.08973930058</v>
+        <v>-0.092860258884999977</v>
       </c>
       <c r="I27" s="0">
-        <v>1.1017132700000001</v>
+        <v>0.33534835292249998</v>
       </c>
       <c r="J27" s="0">
-        <v>-0.6090475246</v>
+        <v>0.10834539967499998</v>
       </c>
       <c r="K27" s="0">
-        <v>-0.072116391429999996</v>
+        <v>-0.031301431540000008</v>
       </c>
       <c r="L27" s="0">
-        <v>-0.32922618609999998</v>
+        <v>0.15127281110000002</v>
       </c>
       <c r="M27" s="0">
-        <v>0.1748357914</v>
+        <v>0.2165755597</v>
       </c>
       <c r="N27" s="0">
-        <v>1.2244188250000001</v>
+        <v>0.7588626394500001</v>
       </c>
       <c r="O27" s="0">
         <v>-0.61454732560000003</v>
@@ -5854,46 +5901,46 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.29421582940000002</v>
+        <v>0.028689984535999989</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.1285660525</v>
+        <v>-0.21070129789399999</v>
       </c>
       <c r="C28" s="0">
-        <v>0.22294938880000001</v>
+        <v>0.039537089235999988</v>
       </c>
       <c r="D28" s="0">
-        <v>0.3235297084</v>
+        <v>0.40224877119800001</v>
       </c>
       <c r="E28" s="0">
-        <v>-1.8674281319999999</v>
+        <v>0.54202843669600009</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.040417653380000002</v>
+        <v>0.12840104280000003</v>
       </c>
       <c r="G28" s="0">
-        <v>0.15541317909999999</v>
+        <v>-0.25117204594199993</v>
       </c>
       <c r="H28" s="0">
-        <v>0.2703129823</v>
+        <v>-0.162105350334</v>
       </c>
       <c r="I28" s="0">
-        <v>0.2250050294</v>
+        <v>0.18447391130899998</v>
       </c>
       <c r="J28" s="0">
-        <v>-1.872235141</v>
+        <v>0.090551505599999998</v>
       </c>
       <c r="K28" s="0">
-        <v>-0.08929119613</v>
+        <v>0.001660866157999985</v>
       </c>
       <c r="L28" s="0">
-        <v>-0.38810195469999997</v>
+        <v>0.60506101535400003</v>
       </c>
       <c r="M28" s="0">
-        <v>0.084150002730000006</v>
+        <v>0.56499093984620008</v>
       </c>
       <c r="N28" s="0">
-        <v>0.26784253200000002</v>
+        <v>0.87886661916000008</v>
       </c>
       <c r="O28" s="0">
         <v>-0.53172428230000002</v>
@@ -6066,46 +6113,46 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.55005639179999999</v>
+        <v>-0.37397472877999999</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.33640054619999998</v>
+        <v>-0.23062598612000004</v>
       </c>
       <c r="C29" s="0">
-        <v>0.34150928219999999</v>
+        <v>-0.12107479055799997</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.41484832259999999</v>
+        <v>-0.17289518916800001</v>
       </c>
       <c r="E29" s="0">
-        <v>0.18735566079999999</v>
+        <v>-0.31030802378</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.2332984619</v>
+        <v>-0.35104926625599997</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.18668026360000001</v>
+        <v>-0.10892573714000001</v>
       </c>
       <c r="H29" s="0">
-        <v>-0.3379539795</v>
+        <v>0.20946705527399997</v>
       </c>
       <c r="I29" s="0">
-        <v>0.036558273969999999</v>
+        <v>-0.10746744653999998</v>
       </c>
       <c r="J29" s="0">
-        <v>0.19079679220000001</v>
+        <v>-0.24744084557999999</v>
       </c>
       <c r="K29" s="0">
-        <v>0.02960920555</v>
+        <v>-0.29621993306</v>
       </c>
       <c r="L29" s="0">
-        <v>-0.2767923437</v>
+        <v>-0.42537753740000001</v>
       </c>
       <c r="M29" s="0">
-        <v>0.029112428360000001</v>
+        <v>-0.28426003882</v>
       </c>
       <c r="N29" s="0">
-        <v>-0.111181764</v>
+        <v>-0.032476712520000041</v>
       </c>
       <c r="O29" s="0">
         <v>0.168306397</v>
@@ -6278,46 +6325,46 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.2167759336</v>
+        <v>-0.10651011836799999</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.079447805960000006</v>
+        <v>-0.25213483841399997</v>
       </c>
       <c r="C30" s="0">
-        <v>0.13250946659999999</v>
+        <v>-0.031291007305600006</v>
       </c>
       <c r="D30" s="0">
-        <v>0.69961136049999995</v>
+        <v>0.140643875438</v>
       </c>
       <c r="E30" s="0">
-        <v>0.41512947519999999</v>
+        <v>0.1443385009</v>
       </c>
       <c r="F30" s="0">
-        <v>0.34307122029999998</v>
+        <v>-0.16326151867199998</v>
       </c>
       <c r="G30" s="0">
-        <v>0.057629381620000003</v>
+        <v>-0.24997396280199996</v>
       </c>
       <c r="H30" s="0">
-        <v>0.026772834820000001</v>
+        <v>-0.26821408975</v>
       </c>
       <c r="I30" s="0">
-        <v>0.10098940169999999</v>
+        <v>-0.058169491050000008</v>
       </c>
       <c r="J30" s="0">
-        <v>0.32341798300000002</v>
+        <v>0.51279745010200006</v>
       </c>
       <c r="K30" s="0">
-        <v>0.14179654089999999</v>
+        <v>0.064711638199999991</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.16860522289999999</v>
+        <v>-0.13081929274399998</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.47021649180000002</v>
+        <v>-0.010847766560000005</v>
       </c>
       <c r="N30" s="0">
-        <v>0.44192789319999998</v>
+        <v>-0.08648935194259999</v>
       </c>
       <c r="O30" s="0">
         <v>0.076282387300000004</v>
@@ -6490,46 +6537,46 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.074635071260000005</v>
+        <v>0.18929403533399999</v>
       </c>
       <c r="B31" s="0">
-        <v>0.18129715869999999</v>
+        <v>-0.02976755403600001</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.068124624329999994</v>
+        <v>-0.19097107003880001</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.35594292329999999</v>
+        <v>-0.019217983379999998</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.41424499549999999</v>
+        <v>0.24995341966199999</v>
       </c>
       <c r="F31" s="0">
-        <v>0.31539501050000002</v>
+        <v>0.0045223151419999889</v>
       </c>
       <c r="G31" s="0">
-        <v>0.21453353119999999</v>
+        <v>-0.24489715323199998</v>
       </c>
       <c r="H31" s="0">
-        <v>-0.159831271</v>
+        <v>-0.023893723859199988</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.075573040029999997</v>
+        <v>-0.029050380239999986</v>
       </c>
       <c r="J31" s="0">
-        <v>-0.3339285595</v>
+        <v>-0.27623743516999999</v>
       </c>
       <c r="K31" s="0">
-        <v>0.067929079759999997</v>
+        <v>0.091722231073999988</v>
       </c>
       <c r="L31" s="0">
-        <v>-0.65097291930000001</v>
+        <v>-0.43078204609600002</v>
       </c>
       <c r="M31" s="0">
-        <v>0.28302521730000002</v>
+        <v>-0.49073652460000006</v>
       </c>
       <c r="N31" s="0">
-        <v>0.40648804830000002</v>
+        <v>-0.1783430017</v>
       </c>
       <c r="O31" s="0">
         <v>0.14248645030000001</v>
@@ -6702,46 +6749,46 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.56043646680000003</v>
+        <v>0.005728990860000005</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.28328371149999998</v>
+        <v>-0.082030839928000018</v>
       </c>
       <c r="C32" s="0">
-        <v>0.32690989980000001</v>
+        <v>-0.038060549759999993</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.0079426376439999998</v>
+        <v>-0.069806715842000003</v>
       </c>
       <c r="E32" s="0">
-        <v>-0.39337595209999998</v>
+        <v>-0.10970503524000001</v>
       </c>
       <c r="F32" s="0">
-        <v>0.29677808080000001</v>
+        <v>0.11441587527799997</v>
       </c>
       <c r="G32" s="0">
-        <v>0.02504957147</v>
+        <v>0.21854973391999999</v>
       </c>
       <c r="H32" s="0">
-        <v>0.13111757169999999</v>
+        <v>0.08608694057800001</v>
       </c>
       <c r="I32" s="0">
-        <v>-0.31402433769999999</v>
+        <v>-0.092586001283999991</v>
       </c>
       <c r="J32" s="0">
-        <v>-0.84689199820000005</v>
+        <v>0.11103821818000001</v>
       </c>
       <c r="K32" s="0">
-        <v>0.42306953730000002</v>
+        <v>-0.062579285620000022</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.0043088460350000002</v>
+        <v>-0.29370439743799998</v>
       </c>
       <c r="M32" s="0">
-        <v>-0.2846864885</v>
+        <v>-0.36632170084000004</v>
       </c>
       <c r="N32" s="0">
-        <v>-1.217854666</v>
+        <v>0.050292093859999998</v>
       </c>
       <c r="O32" s="0">
         <v>-0.3213862965</v>
@@ -6914,46 +6961,46 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.063242813270000003</v>
+        <v>0.18085321381000002</v>
       </c>
       <c r="B33" s="0">
-        <v>-0.78380432830000002</v>
+        <v>0.065662611326000001</v>
       </c>
       <c r="C33" s="0">
-        <v>-0.41949018529999998</v>
+        <v>0.1136400523</v>
       </c>
       <c r="D33" s="0">
-        <v>0</v>
+        <v>0.16809706485799999</v>
       </c>
       <c r="E33" s="0">
-        <v>-0.27992391519999998</v>
+        <v>-0.063995554553999995</v>
       </c>
       <c r="F33" s="0">
-        <v>-0.1297995871</v>
+        <v>0.31252366030000001</v>
       </c>
       <c r="G33" s="0">
-        <v>-0.65874959509999997</v>
+        <v>0.09058748849999998</v>
       </c>
       <c r="H33" s="0">
-        <v>-0.97750421610000005</v>
+        <v>0.071823532219999972</v>
       </c>
       <c r="I33" s="0">
-        <v>0</v>
+        <v>0.085392520860000015</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.49786993070000002</v>
+        <v>-0.18316417239999999</v>
       </c>
       <c r="K33" s="0">
-        <v>-0.23958965360000001</v>
+        <v>0.082211160399999983</v>
       </c>
       <c r="L33" s="0">
-        <v>-0.28193641250000001</v>
+        <v>-0.036273980720000008</v>
       </c>
       <c r="M33" s="0">
-        <v>-1.642544982</v>
+        <v>-0.12470805567999999</v>
       </c>
       <c r="N33" s="0">
-        <v>0</v>
+        <v>0.16765388352600002</v>
       </c>
       <c r="O33" s="0">
         <v>0.39874933950000002</v>
@@ -7126,46 +7173,46 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.18625208670000001</v>
+        <v>-0.54677096920424995</v>
       </c>
       <c r="B34" s="0">
-        <v>0.54130356170000005</v>
+        <v>-0.5985452294000001</v>
       </c>
       <c r="C34" s="0">
-        <v>0.62794075319999998</v>
+        <v>-0.40782255610000001</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.2353072491</v>
+        <v>-0.50940216969999996</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.46887689729999998</v>
+        <v>-0.43619735461499998</v>
       </c>
       <c r="F34" s="0">
-        <v>0.67908590400000002</v>
+        <v>-0.75164104652999997</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.033653784960000002</v>
+        <v>-0.419181588725</v>
       </c>
       <c r="H34" s="0">
-        <v>0.25939571909999998</v>
+        <v>-0.29570467302500003</v>
       </c>
       <c r="I34" s="0">
-        <v>-0.20999768560000001</v>
+        <v>-0.32780120554999997</v>
       </c>
       <c r="J34" s="0">
-        <v>-0.33705897219999997</v>
+        <v>-0.54224395904999989</v>
       </c>
       <c r="K34" s="0">
-        <v>-0.075875613240000001</v>
+        <v>-0.69523023451499999</v>
       </c>
       <c r="L34" s="0">
-        <v>0.070121311160000005</v>
+        <v>-0.29591579060250001</v>
       </c>
       <c r="M34" s="0">
-        <v>0.29731559359999998</v>
+        <v>-0.024114437024999991</v>
       </c>
       <c r="N34" s="0">
-        <v>-0.19287493310000001</v>
+        <v>-0.0087273348250000056</v>
       </c>
       <c r="O34" s="0">
         <v>0.048692091069999999</v>
@@ -7338,46 +7385,46 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>-0.4023658336</v>
+        <v>0.074979400594000017</v>
       </c>
       <c r="B35" s="0">
-        <v>-0.13795033409999999</v>
+        <v>0.19727106428000002</v>
       </c>
       <c r="C35" s="0">
-        <v>0.54554474990000001</v>
+        <v>-0.125795220102</v>
       </c>
       <c r="D35" s="0">
-        <v>0.83167074699999999</v>
+        <v>-0.25635904096000001</v>
       </c>
       <c r="E35" s="0">
-        <v>0.65521661099999995</v>
+        <v>-0.17787053095200001</v>
       </c>
       <c r="F35" s="0">
-        <v>-0.21402059349999999</v>
+        <v>-0.25095809863599999</v>
       </c>
       <c r="G35" s="0">
-        <v>0.25510148300000002</v>
+        <v>-0.374184857466</v>
       </c>
       <c r="H35" s="0">
-        <v>0.28350043390000002</v>
+        <v>-0.29607404372480001</v>
       </c>
       <c r="I35" s="0">
-        <v>0.93979902260000003</v>
+        <v>-0.27262324618</v>
       </c>
       <c r="J35" s="0">
-        <v>0.68549690640000005</v>
+        <v>-0.31937694002000006</v>
       </c>
       <c r="K35" s="0">
-        <v>-0.38409139320000002</v>
+        <v>0.19747158500599998</v>
       </c>
       <c r="L35" s="0">
-        <v>0.19244599270000001</v>
+        <v>-0.15653823258000002</v>
       </c>
       <c r="M35" s="0">
-        <v>-0.039710037830000003</v>
+        <v>-0.29411398825599999</v>
       </c>
       <c r="N35" s="0">
-        <v>-0.24493661010000001</v>
+        <v>-0.24475923397999999</v>
       </c>
       <c r="O35" s="0">
         <v>0.89730491710000004</v>
@@ -7550,46 +7597,46 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.78949801870000003</v>
+        <v>0.053594512924000005</v>
       </c>
       <c r="B36" s="0">
-        <v>0.076071336559999994</v>
+        <v>-0.051124439947999999</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.43854945550000002</v>
+        <v>-0.10861153241000002</v>
       </c>
       <c r="D36" s="0">
-        <v>0.27983857000000001</v>
+        <v>-0.051590851001999984</v>
       </c>
       <c r="E36" s="0">
-        <v>0.19009589630000001</v>
+        <v>-0.0055875493440000088</v>
       </c>
       <c r="F36" s="0">
-        <v>0.85235150079999999</v>
+        <v>-0.1199719526</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.23082653019999999</v>
+        <v>-0.095385099019999975</v>
       </c>
       <c r="H36" s="0">
-        <v>-1.06890463</v>
+        <v>-0.048468316060000016</v>
       </c>
       <c r="I36" s="0">
-        <v>0.60628836230000005</v>
+        <v>-0.08747142363999999</v>
       </c>
       <c r="J36" s="0">
-        <v>0.7247054973</v>
+        <v>-0.20479173727200001</v>
       </c>
       <c r="K36" s="0">
-        <v>0.65871733619999995</v>
+        <v>-0.177918725394</v>
       </c>
       <c r="L36" s="0">
-        <v>0.14227395370000001</v>
+        <v>-0.081888546125999981</v>
       </c>
       <c r="M36" s="0">
-        <v>-0.68553899340000002</v>
+        <v>-0.1897682389</v>
       </c>
       <c r="N36" s="0">
-        <v>0.7039844649</v>
+        <v>-0.17704627574000004</v>
       </c>
       <c r="O36" s="0">
         <v>1.0403552680000001</v>
@@ -7762,46 +7809,46 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>-0.079088635800000001</v>
+        <v>-0.123288678008</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.47742217310000001</v>
+        <v>-0.13509402279999996</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.67020813189999995</v>
+        <v>-0.0037161644400000248</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.0076945255520000002</v>
+        <v>0.18816483779400001</v>
       </c>
       <c r="E37" s="0">
-        <v>-1.2763579469999999</v>
+        <v>0.57009511828000003</v>
       </c>
       <c r="F37" s="0">
-        <v>-0.3671061088</v>
+        <v>-0.051863792402000009</v>
       </c>
       <c r="G37" s="0">
-        <v>-0.060822541950000003</v>
+        <v>-0.20156523131999998</v>
       </c>
       <c r="H37" s="0">
-        <v>-0.53932239829999995</v>
+        <v>-0.04156272663599999</v>
       </c>
       <c r="I37" s="0">
-        <v>-0.36531482980000002</v>
+        <v>0.101651464796</v>
       </c>
       <c r="J37" s="0">
-        <v>-1.7245826259999999</v>
+        <v>0.019772885900000047</v>
       </c>
       <c r="K37" s="0">
-        <v>-0.88156769199999996</v>
+        <v>-0.20101067134199999</v>
       </c>
       <c r="L37" s="0">
-        <v>-0.098834057719999993</v>
+        <v>-0.10867540471999999</v>
       </c>
       <c r="M37" s="0">
-        <v>-0.63855438050000002</v>
+        <v>-0.097842541519999965</v>
       </c>
       <c r="N37" s="0">
-        <v>-0.9442198919</v>
+        <v>0.052459334680000011</v>
       </c>
       <c r="O37" s="0">
         <v>-1.3300000160000001</v>
@@ -7974,46 +8021,46 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.35299724869999999</v>
+        <v>-0.18490965797999998</v>
       </c>
       <c r="B38" s="0">
-        <v>-1.0335598479999999</v>
+        <v>-0.49720951900600008</v>
       </c>
       <c r="C38" s="0">
-        <v>0.43164379419999999</v>
+        <v>-0.29769711177999997</v>
       </c>
       <c r="D38" s="0">
-        <v>0.037252228739999997</v>
+        <v>-0.14834007681200001</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.26690381229999999</v>
+        <v>0.033126141720000016</v>
       </c>
       <c r="F38" s="0">
-        <v>0.28269765400000002</v>
+        <v>-0.32614679722000001</v>
       </c>
       <c r="G38" s="0">
-        <v>-1.1757186470000001</v>
+        <v>-0.51502502719999999</v>
       </c>
       <c r="H38" s="0">
-        <v>0.5913598229</v>
+        <v>-0.18386410013999999</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.1206642917</v>
+        <v>-0.18432785714000005</v>
       </c>
       <c r="J38" s="0">
-        <v>-0.38655526140000002</v>
+        <v>-0.042545678419999997</v>
       </c>
       <c r="K38" s="0">
-        <v>0.49825924900000002</v>
+        <v>-0.0019222708800000099</v>
       </c>
       <c r="L38" s="0">
-        <v>-1.182780792</v>
+        <v>-0.20804050969999999</v>
       </c>
       <c r="M38" s="0">
-        <v>0.1100671439</v>
+        <v>-0.17834371498000001</v>
       </c>
       <c r="N38" s="0">
-        <v>-0.47883988230000002</v>
+        <v>-0.52360440539499997</v>
       </c>
       <c r="O38" s="0">
         <v>-0.76855981880000002</v>
@@ -8186,46 +8233,46 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.058820912679999997</v>
+        <v>-0.079018746459999983</v>
       </c>
       <c r="B39" s="0">
-        <v>0.31365276889999999</v>
+        <v>-0.022886230190000002</v>
       </c>
       <c r="C39" s="0">
-        <v>0.72399380260000001</v>
+        <v>-0.42896224427999996</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.43021103649999998</v>
+        <v>-0.51894124325999991</v>
       </c>
       <c r="E39" s="0">
-        <v>-0.1454540688</v>
+        <v>-0.32413274662000002</v>
       </c>
       <c r="F39" s="0">
-        <v>0.10801462539999999</v>
+        <v>-0.31939289542000004</v>
       </c>
       <c r="G39" s="0">
-        <v>0.25471883490000002</v>
+        <v>-0.45974004864000007</v>
       </c>
       <c r="H39" s="0">
-        <v>0.4780902736</v>
+        <v>-0.05755932988000001</v>
       </c>
       <c r="I39" s="0">
-        <v>-0.89438626160000001</v>
+        <v>-0.15385719625800001</v>
       </c>
       <c r="J39" s="0">
-        <v>-0.10059546530000001</v>
+        <v>-1.019002661667</v>
       </c>
       <c r="K39" s="0">
-        <v>0.01557353607</v>
+        <v>-0.14911125613999998</v>
       </c>
       <c r="L39" s="0">
-        <v>0.57235860299999997</v>
+        <v>-0.190344388768</v>
       </c>
       <c r="M39" s="0">
-        <v>0.24390418820000001</v>
+        <v>-0.0061762317999999759</v>
       </c>
       <c r="N39" s="0">
-        <v>-1.0663645719999999</v>
+        <v>-0.99760507659200004</v>
       </c>
       <c r="O39" s="0">
         <v>-0.55561698520000002</v>
@@ -8398,46 +8445,46 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.27238300409999999</v>
+        <v>0.044546234977799991</v>
       </c>
       <c r="B40" s="0">
-        <v>-0.21705931349999999</v>
+        <v>-0.29239464002000004</v>
       </c>
       <c r="C40" s="0">
-        <v>-0.68085718890000002</v>
+        <v>-0.13813035779999999</v>
       </c>
       <c r="D40" s="0">
-        <v>0.01153440522</v>
+        <v>-0.20422547971999999</v>
       </c>
       <c r="E40" s="0">
-        <v>-0.37796489760000002</v>
+        <v>-0.090054571946</v>
       </c>
       <c r="F40" s="0">
-        <v>-0.040674477200000003</v>
+        <v>-0.22317560879000001</v>
       </c>
       <c r="G40" s="0">
-        <v>-0.55317555640000005</v>
+        <v>-0.33288367110600003</v>
       </c>
       <c r="H40" s="0">
-        <v>-0.46487829359999999</v>
+        <v>-0.21254725280200004</v>
       </c>
       <c r="I40" s="0">
-        <v>0.72262456500000005</v>
+        <v>0.092162932118000002</v>
       </c>
       <c r="J40" s="0">
-        <v>-0.56674880130000005</v>
+        <v>-0.036085928449999999</v>
       </c>
       <c r="K40" s="0">
-        <v>-0.1848284245</v>
+        <v>-0.17127703424000001</v>
       </c>
       <c r="L40" s="0">
-        <v>-0.92492952070000001</v>
+        <v>-0.21316700250000001</v>
       </c>
       <c r="M40" s="0">
-        <v>-0.1782530739</v>
+        <v>-0.080654440639999964</v>
       </c>
       <c r="N40" s="0">
-        <v>-0.0014187262669999999</v>
+        <v>0.088344273267999957</v>
       </c>
       <c r="O40" s="0">
         <v>-0.63524519300000004</v>
@@ -8610,46 +8657,46 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.21291769460000001</v>
+        <v>-0.014646918958000004</v>
       </c>
       <c r="B41" s="0">
-        <v>0.044684467780000001</v>
+        <v>0.023975867979999999</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.075226481319999997</v>
+        <v>-0.11087946754</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.25433178200000001</v>
+        <v>0.25570558324200005</v>
       </c>
       <c r="E41" s="0">
-        <v>-0.2922323194</v>
+        <v>0.33232963297999996</v>
       </c>
       <c r="F41" s="0">
-        <v>0.40285829750000002</v>
+        <v>-0.22363083304</v>
       </c>
       <c r="G41" s="0">
-        <v>-0.071984355360000002</v>
+        <v>-0.30044315072</v>
       </c>
       <c r="H41" s="0">
-        <v>-0.46437344539999997</v>
+        <v>-0.11066852115799999</v>
       </c>
       <c r="I41" s="0">
-        <v>-0.42988896310000002</v>
+        <v>0.038270254354000006</v>
       </c>
       <c r="J41" s="0">
-        <v>-0.57313719500000004</v>
+        <v>-0.0073841153759999891</v>
       </c>
       <c r="K41" s="0">
-        <v>-0.42229211329999999</v>
+        <v>0.061246014652000004</v>
       </c>
       <c r="L41" s="0">
-        <v>0.2617930839</v>
+        <v>0.25444388062000001</v>
       </c>
       <c r="M41" s="0">
-        <v>-0.191648393</v>
+        <v>0.66085313970000004</v>
       </c>
       <c r="N41" s="0">
-        <v>-0.48689764099999999</v>
+        <v>0.43354971550800003</v>
       </c>
       <c r="O41" s="0">
         <v>-0.67851346629999998</v>
@@ -8822,46 +8869,46 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>-0.69064626920000005</v>
+        <v>0.15737113942999997</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.2052091875</v>
+        <v>-0.22468741876000001</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.34170502609999998</v>
+        <v>-0.245230211354</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.14015750930000001</v>
+        <v>-0.11540902335999999</v>
       </c>
       <c r="E42" s="0">
-        <v>0.25211388870000001</v>
+        <v>-0.014655163539999983</v>
       </c>
       <c r="F42" s="0">
-        <v>-0.63339292390000002</v>
+        <v>-0.28466592010000002</v>
       </c>
       <c r="G42" s="0">
-        <v>-0.31443198220000002</v>
+        <v>-0.48578625629999994</v>
       </c>
       <c r="H42" s="0">
-        <v>-0.32666123749999998</v>
+        <v>-0.38174187932600001</v>
       </c>
       <c r="I42" s="0">
-        <v>-0.79991241420000003</v>
+        <v>-0.14045863832799999</v>
       </c>
       <c r="J42" s="0">
-        <v>0.11862471350000001</v>
+        <v>-0.094802570018000007</v>
       </c>
       <c r="K42" s="0">
-        <v>-0.48950733219999998</v>
+        <v>-0.4014472416</v>
       </c>
       <c r="L42" s="0">
-        <v>0.31099717919999997</v>
+        <v>-0.76899879425999995</v>
       </c>
       <c r="M42" s="0">
-        <v>-0.39657726809999999</v>
+        <v>-0.33994679316600002</v>
       </c>
       <c r="N42" s="0">
-        <v>-0.81481982539999998</v>
+        <v>0.018784179240000042</v>
       </c>
       <c r="O42" s="0">
         <v>0.40902775530000002</v>
@@ -9034,46 +9081,46 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.12529987349999999</v>
+        <v>-0.11767582183400001</v>
       </c>
       <c r="B43" s="0">
-        <v>0.065190056709999999</v>
+        <v>-0.031231405952000003</v>
       </c>
       <c r="C43" s="0">
-        <v>0.16564821800000001</v>
+        <v>0.0089675025400000052</v>
       </c>
       <c r="D43" s="0">
-        <v>0.3474631218</v>
+        <v>-0.36005671962000002</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.24478439269999999</v>
+        <v>-0.42091038926000002</v>
       </c>
       <c r="F43" s="0">
-        <v>0.45654116830000002</v>
+        <v>-0.33935783410000003</v>
       </c>
       <c r="G43" s="0">
-        <v>0.22231943709999999</v>
+        <v>-0.56481906104000001</v>
       </c>
       <c r="H43" s="0">
-        <v>-0.1331431152</v>
+        <v>-0.2834701668704</v>
       </c>
       <c r="I43" s="0">
-        <v>-0.23486403289999999</v>
+        <v>-0.31148566309000003</v>
       </c>
       <c r="J43" s="0">
-        <v>0.1151042464</v>
+        <v>-0.79601889609999998</v>
       </c>
       <c r="K43" s="0">
-        <v>0.87748683490000001</v>
+        <v>0.17617025812000001</v>
       </c>
       <c r="L43" s="0">
-        <v>0.22995536429999999</v>
+        <v>0.19315178982800002</v>
       </c>
       <c r="M43" s="0">
-        <v>0.24387982020000001</v>
+        <v>0.32879459943800005</v>
       </c>
       <c r="N43" s="0">
-        <v>-0.2431576889</v>
+        <v>-0.54788160254000007</v>
       </c>
       <c r="O43" s="0">
         <v>-0.1140072796</v>
@@ -9246,46 +9293,46 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>-0.59487745160000005</v>
+        <v>-0.11181660149999999</v>
       </c>
       <c r="B44" s="0">
-        <v>0.102635083</v>
+        <v>0.050752564259999987</v>
       </c>
       <c r="C44" s="0">
-        <v>0.75182546620000001</v>
+        <v>-0.066731687711999998</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.58419966349999997</v>
+        <v>-0.149339296058</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.47554500119999998</v>
+        <v>-0.038807868016000002</v>
       </c>
       <c r="F44" s="0">
-        <v>-0.82943315419999997</v>
+        <v>-0.28066726425999999</v>
       </c>
       <c r="G44" s="0">
-        <v>-0.028124715429999999</v>
+        <v>-0.34608858147999999</v>
       </c>
       <c r="H44" s="0">
-        <v>0.77503639589999995</v>
+        <v>-0.14239684300399999</v>
       </c>
       <c r="I44" s="0">
-        <v>-0.1645018379</v>
+        <v>0.019098441838000014</v>
       </c>
       <c r="J44" s="0">
-        <v>-0.62407772110000004</v>
+        <v>-0.18115622937999998</v>
       </c>
       <c r="K44" s="0">
-        <v>-0.46684537479999999</v>
+        <v>-0.22152001823799999</v>
       </c>
       <c r="L44" s="0">
-        <v>-0.35911760990000002</v>
+        <v>-0.31678882654039997</v>
       </c>
       <c r="M44" s="0">
-        <v>0.80594074959999995</v>
+        <v>-0.56806312442000007</v>
       </c>
       <c r="N44" s="0">
-        <v>-0.4019674547</v>
+        <v>0.39719347349999995</v>
       </c>
       <c r="O44" s="0">
         <v>-0.56576498959999999</v>
@@ -9458,46 +9505,46 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>-0.015832420520000001</v>
+        <v>0.014861940050000005</v>
       </c>
       <c r="B45" s="0">
-        <v>-0.57728833079999997</v>
+        <v>0.30429007131999997</v>
       </c>
       <c r="C45" s="0">
-        <v>0</v>
+        <v>-0.0822687577</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.31320206649999999</v>
+        <v>-0.35113573510399998</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.27464062140000001</v>
+        <v>-0.26370171232</v>
       </c>
       <c r="F45" s="0">
-        <v>0.50632371399999998</v>
+        <v>-0.34322616180600002</v>
       </c>
       <c r="G45" s="0">
-        <v>-0.74993088510000006</v>
+        <v>0.19752038448000001</v>
       </c>
       <c r="H45" s="0">
-        <v>0</v>
+        <v>0.083051227411999981</v>
       </c>
       <c r="I45" s="0">
-        <v>-0.079594625409999994</v>
+        <v>0.025882105450000005</v>
       </c>
       <c r="J45" s="0">
-        <v>0.2353946831</v>
+        <v>0.23845059935999999</v>
       </c>
       <c r="K45" s="0">
-        <v>0.66919949079999996</v>
+        <v>0.038245261639999986</v>
       </c>
       <c r="L45" s="0">
-        <v>-0.93648640439999997</v>
+        <v>0.020005150229999998</v>
       </c>
       <c r="M45" s="0">
-        <v>0</v>
+        <v>0.089117965899999957</v>
       </c>
       <c r="N45" s="0">
-        <v>-0.40087061619999997</v>
+        <v>-0.055650307500000017</v>
       </c>
       <c r="O45" s="0">
         <v>0.23920347259999999</v>
@@ -9670,46 +9717,46 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.016976506459999999</v>
+        <v>-0.28740094507499997</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.24962140150000001</v>
+        <v>-0.33726335755000003</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.47850041999999998</v>
+        <v>-0.23469229642249997</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.64952191520000002</v>
+        <v>-0.34922469569999998</v>
       </c>
       <c r="E46" s="0">
-        <v>0.039805258060000001</v>
+        <v>-0.20184690566750005</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.064374328460000005</v>
+        <v>-0.36828665354999995</v>
       </c>
       <c r="G46" s="0">
-        <v>0.14877037800000001</v>
+        <v>-0.48221606247500004</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.74069558729999996</v>
+        <v>-0.61026974313500004</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.1531273313</v>
+        <v>-0.2863100515525</v>
       </c>
       <c r="J46" s="0">
-        <v>0.90399015009999995</v>
+        <v>-0.52488054465</v>
       </c>
       <c r="K46" s="0">
-        <v>0.49957220320000001</v>
+        <v>-0.048613286894999996</v>
       </c>
       <c r="L46" s="0">
-        <v>0.1632554896</v>
+        <v>-0.22561817082499996</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.76094635879999994</v>
+        <v>-0.12543797039499999</v>
       </c>
       <c r="N46" s="0">
-        <v>0.22666156509999999</v>
+        <v>-0.37853253183249996</v>
       </c>
       <c r="O46" s="0">
         <v>1.911679589</v>
@@ -9882,46 +9929,46 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.081708992950000003</v>
+        <v>0.15701511676999996</v>
       </c>
       <c r="B47" s="0">
-        <v>0.2219452257</v>
+        <v>0.067622035739999961</v>
       </c>
       <c r="C47" s="0">
-        <v>0</v>
+        <v>0.319473473048</v>
       </c>
       <c r="D47" s="0">
-        <v>0.54012617340000002</v>
+        <v>0.084836738652000004</v>
       </c>
       <c r="E47" s="0">
-        <v>-0.23530649770000001</v>
+        <v>0.17426618428239998</v>
       </c>
       <c r="F47" s="0">
-        <v>0.3395870399</v>
+        <v>0.090303468720000002</v>
       </c>
       <c r="G47" s="0">
-        <v>-0.084602625609999996</v>
+        <v>0.056006818485999997</v>
       </c>
       <c r="H47" s="0">
-        <v>0</v>
+        <v>-0.085058423571999997</v>
       </c>
       <c r="I47" s="0">
-        <v>0.012903597609999999</v>
+        <v>0.010710264979999985</v>
       </c>
       <c r="J47" s="0">
-        <v>-0.39324929870000003</v>
+        <v>0.22257114560399999</v>
       </c>
       <c r="K47" s="0">
-        <v>0.83342734330000001</v>
+        <v>0.54205924492400004</v>
       </c>
       <c r="L47" s="0">
-        <v>0.39337416739999997</v>
+        <v>0.22024200992400003</v>
       </c>
       <c r="M47" s="0">
-        <v>0</v>
+        <v>0.39186679132000002</v>
       </c>
       <c r="N47" s="0">
-        <v>-0.01587095413</v>
+        <v>0.27048909692000001</v>
       </c>
       <c r="O47" s="0">
         <v>0.24858040619999999</v>
@@ -10094,46 +10141,46 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>-0.10434564189999999</v>
+        <v>0.027729544700000011</v>
       </c>
       <c r="B48" s="0">
-        <v>0.56849102569999999</v>
+        <v>0.43302776477499999</v>
       </c>
       <c r="C48" s="0">
-        <v>0</v>
+        <v>0.29206992929999998</v>
       </c>
       <c r="D48" s="0">
-        <v>0.2250711567</v>
+        <v>-0.15221269739000004</v>
       </c>
       <c r="E48" s="0">
-        <v>-0.269089146</v>
+        <v>0.019977268100000001</v>
       </c>
       <c r="F48" s="0">
-        <v>0.86078887410000005</v>
+        <v>-0.18990660947499999</v>
       </c>
       <c r="G48" s="0">
-        <v>0.41461256270000002</v>
+        <v>-0.037314220450000005</v>
       </c>
       <c r="H48" s="0">
-        <v>0</v>
+        <v>-0.15351002766749999</v>
       </c>
       <c r="I48" s="0">
-        <v>0.1944696685</v>
+        <v>-0.065363476562499995</v>
       </c>
       <c r="J48" s="0">
-        <v>-0.074731076610000002</v>
+        <v>0.47497321939999992</v>
       </c>
       <c r="K48" s="0">
-        <v>0.81105249059999995</v>
+        <v>0.56297257725000005</v>
       </c>
       <c r="L48" s="0">
-        <v>0.71560990049999995</v>
+        <v>0.3292233215</v>
       </c>
       <c r="M48" s="0">
-        <v>0</v>
+        <v>0.17086341034750002</v>
       </c>
       <c r="N48" s="0">
-        <v>-0.0092182142809999999</v>
+        <v>-0.073844130872499983</v>
       </c>
       <c r="O48" s="0">
         <v>-0.2301575163</v>
@@ -10306,46 +10353,46 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.2341161471</v>
+        <v>0.33639749337500002</v>
       </c>
       <c r="B49" s="0">
-        <v>0.28113928890000001</v>
+        <v>0.71485658242499994</v>
       </c>
       <c r="C49" s="0">
-        <v>-0.35050148949999999</v>
+        <v>0.68865235725000007</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.4821374699</v>
+        <v>0.043577553472500009</v>
       </c>
       <c r="E49" s="0">
-        <v>0.37597120610000001</v>
+        <v>-0.29535256495000001</v>
       </c>
       <c r="F49" s="0">
-        <v>-0.087528698150000001</v>
+        <v>0.17229771820000001</v>
       </c>
       <c r="G49" s="0">
-        <v>-0.41078686879999998</v>
+        <v>0.16707570667500002</v>
       </c>
       <c r="H49" s="0">
-        <v>-0.13647917239999999</v>
+        <v>0.20399600975500001</v>
       </c>
       <c r="I49" s="0">
-        <v>-0.61846520490000001</v>
+        <v>0.15170704245</v>
       </c>
       <c r="J49" s="0">
-        <v>-0.00325052147</v>
+        <v>-0.12749859107499997</v>
       </c>
       <c r="K49" s="0">
-        <v>0.2294301869</v>
+        <v>0.55131213229999998</v>
       </c>
       <c r="L49" s="0">
-        <v>-0.26031016629999998</v>
+        <v>0.41982698689999998</v>
       </c>
       <c r="M49" s="0">
-        <v>-0.38931280309999999</v>
+        <v>0.43289232827500002</v>
       </c>
       <c r="N49" s="0">
-        <v>-0.49822561999999998</v>
+        <v>0.51729593137499996</v>
       </c>
       <c r="O49" s="0">
         <v>0.53844279559999997</v>
@@ -10518,46 +10565,46 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.069055543959999993</v>
+        <v>0.011674378651999981</v>
       </c>
       <c r="B50" s="0">
-        <v>1.784067265</v>
+        <v>0.13472475465600003</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>-0.026821156041999999</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.1183358565</v>
+        <v>-0.133557534472</v>
       </c>
       <c r="E50" s="0">
-        <v>-0.29415006510000002</v>
+        <v>0.13531035669159999</v>
       </c>
       <c r="F50" s="0">
-        <v>-0.2672687654</v>
+        <v>0.14565291427200006</v>
       </c>
       <c r="G50" s="0">
-        <v>1.8418207680000001</v>
+        <v>0.083215789200000015</v>
       </c>
       <c r="H50" s="0">
-        <v>0</v>
+        <v>-0.073667310434000016</v>
       </c>
       <c r="I50" s="0">
-        <v>0.52515858630000001</v>
+        <v>-0.26664220623000001</v>
       </c>
       <c r="J50" s="0">
-        <v>-0.1128713111</v>
+        <v>0.059268956219999946</v>
       </c>
       <c r="K50" s="0">
-        <v>0.18017140309999999</v>
+        <v>0.081405785344000017</v>
       </c>
       <c r="L50" s="0">
-        <v>1.0485724489999999</v>
+        <v>0.026916678077999988</v>
       </c>
       <c r="M50" s="0">
-        <v>0</v>
+        <v>0.14716759924</v>
       </c>
       <c r="N50" s="0">
-        <v>0.23258755189999999</v>
+        <v>-0.098824155343</v>
       </c>
       <c r="O50" s="0">
         <v>0.3814151717</v>
@@ -10730,46 +10777,46 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>-0.089017635799999995</v>
+        <v>0.21272562366499997</v>
       </c>
       <c r="B51" s="0">
-        <v>-0.61784582779999997</v>
+        <v>0.42826608150000001</v>
       </c>
       <c r="C51" s="0">
-        <v>0</v>
+        <v>0.090019118049999958</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.51690870339999995</v>
+        <v>-0.13966105214999999</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.66181114730000001</v>
+        <v>-0.3603883536875</v>
       </c>
       <c r="F51" s="0">
-        <v>0.41389955169999998</v>
+        <v>0.12546245485000002</v>
       </c>
       <c r="G51" s="0">
-        <v>-0.32610399979999999</v>
+        <v>0.34769727454999999</v>
       </c>
       <c r="H51" s="0">
-        <v>0</v>
+        <v>0.49760958852499998</v>
       </c>
       <c r="I51" s="0">
-        <v>-0.55579250179999995</v>
+        <v>-0.20305184069999999</v>
       </c>
       <c r="J51" s="0">
-        <v>-0.41361867930000001</v>
+        <v>0.94225027915750004</v>
       </c>
       <c r="K51" s="0">
-        <v>0.27139162760000002</v>
+        <v>0.091124855128750015</v>
       </c>
       <c r="L51" s="0">
-        <v>0.094260979240000001</v>
+        <v>-0.025908035024999998</v>
       </c>
       <c r="M51" s="0">
-        <v>0</v>
+        <v>-0.35865630387499997</v>
       </c>
       <c r="N51" s="0">
-        <v>-0.53155386339999999</v>
+        <v>-0.015729159775000057</v>
       </c>
       <c r="O51" s="0">
         <v>-1.1064945479999999</v>
@@ -10942,46 +10989,46 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>-0.22399058660000001</v>
+        <v>-0.37221578426250002</v>
       </c>
       <c r="B52" s="0">
-        <v>-0.23799334859999999</v>
+        <v>-0.48136101325000002</v>
       </c>
       <c r="C52" s="0">
-        <v>0</v>
+        <v>-0.28055194304999997</v>
       </c>
       <c r="D52" s="0">
-        <v>0.36944743400000002</v>
+        <v>-0.1036324765</v>
       </c>
       <c r="E52" s="0">
-        <v>0</v>
+        <v>-0.58973498704999994</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.049348769629999997</v>
+        <v>-0.34279825207999998</v>
       </c>
       <c r="G52" s="0">
-        <v>0.040255953160000003</v>
+        <v>-0.37953383694999998</v>
       </c>
       <c r="H52" s="0">
-        <v>0</v>
+        <v>-0.25524038388499998</v>
       </c>
       <c r="I52" s="0">
-        <v>0.1609943838</v>
+        <v>-0.27933938784750001</v>
       </c>
       <c r="J52" s="0">
-        <v>0</v>
+        <v>-0.1789779808885</v>
       </c>
       <c r="K52" s="0">
-        <v>0.017415856050000001</v>
+        <v>-0.18660666046250002</v>
       </c>
       <c r="L52" s="0">
-        <v>0.32118366799999998</v>
+        <v>-0.41995574885999998</v>
       </c>
       <c r="M52" s="0">
-        <v>0</v>
+        <v>-0.37914366264749999</v>
       </c>
       <c r="N52" s="0">
-        <v>0.086568230339999996</v>
+        <v>-0.50769239557500001</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>
@@ -11150,6 +11197,50 @@
       </c>
       <c r="BR52" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>-0.6152199831666666</v>
+      </c>
+      <c r="B53" s="0">
+        <v>-0.48961685188333343</v>
+      </c>
+      <c r="C53" s="0">
+        <v>-0.30313926887000003</v>
+      </c>
+      <c r="D53" s="0">
+        <v>-0.035267152333333336</v>
+      </c>
+      <c r="E53" s="0">
+        <v>-0.60779118873333338</v>
+      </c>
+      <c r="F53" s="0">
+        <v>-0.10968015980000001</v>
+      </c>
+      <c r="G53" s="0">
+        <v>0.11503947892666666</v>
+      </c>
+      <c r="H53" s="0">
+        <v>0.0024838254100000012</v>
+      </c>
+      <c r="I53" s="0">
+        <v>-0.55930822466666663</v>
+      </c>
+      <c r="J53" s="0">
+        <v>-0.27374326789999998</v>
+      </c>
+      <c r="K53" s="0">
+        <v>0.041176115266666681</v>
+      </c>
+      <c r="L53" s="0">
+        <v>-0.75269883013333327</v>
+      </c>
+      <c r="M53" s="0">
+        <v>-0.78019503653333333</v>
+      </c>
+      <c r="N53" s="0">
+        <v>-0.33367815718000005</v>
       </c>
     </row>
   </sheetData>

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -13,7 +13,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -177,46 +387,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="O1" s="0">
         <v>-0.36030029759999999</v>

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -13,7 +13,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -313,20 +397,20 @@
   <dimension ref="A1:BR53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
     <col min="3" max="3" width="14.42578125" customWidth="true"/>
-    <col min="4" max="4" width="14.42578125" customWidth="true"/>
-    <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="16.42578125" customWidth="true"/>
-    <col min="7" max="7" width="16.42578125" customWidth="true"/>
-    <col min="8" max="8" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="14.42578125" customWidth="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true"/>
+    <col min="8" max="8" width="14.42578125" customWidth="true"/>
     <col min="9" max="9" width="15.42578125" customWidth="true"/>
-    <col min="10" max="10" width="15.42578125" customWidth="true"/>
-    <col min="11" max="11" width="14.7109375" customWidth="true"/>
+    <col min="10" max="10" width="14.42578125" customWidth="true"/>
+    <col min="11" max="11" width="14.42578125" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
-    <col min="14" max="14" width="15.42578125" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" customWidth="true"/>
     <col min="15" max="15" width="14.42578125" customWidth="true"/>
     <col min="16" max="16" width="15.42578125" customWidth="true"/>
     <col min="17" max="17" width="15.42578125" customWidth="true"/>
@@ -387,46 +471,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="O1" s="0">
         <v>-0.36030029759999999</v>
@@ -599,46 +683,46 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.14078792467500001</v>
+        <v>-0.17404947509500002</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26596551942999996</v>
+        <v>0.098749061035000002</v>
       </c>
       <c r="C2" s="0">
-        <v>0.16630994242500002</v>
+        <v>-0.052212924644999999</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.10697171619500001</v>
+        <v>-0.021883959077500001</v>
       </c>
       <c r="E2" s="0">
-        <v>0.078230294397499983</v>
+        <v>0.041203313919999998</v>
       </c>
       <c r="F2" s="0">
-        <v>0.3620132902</v>
+        <v>-0.045271061934999995</v>
       </c>
       <c r="G2" s="0">
-        <v>0.45045286733250001</v>
+        <v>0.1484613273075</v>
       </c>
       <c r="H2" s="0">
-        <v>0.051652257710499999</v>
+        <v>-0.10187551697699999</v>
       </c>
       <c r="I2" s="0">
-        <v>0.23966917888525002</v>
+        <v>0.024551287557250008</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.39799031565000004</v>
+        <v>-0.74635415267500005</v>
       </c>
       <c r="K2" s="0">
-        <v>0.37361356288500003</v>
+        <v>0.15934744287499999</v>
       </c>
       <c r="L2" s="0">
-        <v>0.77566791997499995</v>
+        <v>0.16259734787749999</v>
       </c>
       <c r="M2" s="0">
-        <v>0.35305775685000002</v>
+        <v>0.049747595950000008</v>
       </c>
       <c r="N2" s="0">
-        <v>0.58037688677499999</v>
+        <v>-0.15645782475</v>
       </c>
       <c r="O2" s="0">
         <v>-2.2181104129999998</v>
@@ -811,46 +895,46 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.20996722792500003</v>
+        <v>-0.177608158352</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.37201425342500005</v>
+        <v>-0.31965428096000004</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.61009833860000007</v>
+        <v>-0.44395674948000002</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.19790024845000001</v>
+        <v>-0.17819079336400001</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.49357198542499992</v>
+        <v>-0.42045410224000002</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.89110872922499995</v>
+        <v>-0.74546986727999998</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.32303606535000001</v>
+        <v>-0.29959097899999998</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.15099334535999998</v>
+        <v>-0.081749090787999995</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.58349606397499998</v>
+        <v>-0.4965314493800001</v>
       </c>
       <c r="J3" s="0">
-        <v>0.15926253912500002</v>
+        <v>0.36309151909999998</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.0817383018250002</v>
+        <v>-0.87656137640400011</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.61146063805000006</v>
+        <v>-0.47075110990599994</v>
       </c>
       <c r="M3" s="0">
-        <v>0.017350899924999941</v>
+        <v>0.017875184925999932</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.51186113249999998</v>
+        <v>-0.61045343340000002</v>
       </c>
       <c r="O3" s="0">
         <v>2.209751169</v>
@@ -1023,46 +1107,46 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.011246142311999996</v>
+        <v>-0.014483754904000007</v>
       </c>
       <c r="B4" s="0">
-        <v>0.091198319780000009</v>
+        <v>0.086456085120000026</v>
       </c>
       <c r="C4" s="0">
-        <v>0.42554838991599997</v>
+        <v>0.42552011843599996</v>
       </c>
       <c r="D4" s="0">
-        <v>0.2966529564</v>
+        <v>0.18113726774</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00039751792000002338</v>
+        <v>-0.06298730542</v>
       </c>
       <c r="F4" s="0">
-        <v>0.12179037455999997</v>
+        <v>-0.06727547456000002</v>
       </c>
       <c r="G4" s="0">
-        <v>0.22271198225400002</v>
+        <v>0.085721532156399993</v>
       </c>
       <c r="H4" s="0">
-        <v>0.24734662946800001</v>
+        <v>0.22191534698800003</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0187820136116</v>
+        <v>-0.026372654596000005</v>
       </c>
       <c r="J4" s="0">
-        <v>0.21327603598800002</v>
+        <v>0.28991432420800001</v>
       </c>
       <c r="K4" s="0">
-        <v>0.058380246290000007</v>
+        <v>-0.083234223020000012</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.50945415488000001</v>
+        <v>-0.49167504645999999</v>
       </c>
       <c r="M4" s="0">
-        <v>-0.57936641748400008</v>
+        <v>-0.39214274555</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.66729688630000017</v>
+        <v>-0.56042485312000001</v>
       </c>
       <c r="O4" s="0">
         <v>0.4165435166</v>
@@ -1235,46 +1319,46 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.265790235185</v>
+        <v>-0.034408589239999975</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.06316968052999998</v>
+        <v>0.022381938406000002</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.02475423363249999</v>
+        <v>0.059936688904000002</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.115945025625</v>
+        <v>-0.143475222988</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.029614134842500001</v>
+        <v>0.043798379836000004</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.1670532945</v>
+        <v>-0.17804600139400001</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.33613959226750001</v>
+        <v>-0.28971948063999997</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.21393806663749998</v>
+        <v>-0.2396612455214</v>
       </c>
       <c r="I5" s="0">
-        <v>0.24070038344</v>
+        <v>0.10844125808000001</v>
       </c>
       <c r="J5" s="0">
-        <v>0.24815848730000001</v>
+        <v>0.38858298976000005</v>
       </c>
       <c r="K5" s="0">
-        <v>0.12100199635000002</v>
+        <v>0.22564394052</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.016418232725000009</v>
+        <v>-0.13084269542000002</v>
       </c>
       <c r="M5" s="0">
-        <v>0.064603163825000004</v>
+        <v>0.18659904059999999</v>
       </c>
       <c r="N5" s="0">
-        <v>0.35563680199250003</v>
+        <v>0.31384271154000004</v>
       </c>
       <c r="O5" s="0">
         <v>0.041952293760000002</v>
@@ -1447,46 +1531,46 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.075152260453999989</v>
+        <v>0.27231863468</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.083660592499999992</v>
+        <v>0.14390450374000002</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.062494528991999976</v>
+        <v>0.18977620054000002</v>
       </c>
       <c r="D6" s="0">
-        <v>0.12776610860200002</v>
+        <v>0.21858967148200001</v>
       </c>
       <c r="E6" s="0">
-        <v>0.28439010749999999</v>
+        <v>0.30994357175999998</v>
       </c>
       <c r="F6" s="0">
-        <v>0.207493784958</v>
+        <v>0.41538343073600004</v>
       </c>
       <c r="G6" s="0">
-        <v>0.14752463677399999</v>
+        <v>0.36875111675399996</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.024887240086000007</v>
+        <v>0.20267146704</v>
       </c>
       <c r="I6" s="0">
-        <v>0.25218266547199997</v>
+        <v>0.40251759771200002</v>
       </c>
       <c r="J6" s="0">
-        <v>0.02003721643999996</v>
+        <v>0.40471625038000003</v>
       </c>
       <c r="K6" s="0">
-        <v>0.41747833310000004</v>
+        <v>0.64140013220000003</v>
       </c>
       <c r="L6" s="0">
-        <v>0.22016945222000001</v>
+        <v>0.473795503708</v>
       </c>
       <c r="M6" s="0">
-        <v>0.197302110374</v>
+        <v>0.39757241627999995</v>
       </c>
       <c r="N6" s="0">
-        <v>0.22882967936000004</v>
+        <v>0.42826639035999997</v>
       </c>
       <c r="O6" s="0">
         <v>0.36606569439999997</v>
@@ -1659,46 +1743,46 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.046250182824200001</v>
+        <v>0.1744265710198</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.058722906380000009</v>
+        <v>0.11384394562</v>
       </c>
       <c r="C7" s="0">
-        <v>0.10204974968</v>
+        <v>0.28769072663800005</v>
       </c>
       <c r="D7" s="0">
-        <v>0.16056402572400003</v>
+        <v>0.34878457983999994</v>
       </c>
       <c r="E7" s="0">
-        <v>0.063559975859999979</v>
+        <v>0.29329104062599998</v>
       </c>
       <c r="F7" s="0">
-        <v>0.051341626019999996</v>
+        <v>0.20744567753999998</v>
       </c>
       <c r="G7" s="0">
-        <v>0.17964860281999998</v>
+        <v>0.30061399002399997</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.205075073</v>
+        <v>-0.099158271153999999</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.28404945481799998</v>
+        <v>-0.14719920126199998</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.19861942588000001</v>
+        <v>-0.14948484796</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.18115958201999999</v>
+        <v>-0.034069555519999982</v>
       </c>
       <c r="L7" s="0">
-        <v>0.17239634705999998</v>
+        <v>0.53002413195999998</v>
       </c>
       <c r="M7" s="0">
-        <v>-0.010100408779999992</v>
+        <v>0.28765590342000003</v>
       </c>
       <c r="N7" s="0">
-        <v>0.054758378799999986</v>
+        <v>0.17049336030000001</v>
       </c>
       <c r="O7" s="0">
         <v>-0.56850860540000003</v>
@@ -1871,46 +1955,46 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.44372081094000004</v>
+        <v>-0.29663124048060002</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.40098112718000001</v>
+        <v>-0.26110560478</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.54660805333999996</v>
+        <v>-0.38017037870800002</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.334807986286</v>
+        <v>-0.25578792806</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.48509310258000005</v>
+        <v>-0.43300434882000005</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.38045419493400001</v>
+        <v>-0.35198882339999998</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.22839825474</v>
+        <v>-0.18113076379999998</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.20601011471200001</v>
+        <v>-0.073132766512</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.49849447953799997</v>
+        <v>-0.40158205015800003</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.65786008768600002</v>
+        <v>-0.61921312468000012</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.71668320002000008</v>
+        <v>-0.60844717689799999</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.72865651773999995</v>
+        <v>-0.74423678969200002</v>
       </c>
       <c r="M8" s="0">
-        <v>-0.74729739013999996</v>
+        <v>-0.66449311039999992</v>
       </c>
       <c r="N8" s="0">
-        <v>-1.0532261623600001</v>
+        <v>-0.75392620345000005</v>
       </c>
       <c r="O8" s="0">
         <v>0.26118116409999997</v>
@@ -2083,46 +2167,46 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.036879565980000008</v>
+        <v>-0.070539696499999985</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.064233556012599988</v>
+        <v>-0.16889839997600001</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.11040672753599998</v>
+        <v>-0.16862712888</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.50877844657600002</v>
+        <v>-0.33146564270000001</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.37404365519599997</v>
+        <v>-0.31766842724</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.18374198442999998</v>
+        <v>-0.19598277952400001</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.35802148322000005</v>
+        <v>-0.10318859494000002</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.28461735014599998</v>
+        <v>-0.13131904179199999</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.072612520740000047</v>
+        <v>-0.016564598340000024</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.66241787896000004</v>
+        <v>-0.35529358865999999</v>
       </c>
       <c r="K9" s="0">
-        <v>0.62180340515999999</v>
+        <v>0.52910316609399999</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.30348870484000001</v>
+        <v>-0.19582983298000003</v>
       </c>
       <c r="M9" s="0">
-        <v>0.21463355250399996</v>
+        <v>0.38343070678399999</v>
       </c>
       <c r="N9" s="0">
-        <v>0.031344307233999988</v>
+        <v>0.133275924096</v>
       </c>
       <c r="O9" s="0">
         <v>1.475594625</v>
@@ -2295,46 +2379,46 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.16357386251999997</v>
+        <v>-0.17972466768799999</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.38012091135999998</v>
+        <v>-0.33269725926139998</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.36911390267999999</v>
+        <v>-0.32881310416000004</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.21916933635999997</v>
+        <v>-0.10159357506000002</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.30566488081999998</v>
+        <v>-0.14540198377999997</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.14736685736400004</v>
+        <v>-0.094309082819999987</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.36368383753799993</v>
+        <v>-0.40107503800800004</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.30805091755199998</v>
+        <v>-0.46186175309999999</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.36888629785999999</v>
+        <v>-0.35113355079999997</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.34913975616600001</v>
+        <v>-0.13018344653799999</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.2811325241</v>
+        <v>-0.17003140795999999</v>
       </c>
       <c r="L10" s="0">
-        <v>-0.25616873369800003</v>
+        <v>-0.36235347103800003</v>
       </c>
       <c r="M10" s="0">
-        <v>-0.14783237815199998</v>
+        <v>-0.13115113688999999</v>
       </c>
       <c r="N10" s="0">
-        <v>-0.21109517222000002</v>
+        <v>-0.1268883234</v>
       </c>
       <c r="O10" s="0">
         <v>0.076811407009999999</v>
@@ -2507,46 +2591,46 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.43902604907999992</v>
+        <v>0.39146498618200004</v>
       </c>
       <c r="B11" s="0">
-        <v>0.62174968051399992</v>
+        <v>0.52778952010000002</v>
       </c>
       <c r="C11" s="0">
-        <v>0.002251029839999974</v>
+        <v>-0.13632180960000001</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.04867447251600001</v>
+        <v>-0.15460537072</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.022138395179999992</v>
+        <v>-0.10623048503999999</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0047877875659999569</v>
+        <v>-0.098524746534000007</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.26898757822000002</v>
+        <v>-0.26475996738000002</v>
       </c>
       <c r="H11" s="0">
-        <v>0.061678997759999986</v>
+        <v>-0.030758927099999989</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.018555769572000006</v>
+        <v>-0.21177418592000002</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.050805510733999991</v>
+        <v>-0.30416712517200006</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.40895341122000001</v>
+        <v>-0.54232310738</v>
       </c>
       <c r="L11" s="0">
-        <v>-0.12527591523999998</v>
+        <v>-0.23038093981999994</v>
       </c>
       <c r="M11" s="0">
-        <v>-0.29077796502000003</v>
+        <v>-0.29757975201999998</v>
       </c>
       <c r="N11" s="0">
-        <v>0.10336844882199998</v>
+        <v>0.051067955204000003</v>
       </c>
       <c r="O11" s="0">
         <v>-0.47033640300000001</v>
@@ -2719,46 +2803,46 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.15845044899999999</v>
+        <v>-0.14079934590600002</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.27926780021200004</v>
+        <v>-0.20651421445600002</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.59725026784000002</v>
+        <v>-0.43134398875999996</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.059754489328000003</v>
+        <v>-0.119896482764</v>
       </c>
       <c r="E12" s="0">
-        <v>0.19551790424000001</v>
+        <v>0.070047106419999991</v>
       </c>
       <c r="F12" s="0">
-        <v>0.03885638120599999</v>
+        <v>0.071058348641999988</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.29320587951999999</v>
+        <v>-0.21179769198799997</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.32984070730199999</v>
+        <v>-0.17359164765399998</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.23668373237399995</v>
+        <v>-0.337705464392</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.35530480878999998</v>
+        <v>-0.20114020645</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.28550896895199995</v>
+        <v>-0.35961920932800001</v>
       </c>
       <c r="L12" s="0">
-        <v>-0.25037050088399998</v>
+        <v>-0.24188583614000003</v>
       </c>
       <c r="M12" s="0">
-        <v>-0.18137218692400001</v>
+        <v>-0.18516335260600003</v>
       </c>
       <c r="N12" s="0">
-        <v>-0.56908704440000002</v>
+        <v>-0.83104828660000007</v>
       </c>
       <c r="O12" s="0">
         <v>0.24583915889999999</v>
@@ -2931,46 +3015,46 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.30051822974799997</v>
+        <v>0.23027278461199999</v>
       </c>
       <c r="B13" s="0">
-        <v>0.13337583942</v>
+        <v>-0.001555064920000001</v>
       </c>
       <c r="C13" s="0">
-        <v>0.25220422283400001</v>
+        <v>0.042769489086</v>
       </c>
       <c r="D13" s="0">
-        <v>0.30396299495950002</v>
+        <v>0.24607298176999998</v>
       </c>
       <c r="E13" s="0">
-        <v>0.27963150699660005</v>
+        <v>0.27270043554800005</v>
       </c>
       <c r="F13" s="0">
-        <v>0.1763784175</v>
+        <v>0.1101407174</v>
       </c>
       <c r="G13" s="0">
-        <v>0.12031741795999999</v>
+        <v>0.027022329677000002</v>
       </c>
       <c r="H13" s="0">
-        <v>0.083529181979999992</v>
+        <v>-0.026508733480000001</v>
       </c>
       <c r="I13" s="0">
-        <v>0.0029332390199999893</v>
+        <v>0.025409329459999973</v>
       </c>
       <c r="J13" s="0">
-        <v>-0.26878169651999995</v>
+        <v>-0.28918646920000002</v>
       </c>
       <c r="K13" s="0">
-        <v>-0.16085545205999999</v>
+        <v>-0.182769539338</v>
       </c>
       <c r="L13" s="0">
-        <v>0.018342300159999981</v>
+        <v>-0.15447117285999998</v>
       </c>
       <c r="M13" s="0">
-        <v>0.33203034508000001</v>
+        <v>0.52034083221600003</v>
       </c>
       <c r="N13" s="0">
-        <v>0.042822212560000003</v>
+        <v>0.23019381257999999</v>
       </c>
       <c r="O13" s="0">
         <v>-0.33513325440000002</v>
@@ -3143,46 +3227,46 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.011303165178000002</v>
+        <v>0.19428359242000001</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.19634436159999999</v>
+        <v>0.10291485230000001</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.16232105578</v>
+        <v>0.083903644919999992</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.10306530106</v>
+        <v>-0.10883548604</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.22192712380000001</v>
+        <v>-0.24590304561999998</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.13984563656000001</v>
+        <v>0.07055247140999997</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.15166059926</v>
+        <v>0.093652709520000002</v>
       </c>
       <c r="H14" s="0">
-        <v>0.15729562760599999</v>
+        <v>0.28117804576000005</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.051519462879999998</v>
+        <v>-0.10680968288000001</v>
       </c>
       <c r="J14" s="0">
-        <v>-0.082932634757999987</v>
+        <v>-0.054512234337999989</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.31325015218000002</v>
+        <v>-0.22735219768000006</v>
       </c>
       <c r="L14" s="0">
-        <v>0.11465377557999998</v>
+        <v>0.25057783846000004</v>
       </c>
       <c r="M14" s="0">
-        <v>0.28574901727000002</v>
+        <v>0.43290486435000003</v>
       </c>
       <c r="N14" s="0">
-        <v>-0.171643545738</v>
+        <v>0.0081979446399999996</v>
       </c>
       <c r="O14" s="0">
         <v>-0.21128192139999999</v>
@@ -3355,46 +3439,46 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.11704833063219999</v>
+        <v>-0.093601068400000015</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.41955302310799991</v>
+        <v>-0.42369135848</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.43348702118800003</v>
+        <v>-0.30275738056399998</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.30481580322000001</v>
+        <v>-0.054658251640000002</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.221646914498</v>
+        <v>-0.12542564058</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.13184560894000003</v>
+        <v>0.051016411800000008</v>
       </c>
       <c r="G15" s="0">
-        <v>-0.077638379267999991</v>
+        <v>0.0074081431480000053</v>
       </c>
       <c r="H15" s="0">
-        <v>-0.079360108319999997</v>
+        <v>-0.060072773528000001</v>
       </c>
       <c r="I15" s="0">
-        <v>-0.21102132151199998</v>
+        <v>-0.27109692553800002</v>
       </c>
       <c r="J15" s="0">
-        <v>0.18540586064600001</v>
+        <v>0.173198078182</v>
       </c>
       <c r="K15" s="0">
-        <v>-0.35782008699999995</v>
+        <v>-0.20636058091999993</v>
       </c>
       <c r="L15" s="0">
-        <v>-0.23205362875999999</v>
+        <v>-0.13000039086199999</v>
       </c>
       <c r="M15" s="0">
-        <v>-0.11742046106000001</v>
+        <v>-0.25254541357999999</v>
       </c>
       <c r="N15" s="0">
-        <v>-0.36712546653400013</v>
+        <v>-0.60045550735400011</v>
       </c>
       <c r="O15" s="0">
         <v>-0.40024857470000003</v>
@@ -3567,46 +3651,46 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.163864794896</v>
+        <v>-0.13323623122</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.45257119024000003</v>
+        <v>-0.38019516192000002</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.24289018169999999</v>
+        <v>-0.18820699125759999</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.15225780405999997</v>
+        <v>-0.12912952802</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0045503008200000082</v>
+        <v>-0.020939654019999997</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.12429446513999998</v>
+        <v>-0.16096908963599998</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.19612327743999999</v>
+        <v>-0.16551489749599999</v>
       </c>
       <c r="H16" s="0">
-        <v>-0.0080970890539999833</v>
+        <v>0.058050670617999997</v>
       </c>
       <c r="I16" s="0">
-        <v>-0.0033179562679999997</v>
+        <v>0.087583058956000007</v>
       </c>
       <c r="J16" s="0">
-        <v>-0.34191488458000008</v>
+        <v>-0.17054333630000001</v>
       </c>
       <c r="K16" s="0">
-        <v>0.23085321906200001</v>
+        <v>0.179843263182</v>
       </c>
       <c r="L16" s="0">
-        <v>0.12091792623999997</v>
+        <v>0.008967982839999989</v>
       </c>
       <c r="M16" s="0">
-        <v>-0.0019727102000000052</v>
+        <v>0.062823713679999976</v>
       </c>
       <c r="N16" s="0">
-        <v>-0.36020074282000003</v>
+        <v>-0.29986395900000001</v>
       </c>
       <c r="O16" s="0">
         <v>0.46355693100000001</v>
@@ -3779,46 +3863,46 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.06157246027600001</v>
+        <v>-0.03978770025399999</v>
       </c>
       <c r="B17" s="0">
-        <v>0.32655285828000002</v>
+        <v>0.24354769018000005</v>
       </c>
       <c r="C17" s="0">
-        <v>0.05813387593599998</v>
+        <v>0.017581588161999995</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.06732317157999998</v>
+        <v>-0.21072644859600001</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.111642629876</v>
+        <v>-0.29505715941600003</v>
       </c>
       <c r="F17" s="0">
-        <v>0.28014878629399997</v>
+        <v>0.20127504498400001</v>
       </c>
       <c r="G17" s="0">
-        <v>0.16924211245999998</v>
+        <v>0.19506612541999999</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.093072101560000009</v>
+        <v>-0.104330702538</v>
       </c>
       <c r="I17" s="0">
-        <v>0.0026846111799999849</v>
+        <v>-0.17791330966000002</v>
       </c>
       <c r="J17" s="0">
-        <v>0.010436505385999995</v>
+        <v>0.16520596942599999</v>
       </c>
       <c r="K17" s="0">
-        <v>-0.068670296480000032</v>
+        <v>-0.14888736970700003</v>
       </c>
       <c r="L17" s="0">
-        <v>0.02719032404599997</v>
+        <v>-0.047056292410000013</v>
       </c>
       <c r="M17" s="0">
-        <v>0.50373938381999994</v>
+        <v>0.257962688612</v>
       </c>
       <c r="N17" s="0">
-        <v>0.18934984831999996</v>
+        <v>-0.044703507398000018</v>
       </c>
       <c r="O17" s="0">
         <v>0</v>
@@ -3991,46 +4075,46 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.021125414995000008</v>
+        <v>-0.11432961125499998</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.18004715732500001</v>
+        <v>-0.42294682485000001</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.0124531845925</v>
+        <v>-0.230757089975</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.038457621994999996</v>
+        <v>-0.087698254650000002</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.23062697845000002</v>
+        <v>-0.150617739975</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.16930596272500001</v>
+        <v>-0.18838887994750003</v>
       </c>
       <c r="G18" s="0">
-        <v>0.02551024525249998</v>
+        <v>-0.1978176341225</v>
       </c>
       <c r="H18" s="0">
-        <v>0.031910031836500014</v>
+        <v>-0.17579953132350001</v>
       </c>
       <c r="I18" s="0">
-        <v>-0.10878864083000001</v>
+        <v>-0.27788499645749998</v>
       </c>
       <c r="J18" s="0">
-        <v>0.12205327093574998</v>
+        <v>-0.058088020700000013</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.26889287422499997</v>
+        <v>-0.29249761422499998</v>
       </c>
       <c r="L18" s="0">
-        <v>-0.32916763885</v>
+        <v>-0.077241887449999991</v>
       </c>
       <c r="M18" s="0">
-        <v>0.24361328142500002</v>
+        <v>0.30861100820499998</v>
       </c>
       <c r="N18" s="0">
-        <v>0.36766515242499997</v>
+        <v>0.26311348862499995</v>
       </c>
       <c r="O18" s="0">
         <v>0</v>
@@ -4203,46 +4287,46 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.086102740804999994</v>
+        <v>-0.065061843179999995</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.36919370547499997</v>
+        <v>-0.33427691977499996</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.33390679635000003</v>
+        <v>-0.39777918586875</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.21369957297499997</v>
+        <v>-0.074313737749999997</v>
       </c>
       <c r="E19" s="0">
-        <v>0.1958148488375</v>
+        <v>0.41833858291250003</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.00029785093249999096</v>
+        <v>0.20691681125</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.29794626537499996</v>
+        <v>-0.040912043925000002</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.21076157285000002</v>
+        <v>-0.020539228450000006</v>
       </c>
       <c r="I19" s="0">
-        <v>-0.17427292932499999</v>
+        <v>-0.014635281700000002</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.90753095297499997</v>
+        <v>-0.72867401165000001</v>
       </c>
       <c r="K19" s="0">
-        <v>-0.31283989875000001</v>
+        <v>-0.38366861272499997</v>
       </c>
       <c r="L19" s="0">
-        <v>-0.45975636275000004</v>
+        <v>-0.26909445789999997</v>
       </c>
       <c r="M19" s="0">
-        <v>-0.24084082355000003</v>
+        <v>-0.057686466685000007</v>
       </c>
       <c r="N19" s="0">
-        <v>-0.039308802249999997</v>
+        <v>-0.25120704844749997</v>
       </c>
       <c r="O19" s="0">
         <v>-0.075442163889999997</v>
@@ -4415,46 +4499,46 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.14451395484000001</v>
+        <v>0.18016327070000002</v>
       </c>
       <c r="B20" s="0">
-        <v>0.17043902871400002</v>
+        <v>0.19249082390199998</v>
       </c>
       <c r="C20" s="0">
-        <v>0.10241985370399997</v>
+        <v>0.13349976356000001</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.082397305899999995</v>
+        <v>0.0010008039200000041</v>
       </c>
       <c r="E20" s="0">
-        <v>0.022922990019999999</v>
+        <v>0.10460323145000001</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.14732471937200001</v>
+        <v>-0.062155137866600006</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.34707047121199996</v>
+        <v>-0.25019781617200004</v>
       </c>
       <c r="H20" s="0">
-        <v>-0.29321269420599994</v>
+        <v>-0.26869925924600002</v>
       </c>
       <c r="I20" s="0">
-        <v>0.063502752419999989</v>
+        <v>0.14156453667999999</v>
       </c>
       <c r="J20" s="0">
-        <v>-0.32747274956</v>
+        <v>-0.25849654407999995</v>
       </c>
       <c r="K20" s="0">
-        <v>0.41330670352599996</v>
+        <v>0.58256574605399991</v>
       </c>
       <c r="L20" s="0">
-        <v>0.098217996520000003</v>
+        <v>0.33955788855199998</v>
       </c>
       <c r="M20" s="0">
-        <v>0.061819566079999999</v>
+        <v>0.37675826548000002</v>
       </c>
       <c r="N20" s="0">
-        <v>0.25117686824599994</v>
+        <v>0.59338050673999998</v>
       </c>
       <c r="O20" s="0">
         <v>-0.1009908342</v>
@@ -4627,46 +4711,46 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.14248950532199997</v>
+        <v>0.24951549263600001</v>
       </c>
       <c r="B21" s="0">
-        <v>0.10957933396000001</v>
+        <v>0.20213813690000001</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.04698306724000003</v>
+        <v>0.21731980139999996</v>
       </c>
       <c r="D21" s="0">
-        <v>0.089475553418807988</v>
+        <v>0.053866600346000007</v>
       </c>
       <c r="E21" s="0">
-        <v>0.11315879173999999</v>
+        <v>-0.19144754177999998</v>
       </c>
       <c r="F21" s="0">
-        <v>0.00045212031599999871</v>
+        <v>0.01441500606399999</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.22909799363199998</v>
+        <v>-0.08947422943199998</v>
       </c>
       <c r="H21" s="0">
-        <v>0.057861978550000005</v>
+        <v>0.15467401975600001</v>
       </c>
       <c r="I21" s="0">
-        <v>0.13745205542</v>
+        <v>0.093894455279999997</v>
       </c>
       <c r="J21" s="0">
-        <v>0.0048570535800000255</v>
+        <v>-0.0034651135800000234</v>
       </c>
       <c r="K21" s="0">
-        <v>0.023613967320000005</v>
+        <v>0.24296056412000003</v>
       </c>
       <c r="L21" s="0">
-        <v>-0.10295946076000002</v>
+        <v>0.16037444985200003</v>
       </c>
       <c r="M21" s="0">
-        <v>-0.19244461726000001</v>
+        <v>0.018462011463999985</v>
       </c>
       <c r="N21" s="0">
-        <v>-0.091326127019999953</v>
+        <v>0.44347264616000004</v>
       </c>
       <c r="O21" s="0">
         <v>0.2490971401</v>
@@ -4839,46 +4923,46 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.080301184349999999</v>
+        <v>-0.033056903900000004</v>
       </c>
       <c r="B22" s="0">
-        <v>0.11121237717499999</v>
+        <v>0.13222739649999998</v>
       </c>
       <c r="C22" s="0">
-        <v>0.20053681873250001</v>
+        <v>0.25876071813250001</v>
       </c>
       <c r="D22" s="0">
-        <v>0.253788400325</v>
+        <v>0.17645031512500001</v>
       </c>
       <c r="E22" s="0">
-        <v>0.117898349175</v>
+        <v>0.068040046849999994</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.0067020142349999961</v>
+        <v>0.022801158747500022</v>
       </c>
       <c r="G22" s="0">
-        <v>0.059401056890000012</v>
+        <v>0.055264579414999987</v>
       </c>
       <c r="H22" s="0">
-        <v>0.090873267039000005</v>
+        <v>0.20201232432499999</v>
       </c>
       <c r="I22" s="0">
-        <v>0.0022631391499999993</v>
+        <v>-0.18790690303000002</v>
       </c>
       <c r="J22" s="0">
-        <v>0.21009968102500001</v>
+        <v>0.075531473875000033</v>
       </c>
       <c r="K22" s="0">
-        <v>0.50044072319249999</v>
+        <v>0.24260847831749999</v>
       </c>
       <c r="L22" s="0">
-        <v>0.17705848755000003</v>
+        <v>0.35081492307500001</v>
       </c>
       <c r="M22" s="0">
-        <v>0.14616942355499998</v>
+        <v>0.20957440627500001</v>
       </c>
       <c r="N22" s="0">
-        <v>-0.12049259663499998</v>
+        <v>-0.4255602382525</v>
       </c>
       <c r="O22" s="0">
         <v>0.112254042</v>
@@ -5051,46 +5135,46 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.038742500723333295</v>
+        <v>-0.11002037890749997</v>
       </c>
       <c r="B23" s="0">
-        <v>0.005606001400000042</v>
+        <v>-0.10946152382499993</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.25072066682333333</v>
+        <v>-0.15824609894249997</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.24637354443333334</v>
+        <v>-0.24486593374999999</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.20972510433333333</v>
+        <v>-0.248654755915</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.064085606800000028</v>
+        <v>0.045719088324999976</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.00041695513333332251</v>
+        <v>0.116530773775</v>
       </c>
       <c r="H23" s="0">
-        <v>-0.14675637819999998</v>
+        <v>0.16196484917499998</v>
       </c>
       <c r="I23" s="0">
-        <v>-0.11856402789999999</v>
+        <v>0.045662827400000008</v>
       </c>
       <c r="J23" s="0">
-        <v>0.26910250366666666</v>
+        <v>0.427196960525</v>
       </c>
       <c r="K23" s="0">
-        <v>0.011863568666666676</v>
+        <v>-0.17484386297500001</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.25109867266166663</v>
+        <v>-0.048843675921249982</v>
       </c>
       <c r="M23" s="0">
-        <v>-0.55927359033333335</v>
+        <v>-0.42896263925</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.56220660633333341</v>
+        <v>-0.2210271268</v>
       </c>
       <c r="O23" s="0">
         <v>-0.77191658500000004</v>
@@ -5263,46 +5347,46 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.10948256708</v>
+        <v>0.087688065073999996</v>
       </c>
       <c r="B24" s="0">
-        <v>0.13888830173999997</v>
+        <v>0.19527510375999996</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.066237421699999979</v>
+        <v>-0.11387628632999995</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.14813689386000001</v>
+        <v>-0.076463564620000007</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.34964032880999996</v>
+        <v>-0.24955805672000003</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.33009275749599998</v>
+        <v>-0.25822150015600004</v>
       </c>
       <c r="G24" s="0">
-        <v>-0.267874583188</v>
+        <v>-0.148375357938</v>
       </c>
       <c r="H24" s="0">
-        <v>-0.109783591922</v>
+        <v>-0.067350574979999994</v>
       </c>
       <c r="I24" s="0">
-        <v>-0.15715466832399999</v>
+        <v>-0.12770510538000002</v>
       </c>
       <c r="J24" s="0">
-        <v>0.20344207060000002</v>
+        <v>0.31803754226000003</v>
       </c>
       <c r="K24" s="0">
-        <v>-0.079265349780000022</v>
+        <v>-0.23571865015600002</v>
       </c>
       <c r="L24" s="0">
-        <v>-0.039170010439999993</v>
+        <v>0.03926365154</v>
       </c>
       <c r="M24" s="0">
-        <v>-0.2497478494</v>
+        <v>0.052937947379999947</v>
       </c>
       <c r="N24" s="0">
-        <v>0.081565159547999991</v>
+        <v>0.25224296440800004</v>
       </c>
       <c r="O24" s="0">
         <v>0.39063300579999999</v>
@@ -5475,46 +5559,46 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.038499392198000006</v>
+        <v>-0.057871603007999997</v>
       </c>
       <c r="B25" s="0">
-        <v>0.073342423279999985</v>
+        <v>-0.016995184940000008</v>
       </c>
       <c r="C25" s="0">
-        <v>0.097716607004000006</v>
+        <v>0.046571644220000007</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.10004688246</v>
+        <v>-0.073619180787200006</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.043297388674000001</v>
+        <v>0.0044467418259999895</v>
       </c>
       <c r="F25" s="0">
-        <v>0.087156541693999987</v>
+        <v>0.05612596794799999</v>
       </c>
       <c r="G25" s="0">
-        <v>0.109150521236</v>
+        <v>0.096570202048000001</v>
       </c>
       <c r="H25" s="0">
-        <v>0.056874350393999996</v>
+        <v>-0.13907098204000001</v>
       </c>
       <c r="I25" s="0">
-        <v>-0.081188785966000002</v>
+        <v>-0.071342717390000004</v>
       </c>
       <c r="J25" s="0">
-        <v>0.37998423557999994</v>
+        <v>0.61419402425999992</v>
       </c>
       <c r="K25" s="0">
-        <v>0.40660311591399995</v>
+        <v>0.19056004823999997</v>
       </c>
       <c r="L25" s="0">
-        <v>-0.049990135681999996</v>
+        <v>-0.065161600180000015</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.21499274298599999</v>
+        <v>-0.137557216146</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.36169255513999998</v>
+        <v>-0.359419096577</v>
       </c>
       <c r="O25" s="0">
         <v>0.32989356390000002</v>
@@ -5687,46 +5771,46 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.061502550999999996</v>
+        <v>0.17203725540566664</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0067346224899999989</v>
+        <v>-0.067214371696666664</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.21923077198609997</v>
+        <v>-0.22101162248609998</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0085273242399999949</v>
+        <v>0.057973888306666665</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.12654775467666665</v>
+        <v>0.1139867047</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.41062985349999997</v>
+        <v>-0.052556858826666664</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.4066954079666667</v>
+        <v>-0.17377688443333331</v>
       </c>
       <c r="H26" s="0">
-        <v>-0.17251750024666668</v>
+        <v>0.087342603266666666</v>
       </c>
       <c r="I26" s="0">
-        <v>-0.32537496252333337</v>
+        <v>-0.22187831383333334</v>
       </c>
       <c r="J26" s="0">
-        <v>0.037885950533333351</v>
+        <v>0.097381060500000005</v>
       </c>
       <c r="K26" s="0">
-        <v>-0.65188641840000006</v>
+        <v>-0.5388650406333334</v>
       </c>
       <c r="L26" s="0">
-        <v>-0.35387869519999998</v>
+        <v>-0.23761272246666665</v>
       </c>
       <c r="M26" s="0">
-        <v>0.097853719126666669</v>
+        <v>0.11992216232666668</v>
       </c>
       <c r="N26" s="0">
-        <v>-0.39325813067333332</v>
+        <v>-0.2931636394333334</v>
       </c>
       <c r="O26" s="0">
         <v>-0.038188072500000003</v>
@@ -5899,46 +5983,46 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.26791140154999998</v>
+        <v>0.29944043465999998</v>
       </c>
       <c r="B27" s="0">
-        <v>0.27317585794999999</v>
+        <v>0.288097936838</v>
       </c>
       <c r="C27" s="0">
-        <v>0.25231569792499997</v>
+        <v>0.16833094124199999</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.15601855989999996</v>
+        <v>0.021596980564000008</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.30020843548999998</v>
+        <v>-0.16271049480200001</v>
       </c>
       <c r="F27" s="0">
-        <v>0.073465759132500003</v>
+        <v>0.10849871946</v>
       </c>
       <c r="G27" s="0">
-        <v>0.058305518022500002</v>
+        <v>0.14599948102999999</v>
       </c>
       <c r="H27" s="0">
-        <v>-0.092860258884999977</v>
+        <v>0.087052303092000002</v>
       </c>
       <c r="I27" s="0">
-        <v>0.33534835292249998</v>
+        <v>0.27856805691799996</v>
       </c>
       <c r="J27" s="0">
-        <v>0.10834539967499998</v>
+        <v>0.23887006429999999</v>
       </c>
       <c r="K27" s="0">
-        <v>-0.031301431540000008</v>
+        <v>0.010556934062000001</v>
       </c>
       <c r="L27" s="0">
-        <v>0.15127281110000002</v>
+        <v>0.20037119484799998</v>
       </c>
       <c r="M27" s="0">
-        <v>0.2165755597</v>
+        <v>0.29663563727999998</v>
       </c>
       <c r="N27" s="0">
-        <v>0.7588626394500001</v>
+        <v>0.32271441216000013</v>
       </c>
       <c r="O27" s="0">
         <v>-0.61454732560000003</v>
@@ -6111,46 +6195,46 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.028689984535999989</v>
+        <v>-0.033823513578000002</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.21070129789399999</v>
+        <v>-0.25812621938399999</v>
       </c>
       <c r="C28" s="0">
-        <v>0.039537089235999988</v>
+        <v>-0.053760139723999997</v>
       </c>
       <c r="D28" s="0">
-        <v>0.40224877119800001</v>
+        <v>0.32597440162199998</v>
       </c>
       <c r="E28" s="0">
-        <v>0.54202843669600009</v>
+        <v>0.48489055501639999</v>
       </c>
       <c r="F28" s="0">
-        <v>0.12840104280000003</v>
+        <v>0.088328900360000004</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.25117204594199993</v>
+        <v>-0.18361151815999999</v>
       </c>
       <c r="H28" s="0">
-        <v>-0.162105350334</v>
+        <v>-0.036130125094000001</v>
       </c>
       <c r="I28" s="0">
-        <v>0.18447391130899998</v>
+        <v>0.17379249702899999</v>
       </c>
       <c r="J28" s="0">
-        <v>0.090551505599999998</v>
+        <v>0.33099439459999996</v>
       </c>
       <c r="K28" s="0">
-        <v>0.001660866157999985</v>
+        <v>-0.050064153140000012</v>
       </c>
       <c r="L28" s="0">
-        <v>0.60506101535400003</v>
+        <v>0.50284914873999997</v>
       </c>
       <c r="M28" s="0">
-        <v>0.56499093984620008</v>
+        <v>0.41987915799600001</v>
       </c>
       <c r="N28" s="0">
-        <v>0.87886661916000008</v>
+        <v>0.61943214631999999</v>
       </c>
       <c r="O28" s="0">
         <v>-0.53172428230000002</v>
@@ -6323,46 +6407,46 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.37397472877999999</v>
+        <v>-0.091400380279999971</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.23062598612000004</v>
+        <v>0.0058064717399999742</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.12107479055799997</v>
+        <v>0.079600343239999954</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.17289518916800001</v>
+        <v>-0.094481037389999994</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.31030802378</v>
+        <v>-0.25079695500599997</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.35104926625599997</v>
+        <v>-0.25560215905599998</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.10892573714000001</v>
+        <v>0.0039948498200000236</v>
       </c>
       <c r="H29" s="0">
-        <v>0.20946705527399997</v>
+        <v>0.30851923015999994</v>
       </c>
       <c r="I29" s="0">
-        <v>-0.10746744653999998</v>
+        <v>0.03727285570000001</v>
       </c>
       <c r="J29" s="0">
-        <v>-0.24744084557999999</v>
+        <v>0.12774142342380004</v>
       </c>
       <c r="K29" s="0">
-        <v>-0.29621993306</v>
+        <v>0.03416853810000002</v>
       </c>
       <c r="L29" s="0">
-        <v>-0.42537753740000001</v>
+        <v>-0.24253909595999995</v>
       </c>
       <c r="M29" s="0">
-        <v>-0.28426003882</v>
+        <v>0.020558767619999984</v>
       </c>
       <c r="N29" s="0">
-        <v>-0.032476712520000041</v>
+        <v>0.24751499886</v>
       </c>
       <c r="O29" s="0">
         <v>0.168306397</v>
@@ -6535,46 +6619,46 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.10651011836799999</v>
+        <v>-0.0013062467260000019</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.25213483841399997</v>
+        <v>-0.15800831643999996</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.031291007305600006</v>
+        <v>0.13642850821640001</v>
       </c>
       <c r="D30" s="0">
-        <v>0.140643875438</v>
+        <v>0.24382758991200001</v>
       </c>
       <c r="E30" s="0">
-        <v>0.1443385009</v>
+        <v>0.15130186311999999</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.16326151867199998</v>
+        <v>-0.102582030866</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.24997396280199996</v>
+        <v>0.020548140500000003</v>
       </c>
       <c r="H30" s="0">
-        <v>-0.26821408975</v>
+        <v>-0.23961918616999997</v>
       </c>
       <c r="I30" s="0">
-        <v>-0.058169491050000008</v>
+        <v>-0.14211741688999999</v>
       </c>
       <c r="J30" s="0">
-        <v>0.51279745010200006</v>
+        <v>0.54190852245999999</v>
       </c>
       <c r="K30" s="0">
-        <v>0.064711638199999991</v>
+        <v>0.12465314105999999</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.13081929274399998</v>
+        <v>-0.18039960244</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.010847766560000005</v>
+        <v>0.11496523440000002</v>
       </c>
       <c r="N30" s="0">
-        <v>-0.08648935194259999</v>
+        <v>-0.14441535752859999</v>
       </c>
       <c r="O30" s="0">
         <v>0.076282387300000004</v>
@@ -6747,46 +6831,46 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.18929403533399999</v>
+        <v>0.193064483584</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.02976755403600001</v>
+        <v>0.061364293819999992</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.19097107003880001</v>
+        <v>-0.12605243900000002</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.019217983379999998</v>
+        <v>-0.069128421159999995</v>
       </c>
       <c r="E31" s="0">
-        <v>0.24995341966199999</v>
+        <v>0.22426172158200003</v>
       </c>
       <c r="F31" s="0">
-        <v>0.0045223151419999889</v>
+        <v>0.050123213202000007</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.24489715323199998</v>
+        <v>-0.17327028407199999</v>
       </c>
       <c r="H31" s="0">
-        <v>-0.023893723859199988</v>
+        <v>0.12155363132079999</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.029050380239999986</v>
+        <v>0.137744716854</v>
       </c>
       <c r="J31" s="0">
-        <v>-0.27623743516999999</v>
+        <v>-0.20687403882000002</v>
       </c>
       <c r="K31" s="0">
-        <v>0.091722231073999988</v>
+        <v>0.20231717007399999</v>
       </c>
       <c r="L31" s="0">
-        <v>-0.43078204609600002</v>
+        <v>-0.39963629393</v>
       </c>
       <c r="M31" s="0">
-        <v>-0.49073652460000006</v>
+        <v>-0.49243974567999993</v>
       </c>
       <c r="N31" s="0">
-        <v>-0.1783430017</v>
+        <v>-0.21421074264000001</v>
       </c>
       <c r="O31" s="0">
         <v>0.14248645030000001</v>
@@ -6959,46 +7043,46 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.005728990860000005</v>
+        <v>0.08971522752000001</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.082030839928000018</v>
+        <v>0.034465453411999983</v>
       </c>
       <c r="C32" s="0">
-        <v>-0.038060549759999993</v>
+        <v>-0.020950944560000007</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.069806715842000003</v>
+        <v>-0.098873206921999995</v>
       </c>
       <c r="E32" s="0">
-        <v>-0.10970503524000001</v>
+        <v>-0.18855626488000002</v>
       </c>
       <c r="F32" s="0">
-        <v>0.11441587527799997</v>
+        <v>0.091465008954000018</v>
       </c>
       <c r="G32" s="0">
-        <v>0.21854973391999999</v>
+        <v>0.30991722845999992</v>
       </c>
       <c r="H32" s="0">
-        <v>0.08608694057800001</v>
+        <v>0.13577960068600001</v>
       </c>
       <c r="I32" s="0">
-        <v>-0.092586001283999991</v>
+        <v>-0.16723437075999997</v>
       </c>
       <c r="J32" s="0">
-        <v>0.11103821818000001</v>
+        <v>-0.11794781273999999</v>
       </c>
       <c r="K32" s="0">
-        <v>-0.062579285620000022</v>
+        <v>0.082858502907999967</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.29370439743799998</v>
+        <v>-0.014170630878000013</v>
       </c>
       <c r="M32" s="0">
-        <v>-0.36632170084000004</v>
+        <v>-0.090932341760000007</v>
       </c>
       <c r="N32" s="0">
-        <v>0.050292093859999998</v>
+        <v>-0.042692337968000003</v>
       </c>
       <c r="O32" s="0">
         <v>-0.3213862965</v>
@@ -7171,46 +7255,46 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.18085321381000002</v>
+        <v>0.20303492680000002</v>
       </c>
       <c r="B33" s="0">
-        <v>0.065662611326000001</v>
+        <v>0.12717721064599999</v>
       </c>
       <c r="C33" s="0">
-        <v>0.1136400523</v>
+        <v>0.11013950952</v>
       </c>
       <c r="D33" s="0">
-        <v>0.16809706485799999</v>
+        <v>0.1046992231054</v>
       </c>
       <c r="E33" s="0">
-        <v>-0.063995554553999995</v>
+        <v>-0.17900876222000001</v>
       </c>
       <c r="F33" s="0">
-        <v>0.31252366030000001</v>
+        <v>0.22358832099999998</v>
       </c>
       <c r="G33" s="0">
-        <v>0.09058748849999998</v>
+        <v>0.031325757353999985</v>
       </c>
       <c r="H33" s="0">
-        <v>0.071823532219999972</v>
+        <v>0.070712789765999984</v>
       </c>
       <c r="I33" s="0">
-        <v>0.085392520860000015</v>
+        <v>0.091086998060000007</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.18316417239999999</v>
+        <v>-0.19810057690000002</v>
       </c>
       <c r="K33" s="0">
-        <v>0.082211160399999983</v>
+        <v>0.0085000701999999873</v>
       </c>
       <c r="L33" s="0">
-        <v>-0.036273980720000008</v>
+        <v>-0.094533778340000013</v>
       </c>
       <c r="M33" s="0">
-        <v>-0.12470805567999999</v>
+        <v>-0.175179095274</v>
       </c>
       <c r="N33" s="0">
-        <v>0.16765388352600002</v>
+        <v>0.1846103090448</v>
       </c>
       <c r="O33" s="0">
         <v>0.39874933950000002</v>
@@ -7383,46 +7467,46 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>-0.54677096920424995</v>
+        <v>-0.35925007757924998</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.5985452294000001</v>
+        <v>-0.35752895134999996</v>
       </c>
       <c r="C34" s="0">
-        <v>-0.40782255610000001</v>
+        <v>-0.27230387992499999</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.50940216969999996</v>
+        <v>-0.36355189137499999</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.43619735461499998</v>
+        <v>-0.32820696912750003</v>
       </c>
       <c r="F34" s="0">
-        <v>-0.75164104652999997</v>
+        <v>-0.54294600655500003</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.419181588725</v>
+        <v>-0.35887845892500003</v>
       </c>
       <c r="H34" s="0">
-        <v>-0.29570467302500003</v>
+        <v>-0.25031786042500004</v>
       </c>
       <c r="I34" s="0">
-        <v>-0.32780120554999997</v>
+        <v>-0.285542803475</v>
       </c>
       <c r="J34" s="0">
-        <v>-0.54224395904999989</v>
+        <v>-0.38474338694999999</v>
       </c>
       <c r="K34" s="0">
-        <v>-0.69523023451499999</v>
+        <v>-0.43676175131499995</v>
       </c>
       <c r="L34" s="0">
-        <v>-0.29591579060250001</v>
+        <v>-0.24998289270250001</v>
       </c>
       <c r="M34" s="0">
-        <v>-0.024114437024999991</v>
+        <v>-0.052092880649999992</v>
       </c>
       <c r="N34" s="0">
-        <v>-0.0087273348250000056</v>
+        <v>0.0068539014249999752</v>
       </c>
       <c r="O34" s="0">
         <v>0.048692091069999999</v>
@@ -7595,46 +7679,46 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.074979400594000017</v>
+        <v>0.020129675854000006</v>
       </c>
       <c r="B35" s="0">
-        <v>0.19727106428000002</v>
+        <v>0.14632524148000001</v>
       </c>
       <c r="C35" s="0">
-        <v>-0.125795220102</v>
+        <v>-0.077243311801999989</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.25635904096000001</v>
+        <v>-0.23714692851999999</v>
       </c>
       <c r="E35" s="0">
-        <v>-0.17787053095200001</v>
+        <v>-0.16584360741200002</v>
       </c>
       <c r="F35" s="0">
-        <v>-0.25095809863599999</v>
+        <v>-0.24220936485600003</v>
       </c>
       <c r="G35" s="0">
-        <v>-0.374184857466</v>
+        <v>-0.36584400378199999</v>
       </c>
       <c r="H35" s="0">
-        <v>-0.29607404372480001</v>
+        <v>-0.24522697784760003</v>
       </c>
       <c r="I35" s="0">
-        <v>-0.27262324618</v>
+        <v>-0.26046300008000001</v>
       </c>
       <c r="J35" s="0">
-        <v>-0.31937694002000006</v>
+        <v>-0.47311943306000004</v>
       </c>
       <c r="K35" s="0">
-        <v>0.19747158500599998</v>
+        <v>0.11677180276600004</v>
       </c>
       <c r="L35" s="0">
-        <v>-0.15653823258000002</v>
+        <v>-0.061456883480000016</v>
       </c>
       <c r="M35" s="0">
-        <v>-0.29411398825599999</v>
+        <v>-0.23597497063600006</v>
       </c>
       <c r="N35" s="0">
-        <v>-0.24475923397999999</v>
+        <v>-0.35420299483999995</v>
       </c>
       <c r="O35" s="0">
         <v>0.89730491710000004</v>
@@ -7807,46 +7891,46 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.053594512924000005</v>
+        <v>0.117302748772</v>
       </c>
       <c r="B36" s="0">
-        <v>-0.051124439947999999</v>
+        <v>-0.0015503879879999794</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.10861153241000002</v>
+        <v>-0.081452129310000024</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.051590851001999984</v>
+        <v>-0.054277724177999989</v>
       </c>
       <c r="E36" s="0">
-        <v>-0.0055875493440000088</v>
+        <v>-0.0047803994200000064</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.1199719526</v>
+        <v>-0.19843099515399998</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.095385099019999975</v>
+        <v>-0.15150074491999999</v>
       </c>
       <c r="H36" s="0">
-        <v>-0.048468316060000016</v>
+        <v>-0.053545915484000006</v>
       </c>
       <c r="I36" s="0">
-        <v>-0.08747142363999999</v>
+        <v>-0.10278602555999998</v>
       </c>
       <c r="J36" s="0">
-        <v>-0.20479173727200001</v>
+        <v>-0.21688113445999999</v>
       </c>
       <c r="K36" s="0">
-        <v>-0.177918725394</v>
+        <v>-0.22701909235399995</v>
       </c>
       <c r="L36" s="0">
-        <v>-0.081888546125999981</v>
+        <v>0.002668225276000019</v>
       </c>
       <c r="M36" s="0">
-        <v>-0.1897682389</v>
+        <v>-0.16840913613200001</v>
       </c>
       <c r="N36" s="0">
-        <v>-0.17704627574000004</v>
+        <v>-0.21790253456000003</v>
       </c>
       <c r="O36" s="0">
         <v>1.0403552680000001</v>
@@ -8019,46 +8103,46 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>-0.123288678008</v>
+        <v>-0.020438226721999991</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.13509402279999996</v>
+        <v>-0.088160376800000023</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.0037161644400000248</v>
+        <v>0.035657199179999995</v>
       </c>
       <c r="D37" s="0">
-        <v>0.18816483779400001</v>
+        <v>0.17113462232400001</v>
       </c>
       <c r="E37" s="0">
-        <v>0.57009511828000003</v>
+        <v>0.54162118468199993</v>
       </c>
       <c r="F37" s="0">
-        <v>-0.051863792402000009</v>
+        <v>-0.021164189140000012</v>
       </c>
       <c r="G37" s="0">
-        <v>-0.20156523131999998</v>
+        <v>-0.064409580279999989</v>
       </c>
       <c r="H37" s="0">
-        <v>-0.04156272663599999</v>
+        <v>0.066908666080000012</v>
       </c>
       <c r="I37" s="0">
-        <v>0.101651464796</v>
+        <v>0.11866461373600001</v>
       </c>
       <c r="J37" s="0">
-        <v>0.019772885900000047</v>
+        <v>0.075594560599999999</v>
       </c>
       <c r="K37" s="0">
-        <v>-0.20101067134199999</v>
+        <v>-0.13480392592000001</v>
       </c>
       <c r="L37" s="0">
-        <v>-0.10867540471999999</v>
+        <v>0.10275528476000004</v>
       </c>
       <c r="M37" s="0">
-        <v>-0.097842541519999965</v>
+        <v>0.12663197092</v>
       </c>
       <c r="N37" s="0">
-        <v>0.052459334680000011</v>
+        <v>-0.019712245400000005</v>
       </c>
       <c r="O37" s="0">
         <v>-1.3300000160000001</v>
@@ -8231,46 +8315,46 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>-0.18490965797999998</v>
+        <v>-0.18758877666400001</v>
       </c>
       <c r="B38" s="0">
-        <v>-0.49720951900600008</v>
+        <v>-0.50204360707400009</v>
       </c>
       <c r="C38" s="0">
-        <v>-0.29769711177999997</v>
+        <v>-0.22390297383800001</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.14834007681200001</v>
+        <v>-0.11444894375199999</v>
       </c>
       <c r="E38" s="0">
-        <v>0.033126141720000016</v>
+        <v>-0.010600877919999996</v>
       </c>
       <c r="F38" s="0">
-        <v>-0.32614679722000001</v>
+        <v>-0.24455398060000003</v>
       </c>
       <c r="G38" s="0">
-        <v>-0.51502502719999999</v>
+        <v>-0.44794963745999999</v>
       </c>
       <c r="H38" s="0">
-        <v>-0.18386410013999999</v>
+        <v>-0.17685460453999999</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.18432785714000005</v>
+        <v>-0.06197893472000001</v>
       </c>
       <c r="J38" s="0">
-        <v>-0.042545678419999997</v>
+        <v>-0.13220751725999999</v>
       </c>
       <c r="K38" s="0">
-        <v>-0.0019222708800000099</v>
+        <v>0.059086497679999982</v>
       </c>
       <c r="L38" s="0">
-        <v>-0.20804050969999999</v>
+        <v>-0.12013560134000001</v>
       </c>
       <c r="M38" s="0">
-        <v>-0.17834371498000001</v>
+        <v>-0.061392477010000002</v>
       </c>
       <c r="N38" s="0">
-        <v>-0.52360440539499997</v>
+        <v>-0.45588211167499998</v>
       </c>
       <c r="O38" s="0">
         <v>-0.76855981880000002</v>
@@ -8443,46 +8527,46 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>-0.079018746459999983</v>
+        <v>-0.15033045194</v>
       </c>
       <c r="B39" s="0">
-        <v>-0.022886230190000002</v>
+        <v>-0.13615428898199999</v>
       </c>
       <c r="C39" s="0">
-        <v>-0.42896224427999996</v>
+        <v>-0.45697631063999999</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.51894124325999991</v>
+        <v>-0.50261027347999998</v>
       </c>
       <c r="E39" s="0">
-        <v>-0.32413274662000002</v>
+        <v>-0.23099499526000003</v>
       </c>
       <c r="F39" s="0">
-        <v>-0.31939289542000004</v>
+        <v>-0.37680175271999999</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.45974004864000007</v>
+        <v>-0.53639258682000002</v>
       </c>
       <c r="H39" s="0">
-        <v>-0.05755932988000001</v>
+        <v>-0.047215754596000012</v>
       </c>
       <c r="I39" s="0">
-        <v>-0.15385719625800001</v>
+        <v>-0.09192417901399999</v>
       </c>
       <c r="J39" s="0">
-        <v>-1.019002661667</v>
+        <v>-0.94475652932699994</v>
       </c>
       <c r="K39" s="0">
-        <v>-0.14911125613999998</v>
+        <v>-0.31029580297999998</v>
       </c>
       <c r="L39" s="0">
-        <v>-0.190344388768</v>
+        <v>-0.27428360853999995</v>
       </c>
       <c r="M39" s="0">
-        <v>-0.0061762317999999759</v>
+        <v>-0.131666802331</v>
       </c>
       <c r="N39" s="0">
-        <v>-0.99760507659200004</v>
+        <v>-1.0177618120720002</v>
       </c>
       <c r="O39" s="0">
         <v>-0.55561698520000002</v>
@@ -8655,46 +8739,46 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.044546234977799991</v>
+        <v>-0.047774912694199992</v>
       </c>
       <c r="B40" s="0">
-        <v>-0.29239464002000004</v>
+        <v>-0.27345678286000002</v>
       </c>
       <c r="C40" s="0">
-        <v>-0.13813035779999999</v>
+        <v>-0.054516053460000012</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.20422547971999999</v>
+        <v>-0.042205363819999994</v>
       </c>
       <c r="E40" s="0">
-        <v>-0.090054571946</v>
+        <v>0.025761556963999992</v>
       </c>
       <c r="F40" s="0">
-        <v>-0.22317560879000001</v>
+        <v>-0.084355025907999995</v>
       </c>
       <c r="G40" s="0">
-        <v>-0.33288367110600003</v>
+        <v>-0.198232096926</v>
       </c>
       <c r="H40" s="0">
-        <v>-0.21254725280200004</v>
+        <v>-0.13314340427419999</v>
       </c>
       <c r="I40" s="0">
-        <v>0.092162932118000002</v>
+        <v>0.070944538880000005</v>
       </c>
       <c r="J40" s="0">
-        <v>-0.036085928449999999</v>
+        <v>0.23920981236000002</v>
       </c>
       <c r="K40" s="0">
-        <v>-0.17127703424000001</v>
+        <v>-0.11659070298</v>
       </c>
       <c r="L40" s="0">
-        <v>-0.21316700250000001</v>
+        <v>-0.1336074532</v>
       </c>
       <c r="M40" s="0">
-        <v>-0.080654440639999964</v>
+        <v>0.020135551660000008</v>
       </c>
       <c r="N40" s="0">
-        <v>0.088344273267999957</v>
+        <v>0.18638134097999998</v>
       </c>
       <c r="O40" s="0">
         <v>-0.63524519300000004</v>
@@ -8867,46 +8951,46 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.014646918958000004</v>
+        <v>-0.11553943983200002</v>
       </c>
       <c r="B41" s="0">
-        <v>0.023975867979999999</v>
+        <v>-0.016513766940000018</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.11087946754</v>
+        <v>-0.16030304783999999</v>
       </c>
       <c r="D41" s="0">
-        <v>0.25570558324200005</v>
+        <v>0.20642558550199999</v>
       </c>
       <c r="E41" s="0">
-        <v>0.33232963297999996</v>
+        <v>0.26118775142400003</v>
       </c>
       <c r="F41" s="0">
-        <v>-0.22363083304</v>
+        <v>-0.14483114455999999</v>
       </c>
       <c r="G41" s="0">
-        <v>-0.30044315072</v>
+        <v>-0.26813590310000002</v>
       </c>
       <c r="H41" s="0">
-        <v>-0.11066852115799999</v>
+        <v>-0.02783882096999999</v>
       </c>
       <c r="I41" s="0">
-        <v>0.038270254354000006</v>
+        <v>-0.0094402794259999864</v>
       </c>
       <c r="J41" s="0">
-        <v>-0.0073841153759999891</v>
+        <v>-0.088875264836000015</v>
       </c>
       <c r="K41" s="0">
-        <v>0.061246014652000004</v>
+        <v>-0.044379826428000001</v>
       </c>
       <c r="L41" s="0">
-        <v>0.25444388062000001</v>
+        <v>0.20590113221999995</v>
       </c>
       <c r="M41" s="0">
-        <v>0.66085313970000004</v>
+        <v>0.53280531071999992</v>
       </c>
       <c r="N41" s="0">
-        <v>0.43354971550800003</v>
+        <v>0.18939332462</v>
       </c>
       <c r="O41" s="0">
         <v>-0.67851346629999998</v>
@@ -9079,46 +9163,46 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.15737113942999997</v>
+        <v>0.12113643131999999</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.22468741876000001</v>
+        <v>-0.18007105027999998</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.245230211354</v>
+        <v>-0.24809576710800002</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.11540902335999999</v>
+        <v>-0.15508128764000001</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.014655163539999983</v>
+        <v>-0.014633498535999984</v>
       </c>
       <c r="F42" s="0">
-        <v>-0.28466592010000002</v>
+        <v>-0.22955073015999999</v>
       </c>
       <c r="G42" s="0">
-        <v>-0.48578625629999994</v>
+        <v>-0.40694614352000003</v>
       </c>
       <c r="H42" s="0">
-        <v>-0.38174187932600001</v>
+        <v>-0.35859854728599999</v>
       </c>
       <c r="I42" s="0">
-        <v>-0.14045863832799999</v>
+        <v>-0.22829600087999999</v>
       </c>
       <c r="J42" s="0">
-        <v>-0.094802570018000007</v>
+        <v>-0.10088468559800001</v>
       </c>
       <c r="K42" s="0">
-        <v>-0.4014472416</v>
+        <v>-0.36240913419999998</v>
       </c>
       <c r="L42" s="0">
-        <v>-0.76899879425999995</v>
+        <v>-0.66365998609999999</v>
       </c>
       <c r="M42" s="0">
-        <v>-0.33994679316600002</v>
+        <v>-0.095062715426000005</v>
       </c>
       <c r="N42" s="0">
-        <v>0.018784179240000042</v>
+        <v>0.040164483720000012</v>
       </c>
       <c r="O42" s="0">
         <v>0.40902775530000002</v>
@@ -9291,46 +9375,46 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.11767582183400001</v>
+        <v>-0.034937275578000006</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.031231405952000003</v>
+        <v>-0.031384948972000018</v>
       </c>
       <c r="C43" s="0">
-        <v>0.0089675025400000052</v>
+        <v>0.0073018513199999968</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.36005671962000002</v>
+        <v>-0.38595578246000006</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.42091038926000002</v>
+        <v>-0.47001995701200006</v>
       </c>
       <c r="F43" s="0">
-        <v>-0.33935783410000003</v>
+        <v>-0.31933119071999999</v>
       </c>
       <c r="G43" s="0">
-        <v>-0.56481906104000001</v>
+        <v>-0.60622347072000005</v>
       </c>
       <c r="H43" s="0">
-        <v>-0.2834701668704</v>
+        <v>-0.29719808275639997</v>
       </c>
       <c r="I43" s="0">
-        <v>-0.31148566309000003</v>
+        <v>-0.33462671760000001</v>
       </c>
       <c r="J43" s="0">
-        <v>-0.79601889609999998</v>
+        <v>-0.69106108991600002</v>
       </c>
       <c r="K43" s="0">
-        <v>0.17617025812000001</v>
+        <v>0.30596330999800003</v>
       </c>
       <c r="L43" s="0">
-        <v>0.19315178982800002</v>
+        <v>0.25743173865199998</v>
       </c>
       <c r="M43" s="0">
-        <v>0.32879459943800005</v>
+        <v>0.44641769201999998</v>
       </c>
       <c r="N43" s="0">
-        <v>-0.54788160254000007</v>
+        <v>-0.42397699479999995</v>
       </c>
       <c r="O43" s="0">
         <v>-0.1140072796</v>
@@ -9503,46 +9587,46 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>-0.11181660149999999</v>
+        <v>-0.14421764296</v>
       </c>
       <c r="B44" s="0">
-        <v>0.050752564259999987</v>
+        <v>-0.066009835320000002</v>
       </c>
       <c r="C44" s="0">
-        <v>-0.066731687711999998</v>
+        <v>-0.20255282535739999</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.149339296058</v>
+        <v>-0.20009967328758402</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.038807868016000002</v>
+        <v>-0.078726020584000023</v>
       </c>
       <c r="F44" s="0">
-        <v>-0.28066726425999999</v>
+        <v>-0.42536925519999996</v>
       </c>
       <c r="G44" s="0">
-        <v>-0.34608858147999999</v>
+        <v>-0.47581175624000005</v>
       </c>
       <c r="H44" s="0">
-        <v>-0.14239684300399999</v>
+        <v>-0.33187867704399998</v>
       </c>
       <c r="I44" s="0">
-        <v>0.019098441838000014</v>
+        <v>-0.18985314486800003</v>
       </c>
       <c r="J44" s="0">
-        <v>-0.18115622937999998</v>
+        <v>-0.17516072700000002</v>
       </c>
       <c r="K44" s="0">
-        <v>-0.22152001823799999</v>
+        <v>-0.28256739239799999</v>
       </c>
       <c r="L44" s="0">
-        <v>-0.31678882654039997</v>
+        <v>-0.41781996007</v>
       </c>
       <c r="M44" s="0">
-        <v>-0.56806312442000007</v>
+        <v>-0.72730444967999996</v>
       </c>
       <c r="N44" s="0">
-        <v>0.39719347349999995</v>
+        <v>0.18242612131999997</v>
       </c>
       <c r="O44" s="0">
         <v>-0.56576498959999999</v>
@@ -9715,46 +9799,46 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.014861940050000005</v>
+        <v>-0.28311872451999998</v>
       </c>
       <c r="B45" s="0">
-        <v>0.30429007131999997</v>
+        <v>-0.19385977994</v>
       </c>
       <c r="C45" s="0">
-        <v>-0.0822687577</v>
+        <v>-0.47031911627999995</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.35113573510399998</v>
+        <v>-0.41271027149999995</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.26370171232</v>
+        <v>-0.33583802224000003</v>
       </c>
       <c r="F45" s="0">
-        <v>-0.34322616180600002</v>
+        <v>-0.41460814736599999</v>
       </c>
       <c r="G45" s="0">
-        <v>0.19752038448000001</v>
+        <v>-0.11477683545999998</v>
       </c>
       <c r="H45" s="0">
-        <v>0.083051227411999981</v>
+        <v>-0.16016235554980002</v>
       </c>
       <c r="I45" s="0">
-        <v>0.025882105450000005</v>
+        <v>-0.12256230025720001</v>
       </c>
       <c r="J45" s="0">
-        <v>0.23845059935999999</v>
+        <v>-0.11173609242999998</v>
       </c>
       <c r="K45" s="0">
-        <v>0.038245261639999986</v>
+        <v>-0.37901456923999999</v>
       </c>
       <c r="L45" s="0">
-        <v>0.020005150229999998</v>
+        <v>-0.40273681481000001</v>
       </c>
       <c r="M45" s="0">
-        <v>0.089117965899999957</v>
+        <v>-0.23900765176</v>
       </c>
       <c r="N45" s="0">
-        <v>-0.055650307500000017</v>
+        <v>-0.26143251907999998</v>
       </c>
       <c r="O45" s="0">
         <v>0.23920347259999999</v>
@@ -9927,46 +10011,46 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.28740094507499997</v>
+        <v>-0.38131183334999996</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.33726335755000003</v>
+        <v>-0.38053189077500005</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.23469229642249997</v>
+        <v>-0.36060697134749997</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.34922469569999998</v>
+        <v>-0.42822553002249997</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.20184690566750005</v>
+        <v>-0.22377429700000007</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.36828665354999995</v>
+        <v>-0.43017204858499997</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.48221606247500004</v>
+        <v>-0.68311115227499997</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.61026974313500004</v>
+        <v>-0.66241110757499999</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.2863100515525</v>
+        <v>-0.35536800525250001</v>
       </c>
       <c r="J46" s="0">
-        <v>-0.52488054465</v>
+        <v>-0.62591132362500002</v>
       </c>
       <c r="K46" s="0">
-        <v>-0.048613286894999996</v>
+        <v>-0.051409512970000001</v>
       </c>
       <c r="L46" s="0">
-        <v>-0.22561817082499996</v>
+        <v>-0.32196636612749996</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.12543797039499999</v>
+        <v>-0.36198335654500002</v>
       </c>
       <c r="N46" s="0">
-        <v>-0.37853253183249996</v>
+        <v>-0.29786746042499995</v>
       </c>
       <c r="O46" s="0">
         <v>1.911679589</v>
@@ -10139,46 +10223,46 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.15701511676999996</v>
+        <v>0.067510972089999982</v>
       </c>
       <c r="B47" s="0">
-        <v>0.067622035739999961</v>
+        <v>-0.0039279128599999606</v>
       </c>
       <c r="C47" s="0">
-        <v>0.319473473048</v>
+        <v>0.29138508644799999</v>
       </c>
       <c r="D47" s="0">
-        <v>0.084836738652000004</v>
+        <v>0.093544801491999993</v>
       </c>
       <c r="E47" s="0">
-        <v>0.17426618428239998</v>
+        <v>0.21028834938240001</v>
       </c>
       <c r="F47" s="0">
-        <v>0.090303468720000002</v>
+        <v>0.14709988901999999</v>
       </c>
       <c r="G47" s="0">
-        <v>0.056006818485999997</v>
+        <v>0.036162632126000016</v>
       </c>
       <c r="H47" s="0">
-        <v>-0.085058423571999997</v>
+        <v>-0.045483504520000016</v>
       </c>
       <c r="I47" s="0">
-        <v>0.010710264979999985</v>
+        <v>-0.021869206440000032</v>
       </c>
       <c r="J47" s="0">
-        <v>0.22257114560399999</v>
+        <v>0.31825516374399998</v>
       </c>
       <c r="K47" s="0">
-        <v>0.54205924492400004</v>
+        <v>0.55199362394399998</v>
       </c>
       <c r="L47" s="0">
-        <v>0.22024200992400003</v>
+        <v>0.18484945250399998</v>
       </c>
       <c r="M47" s="0">
-        <v>0.39186679132000002</v>
+        <v>0.36337720083800001</v>
       </c>
       <c r="N47" s="0">
-        <v>0.27048909692000001</v>
+        <v>0.22168333071999999</v>
       </c>
       <c r="O47" s="0">
         <v>0.24858040619999999</v>
@@ -10351,46 +10435,46 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.027729544700000011</v>
+        <v>0.1192017405375</v>
       </c>
       <c r="B48" s="0">
-        <v>0.43302776477499999</v>
+        <v>0.46704155429999999</v>
       </c>
       <c r="C48" s="0">
-        <v>0.29206992929999998</v>
+        <v>0.32639867357499996</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.15221269739000004</v>
+        <v>-0.10151888002500002</v>
       </c>
       <c r="E48" s="0">
-        <v>0.019977268100000001</v>
+        <v>0.029157586100000001</v>
       </c>
       <c r="F48" s="0">
-        <v>-0.18990660947499999</v>
+        <v>-0.12404271677500001</v>
       </c>
       <c r="G48" s="0">
-        <v>-0.037314220450000005</v>
+        <v>0.046098353525000003</v>
       </c>
       <c r="H48" s="0">
-        <v>-0.15351002766749999</v>
+        <v>-0.070288148242500001</v>
       </c>
       <c r="I48" s="0">
-        <v>-0.065363476562499995</v>
+        <v>-0.080673496862499999</v>
       </c>
       <c r="J48" s="0">
-        <v>0.47497321939999992</v>
+        <v>0.27577553870499993</v>
       </c>
       <c r="K48" s="0">
-        <v>0.56297257725000005</v>
+        <v>0.46407791895000006</v>
       </c>
       <c r="L48" s="0">
-        <v>0.3292233215</v>
+        <v>0.30246651675000003</v>
       </c>
       <c r="M48" s="0">
-        <v>0.17086341034750002</v>
+        <v>0.063259249172500004</v>
       </c>
       <c r="N48" s="0">
-        <v>-0.073844130872499983</v>
+        <v>-0.23341596807499998</v>
       </c>
       <c r="O48" s="0">
         <v>-0.2301575163</v>
@@ -10563,46 +10647,46 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.33639749337500002</v>
+        <v>0.48825088682500001</v>
       </c>
       <c r="B49" s="0">
-        <v>0.71485658242499994</v>
+        <v>0.8556453691</v>
       </c>
       <c r="C49" s="0">
-        <v>0.68865235725000007</v>
+        <v>0.81225627452500004</v>
       </c>
       <c r="D49" s="0">
-        <v>0.043577553472500009</v>
+        <v>0.10958469512750001</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.29535256495000001</v>
+        <v>-0.22319464965000002</v>
       </c>
       <c r="F49" s="0">
-        <v>0.17229771820000001</v>
+        <v>0.2301852367625</v>
       </c>
       <c r="G49" s="0">
-        <v>0.16707570667500002</v>
+        <v>0.236380156585</v>
       </c>
       <c r="H49" s="0">
-        <v>0.20399600975500001</v>
+        <v>0.24284041971000001</v>
       </c>
       <c r="I49" s="0">
-        <v>0.15170704245</v>
+        <v>0.30609122333</v>
       </c>
       <c r="J49" s="0">
-        <v>-0.12749859107499997</v>
+        <v>-0.10900876447499999</v>
       </c>
       <c r="K49" s="0">
-        <v>0.55131213229999998</v>
+        <v>0.64155743944999999</v>
       </c>
       <c r="L49" s="0">
-        <v>0.41982698689999998</v>
+        <v>0.55981476122499996</v>
       </c>
       <c r="M49" s="0">
-        <v>0.43289232827500002</v>
+        <v>0.57648819085000003</v>
       </c>
       <c r="N49" s="0">
-        <v>0.51729593137499996</v>
+        <v>0.71320756837499999</v>
       </c>
       <c r="O49" s="0">
         <v>0.53844279559999997</v>
@@ -10775,46 +10859,46 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.011674378651999981</v>
+        <v>0.086214301759999987</v>
       </c>
       <c r="B50" s="0">
-        <v>0.13472475465600003</v>
+        <v>0.017952469262000007</v>
       </c>
       <c r="C50" s="0">
-        <v>-0.026821156041999999</v>
+        <v>-0.078648235499999997</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.133557534472</v>
+        <v>-0.029776638856000015</v>
       </c>
       <c r="E50" s="0">
-        <v>0.13531035669159999</v>
+        <v>0.18461490553160001</v>
       </c>
       <c r="F50" s="0">
-        <v>0.14565291427200006</v>
+        <v>0.047098018239999997</v>
       </c>
       <c r="G50" s="0">
-        <v>0.083215789200000015</v>
+        <v>0.081067229720000036</v>
       </c>
       <c r="H50" s="0">
-        <v>-0.073667310434000016</v>
+        <v>-0.018877567961999984</v>
       </c>
       <c r="I50" s="0">
-        <v>-0.26664220623000001</v>
+        <v>-0.081552344020000028</v>
       </c>
       <c r="J50" s="0">
-        <v>0.059268956219999946</v>
+        <v>0.08492152484200001</v>
       </c>
       <c r="K50" s="0">
-        <v>0.081405785344000017</v>
+        <v>-0.040229142596000009</v>
       </c>
       <c r="L50" s="0">
-        <v>0.026916678077999988</v>
+        <v>0.14214023853800001</v>
       </c>
       <c r="M50" s="0">
-        <v>0.14716759924</v>
+        <v>0.31319975821999996</v>
       </c>
       <c r="N50" s="0">
-        <v>-0.098824155343</v>
+        <v>0.12814766079999998</v>
       </c>
       <c r="O50" s="0">
         <v>0.3814151717</v>
@@ -10987,46 +11071,46 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.21272562366499997</v>
+        <v>0.19925977918999999</v>
       </c>
       <c r="B51" s="0">
-        <v>0.42826608150000001</v>
+        <v>0.41845515750000001</v>
       </c>
       <c r="C51" s="0">
-        <v>0.090019118049999958</v>
+        <v>0.1428296838</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.13966105214999999</v>
+        <v>-0.0056951915749999804</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.3603883536875</v>
+        <v>-0.11178035683750004</v>
       </c>
       <c r="F51" s="0">
-        <v>0.12546245485000002</v>
+        <v>0.065622672349999994</v>
       </c>
       <c r="G51" s="0">
-        <v>0.34769727454999999</v>
+        <v>0.15276664044999999</v>
       </c>
       <c r="H51" s="0">
-        <v>0.49760958852499998</v>
+        <v>0.41639153237499998</v>
       </c>
       <c r="I51" s="0">
-        <v>-0.20305184069999999</v>
+        <v>-0.13126112307499999</v>
       </c>
       <c r="J51" s="0">
-        <v>0.94225027915750004</v>
+        <v>1.0426522544825001</v>
       </c>
       <c r="K51" s="0">
-        <v>0.091124855128750015</v>
+        <v>0.16470430537875003</v>
       </c>
       <c r="L51" s="0">
-        <v>-0.025908035024999998</v>
+        <v>-0.028967803474999998</v>
       </c>
       <c r="M51" s="0">
-        <v>-0.35865630387499997</v>
+        <v>-0.35602491817499998</v>
       </c>
       <c r="N51" s="0">
-        <v>-0.015729159775000057</v>
+        <v>-0.22564121790000005</v>
       </c>
       <c r="O51" s="0">
         <v>-1.1064945479999999</v>
@@ -11199,46 +11283,46 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>-0.37221578426250002</v>
+        <v>-0.33944208357500005</v>
       </c>
       <c r="B52" s="0">
-        <v>-0.48136101325000002</v>
+        <v>-0.37496392201000006</v>
       </c>
       <c r="C52" s="0">
-        <v>-0.28055194304999997</v>
+        <v>-0.21503238149999998</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.1036324765</v>
+        <v>-0.056997943149999994</v>
       </c>
       <c r="E52" s="0">
-        <v>-0.58973498704999994</v>
+        <v>-0.54724176707499994</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.34279825207999998</v>
+        <v>-0.37307445172999998</v>
       </c>
       <c r="G52" s="0">
-        <v>-0.37953383694999998</v>
+        <v>-0.3802512442</v>
       </c>
       <c r="H52" s="0">
-        <v>-0.25524038388499998</v>
+        <v>-0.23085439183500001</v>
       </c>
       <c r="I52" s="0">
-        <v>-0.27933938784750001</v>
+        <v>-0.2921029187975</v>
       </c>
       <c r="J52" s="0">
-        <v>-0.1789779808885</v>
+        <v>-0.12852842582999999</v>
       </c>
       <c r="K52" s="0">
-        <v>-0.18660666046250002</v>
+        <v>-0.097861164187499988</v>
       </c>
       <c r="L52" s="0">
-        <v>-0.41995574885999998</v>
+        <v>-0.57045648527500004</v>
       </c>
       <c r="M52" s="0">
-        <v>-0.37914366264749999</v>
+        <v>-0.22761625132249996</v>
       </c>
       <c r="N52" s="0">
-        <v>-0.50769239557500001</v>
+        <v>-0.58981100387500007</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -13,7 +13,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -471,46 +555,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="O1" s="0">
         <v>-0.36030029759999999</v>

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -313,20 +355,20 @@
   <dimension ref="A1:BR53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
     <col min="3" max="3" width="14.42578125" customWidth="true"/>
-    <col min="4" max="4" width="14.42578125" customWidth="true"/>
-    <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="16.42578125" customWidth="true"/>
-    <col min="7" max="7" width="16.42578125" customWidth="true"/>
-    <col min="8" max="8" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="14.42578125" customWidth="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true"/>
+    <col min="8" max="8" width="14.42578125" customWidth="true"/>
     <col min="9" max="9" width="15.42578125" customWidth="true"/>
-    <col min="10" max="10" width="15.42578125" customWidth="true"/>
-    <col min="11" max="11" width="14.7109375" customWidth="true"/>
+    <col min="10" max="10" width="14.42578125" customWidth="true"/>
+    <col min="11" max="11" width="14.42578125" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
-    <col min="14" max="14" width="15.42578125" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" customWidth="true"/>
     <col min="15" max="15" width="14.42578125" customWidth="true"/>
     <col min="16" max="16" width="15.42578125" customWidth="true"/>
     <col min="17" max="17" width="15.42578125" customWidth="true"/>
@@ -387,46 +429,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="O1" s="0">
         <v>-0.36030029759999999</v>
@@ -599,46 +641,46 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.14078792467500001</v>
+        <v>-0.17404947509500002</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26596551942999996</v>
+        <v>0.098749061035000002</v>
       </c>
       <c r="C2" s="0">
-        <v>0.16630994242500002</v>
+        <v>-0.052212924644999999</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.10697171619500001</v>
+        <v>-0.021883959077500001</v>
       </c>
       <c r="E2" s="0">
-        <v>0.078230294397499983</v>
+        <v>0.041203313919999998</v>
       </c>
       <c r="F2" s="0">
-        <v>0.3620132902</v>
+        <v>-0.045271061934999995</v>
       </c>
       <c r="G2" s="0">
-        <v>0.45045286733250001</v>
+        <v>0.1484613273075</v>
       </c>
       <c r="H2" s="0">
-        <v>0.051652257710499999</v>
+        <v>-0.10187551697699999</v>
       </c>
       <c r="I2" s="0">
-        <v>0.23966917888525002</v>
+        <v>0.024551287557250008</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.39799031565000004</v>
+        <v>-0.74635415267500005</v>
       </c>
       <c r="K2" s="0">
-        <v>0.37361356288500003</v>
+        <v>0.15934744287499999</v>
       </c>
       <c r="L2" s="0">
-        <v>0.77566791997499995</v>
+        <v>0.16259734787749999</v>
       </c>
       <c r="M2" s="0">
-        <v>0.35305775685000002</v>
+        <v>0.049747595950000008</v>
       </c>
       <c r="N2" s="0">
-        <v>0.58037688677499999</v>
+        <v>-0.15645782475</v>
       </c>
       <c r="O2" s="0">
         <v>-2.2181104129999998</v>
@@ -811,46 +853,46 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.20996722792500003</v>
+        <v>-0.177608158352</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.37201425342500005</v>
+        <v>-0.31965428096000004</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.61009833860000007</v>
+        <v>-0.44395674948000002</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.19790024845000001</v>
+        <v>-0.17819079336400001</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.49357198542499992</v>
+        <v>-0.42045410224000002</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.89110872922499995</v>
+        <v>-0.74546986727999998</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.32303606535000001</v>
+        <v>-0.29959097899999998</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.15099334535999998</v>
+        <v>-0.081749090787999995</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.58349606397499998</v>
+        <v>-0.4965314493800001</v>
       </c>
       <c r="J3" s="0">
-        <v>0.15926253912500002</v>
+        <v>0.36309151909999998</v>
       </c>
       <c r="K3" s="0">
-        <v>-1.0817383018250002</v>
+        <v>-0.87656137640400011</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.61146063805000006</v>
+        <v>-0.47075110990599994</v>
       </c>
       <c r="M3" s="0">
-        <v>0.017350899924999941</v>
+        <v>0.017875184925999932</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.51186113249999998</v>
+        <v>-0.61045343340000002</v>
       </c>
       <c r="O3" s="0">
         <v>2.209751169</v>
@@ -1023,46 +1065,46 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.011246142311999996</v>
+        <v>-0.014483754904000007</v>
       </c>
       <c r="B4" s="0">
-        <v>0.091198319780000009</v>
+        <v>0.086456085120000026</v>
       </c>
       <c r="C4" s="0">
-        <v>0.42554838991599997</v>
+        <v>0.42552011843599996</v>
       </c>
       <c r="D4" s="0">
-        <v>0.2966529564</v>
+        <v>0.18113726774</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00039751792000002338</v>
+        <v>-0.06298730542</v>
       </c>
       <c r="F4" s="0">
-        <v>0.12179037455999997</v>
+        <v>-0.06727547456000002</v>
       </c>
       <c r="G4" s="0">
-        <v>0.22271198225400002</v>
+        <v>0.085721532156399993</v>
       </c>
       <c r="H4" s="0">
-        <v>0.24734662946800001</v>
+        <v>0.22191534698800003</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0187820136116</v>
+        <v>-0.026372654596000005</v>
       </c>
       <c r="J4" s="0">
-        <v>0.21327603598800002</v>
+        <v>0.28991432420800001</v>
       </c>
       <c r="K4" s="0">
-        <v>0.058380246290000007</v>
+        <v>-0.083234223020000012</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.50945415488000001</v>
+        <v>-0.49167504645999999</v>
       </c>
       <c r="M4" s="0">
-        <v>-0.57936641748400008</v>
+        <v>-0.39214274555</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.66729688630000017</v>
+        <v>-0.56042485312000001</v>
       </c>
       <c r="O4" s="0">
         <v>0.4165435166</v>
@@ -1235,46 +1277,46 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.265790235185</v>
+        <v>-0.034408589239999975</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.06316968052999998</v>
+        <v>0.022381938406000002</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.02475423363249999</v>
+        <v>0.059936688904000002</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.115945025625</v>
+        <v>-0.143475222988</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.029614134842500001</v>
+        <v>0.043798379836000004</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.1670532945</v>
+        <v>-0.17804600139400001</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.33613959226750001</v>
+        <v>-0.28971948063999997</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.21393806663749998</v>
+        <v>-0.2396612455214</v>
       </c>
       <c r="I5" s="0">
-        <v>0.24070038344</v>
+        <v>0.10844125808000001</v>
       </c>
       <c r="J5" s="0">
-        <v>0.24815848730000001</v>
+        <v>0.38858298976000005</v>
       </c>
       <c r="K5" s="0">
-        <v>0.12100199635000002</v>
+        <v>0.22564394052</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.016418232725000009</v>
+        <v>-0.13084269542000002</v>
       </c>
       <c r="M5" s="0">
-        <v>0.064603163825000004</v>
+        <v>0.18659904059999999</v>
       </c>
       <c r="N5" s="0">
-        <v>0.35563680199250003</v>
+        <v>0.31384271154000004</v>
       </c>
       <c r="O5" s="0">
         <v>0.041952293760000002</v>
@@ -1447,46 +1489,46 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.075152260453999989</v>
+        <v>0.27231863468</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.083660592499999992</v>
+        <v>0.14390450374000002</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.062494528991999976</v>
+        <v>0.18977620054000002</v>
       </c>
       <c r="D6" s="0">
-        <v>0.12776610860200002</v>
+        <v>0.21858967148200001</v>
       </c>
       <c r="E6" s="0">
-        <v>0.28439010749999999</v>
+        <v>0.30994357175999998</v>
       </c>
       <c r="F6" s="0">
-        <v>0.207493784958</v>
+        <v>0.41538343073600004</v>
       </c>
       <c r="G6" s="0">
-        <v>0.14752463677399999</v>
+        <v>0.36875111675399996</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.024887240086000007</v>
+        <v>0.20267146704</v>
       </c>
       <c r="I6" s="0">
-        <v>0.25218266547199997</v>
+        <v>0.40251759771200002</v>
       </c>
       <c r="J6" s="0">
-        <v>0.02003721643999996</v>
+        <v>0.40471625038000003</v>
       </c>
       <c r="K6" s="0">
-        <v>0.41747833310000004</v>
+        <v>0.64140013220000003</v>
       </c>
       <c r="L6" s="0">
-        <v>0.22016945222000001</v>
+        <v>0.473795503708</v>
       </c>
       <c r="M6" s="0">
-        <v>0.197302110374</v>
+        <v>0.39757241627999995</v>
       </c>
       <c r="N6" s="0">
-        <v>0.22882967936000004</v>
+        <v>0.42826639035999997</v>
       </c>
       <c r="O6" s="0">
         <v>0.36606569439999997</v>
@@ -1659,46 +1701,46 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.046250182824200001</v>
+        <v>0.1744265710198</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.058722906380000009</v>
+        <v>0.11384394562</v>
       </c>
       <c r="C7" s="0">
-        <v>0.10204974968</v>
+        <v>0.28769072663800005</v>
       </c>
       <c r="D7" s="0">
-        <v>0.16056402572400003</v>
+        <v>0.34878457983999994</v>
       </c>
       <c r="E7" s="0">
-        <v>0.063559975859999979</v>
+        <v>0.29329104062599998</v>
       </c>
       <c r="F7" s="0">
-        <v>0.051341626019999996</v>
+        <v>0.20744567753999998</v>
       </c>
       <c r="G7" s="0">
-        <v>0.17964860281999998</v>
+        <v>0.30061399002399997</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.205075073</v>
+        <v>-0.099158271153999999</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.28404945481799998</v>
+        <v>-0.14719920126199998</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.19861942588000001</v>
+        <v>-0.14948484796</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.18115958201999999</v>
+        <v>-0.034069555519999982</v>
       </c>
       <c r="L7" s="0">
-        <v>0.17239634705999998</v>
+        <v>0.53002413195999998</v>
       </c>
       <c r="M7" s="0">
-        <v>-0.010100408779999992</v>
+        <v>0.28765590342000003</v>
       </c>
       <c r="N7" s="0">
-        <v>0.054758378799999986</v>
+        <v>0.17049336030000001</v>
       </c>
       <c r="O7" s="0">
         <v>-0.56850860540000003</v>
@@ -1871,46 +1913,46 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.44372081094000004</v>
+        <v>-0.29663124048060002</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.40098112718000001</v>
+        <v>-0.26110560478</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.54660805333999996</v>
+        <v>-0.38017037870800002</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.334807986286</v>
+        <v>-0.25578792806</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.48509310258000005</v>
+        <v>-0.43300434882000005</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.38045419493400001</v>
+        <v>-0.35198882339999998</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.22839825474</v>
+        <v>-0.18113076379999998</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.20601011471200001</v>
+        <v>-0.073132766512</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.49849447953799997</v>
+        <v>-0.40158205015800003</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.65786008768600002</v>
+        <v>-0.61921312468000012</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.71668320002000008</v>
+        <v>-0.60844717689799999</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.72865651773999995</v>
+        <v>-0.74423678969200002</v>
       </c>
       <c r="M8" s="0">
-        <v>-0.74729739013999996</v>
+        <v>-0.66449311039999992</v>
       </c>
       <c r="N8" s="0">
-        <v>-1.0532261623600001</v>
+        <v>-0.75392620345000005</v>
       </c>
       <c r="O8" s="0">
         <v>0.26118116409999997</v>
@@ -2083,46 +2125,46 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.036879565980000008</v>
+        <v>-0.070539696499999985</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.064233556012599988</v>
+        <v>-0.16889839997600001</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.11040672753599998</v>
+        <v>-0.16862712888</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.50877844657600002</v>
+        <v>-0.33146564270000001</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.37404365519599997</v>
+        <v>-0.31766842724</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.18374198442999998</v>
+        <v>-0.19598277952400001</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.35802148322000005</v>
+        <v>-0.10318859494000002</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.28461735014599998</v>
+        <v>-0.13131904179199999</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.072612520740000047</v>
+        <v>-0.016564598340000024</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.66241787896000004</v>
+        <v>-0.35529358865999999</v>
       </c>
       <c r="K9" s="0">
-        <v>0.62180340515999999</v>
+        <v>0.52910316609399999</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.30348870484000001</v>
+        <v>-0.19582983298000003</v>
       </c>
       <c r="M9" s="0">
-        <v>0.21463355250399996</v>
+        <v>0.38343070678399999</v>
       </c>
       <c r="N9" s="0">
-        <v>0.031344307233999988</v>
+        <v>0.133275924096</v>
       </c>
       <c r="O9" s="0">
         <v>1.475594625</v>
@@ -2295,46 +2337,46 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.16357386251999997</v>
+        <v>-0.17972466768799999</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.38012091135999998</v>
+        <v>-0.33269725926139998</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.36911390267999999</v>
+        <v>-0.32881310416000004</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.21916933635999997</v>
+        <v>-0.10159357506000002</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.30566488081999998</v>
+        <v>-0.14540198377999997</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.14736685736400004</v>
+        <v>-0.094309082819999987</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.36368383753799993</v>
+        <v>-0.40107503800800004</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.30805091755199998</v>
+        <v>-0.46186175309999999</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.36888629785999999</v>
+        <v>-0.35113355079999997</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.34913975616600001</v>
+        <v>-0.13018344653799999</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.2811325241</v>
+        <v>-0.17003140795999999</v>
       </c>
       <c r="L10" s="0">
-        <v>-0.25616873369800003</v>
+        <v>-0.36235347103800003</v>
       </c>
       <c r="M10" s="0">
-        <v>-0.14783237815199998</v>
+        <v>-0.13115113688999999</v>
       </c>
       <c r="N10" s="0">
-        <v>-0.21109517222000002</v>
+        <v>-0.1268883234</v>
       </c>
       <c r="O10" s="0">
         <v>0.076811407009999999</v>
@@ -2507,46 +2549,46 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.43902604907999992</v>
+        <v>0.39146498618200004</v>
       </c>
       <c r="B11" s="0">
-        <v>0.62174968051399992</v>
+        <v>0.52778952010000002</v>
       </c>
       <c r="C11" s="0">
-        <v>0.002251029839999974</v>
+        <v>-0.13632180960000001</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.04867447251600001</v>
+        <v>-0.15460537072</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.022138395179999992</v>
+        <v>-0.10623048503999999</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0047877875659999569</v>
+        <v>-0.098524746534000007</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.26898757822000002</v>
+        <v>-0.26475996738000002</v>
       </c>
       <c r="H11" s="0">
-        <v>0.061678997759999986</v>
+        <v>-0.030758927099999989</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.018555769572000006</v>
+        <v>-0.21177418592000002</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.050805510733999991</v>
+        <v>-0.30416712517200006</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.40895341122000001</v>
+        <v>-0.54232310738</v>
       </c>
       <c r="L11" s="0">
-        <v>-0.12527591523999998</v>
+        <v>-0.23038093981999994</v>
       </c>
       <c r="M11" s="0">
-        <v>-0.29077796502000003</v>
+        <v>-0.29757975201999998</v>
       </c>
       <c r="N11" s="0">
-        <v>0.10336844882199998</v>
+        <v>0.051067955204000003</v>
       </c>
       <c r="O11" s="0">
         <v>-0.47033640300000001</v>
@@ -2719,46 +2761,46 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.15845044899999999</v>
+        <v>-0.14079934590600002</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.27926780021200004</v>
+        <v>-0.20651421445600002</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.59725026784000002</v>
+        <v>-0.43134398875999996</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.059754489328000003</v>
+        <v>-0.119896482764</v>
       </c>
       <c r="E12" s="0">
-        <v>0.19551790424000001</v>
+        <v>0.070047106419999991</v>
       </c>
       <c r="F12" s="0">
-        <v>0.03885638120599999</v>
+        <v>0.071058348641999988</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.29320587951999999</v>
+        <v>-0.21179769198799997</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.32984070730199999</v>
+        <v>-0.17359164765399998</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.23668373237399995</v>
+        <v>-0.337705464392</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.35530480878999998</v>
+        <v>-0.20114020645</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.28550896895199995</v>
+        <v>-0.35961920932800001</v>
       </c>
       <c r="L12" s="0">
-        <v>-0.25037050088399998</v>
+        <v>-0.24188583614000003</v>
       </c>
       <c r="M12" s="0">
-        <v>-0.18137218692400001</v>
+        <v>-0.18516335260600003</v>
       </c>
       <c r="N12" s="0">
-        <v>-0.56908704440000002</v>
+        <v>-0.83104828660000007</v>
       </c>
       <c r="O12" s="0">
         <v>0.24583915889999999</v>
@@ -2931,46 +2973,46 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.30051822974799997</v>
+        <v>0.23027278461199999</v>
       </c>
       <c r="B13" s="0">
-        <v>0.13337583942</v>
+        <v>-0.001555064920000001</v>
       </c>
       <c r="C13" s="0">
-        <v>0.25220422283400001</v>
+        <v>0.042769489086</v>
       </c>
       <c r="D13" s="0">
-        <v>0.30396299495950002</v>
+        <v>0.24607298176999998</v>
       </c>
       <c r="E13" s="0">
-        <v>0.27963150699660005</v>
+        <v>0.27270043554800005</v>
       </c>
       <c r="F13" s="0">
-        <v>0.1763784175</v>
+        <v>0.1101407174</v>
       </c>
       <c r="G13" s="0">
-        <v>0.12031741795999999</v>
+        <v>0.027022329677000002</v>
       </c>
       <c r="H13" s="0">
-        <v>0.083529181979999992</v>
+        <v>-0.026508733480000001</v>
       </c>
       <c r="I13" s="0">
-        <v>0.0029332390199999893</v>
+        <v>0.025409329459999973</v>
       </c>
       <c r="J13" s="0">
-        <v>-0.26878169651999995</v>
+        <v>-0.28918646920000002</v>
       </c>
       <c r="K13" s="0">
-        <v>-0.16085545205999999</v>
+        <v>-0.182769539338</v>
       </c>
       <c r="L13" s="0">
-        <v>0.018342300159999981</v>
+        <v>-0.15447117285999998</v>
       </c>
       <c r="M13" s="0">
-        <v>0.33203034508000001</v>
+        <v>0.52034083221600003</v>
       </c>
       <c r="N13" s="0">
-        <v>0.042822212560000003</v>
+        <v>0.23019381257999999</v>
       </c>
       <c r="O13" s="0">
         <v>-0.33513325440000002</v>
@@ -3143,46 +3185,46 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.011303165178000002</v>
+        <v>0.19428359242000001</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.19634436159999999</v>
+        <v>0.10291485230000001</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.16232105578</v>
+        <v>0.083903644919999992</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.10306530106</v>
+        <v>-0.10883548604</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.22192712380000001</v>
+        <v>-0.24590304561999998</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.13984563656000001</v>
+        <v>0.07055247140999997</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.15166059926</v>
+        <v>0.093652709520000002</v>
       </c>
       <c r="H14" s="0">
-        <v>0.15729562760599999</v>
+        <v>0.28117804576000005</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.051519462879999998</v>
+        <v>-0.10680968288000001</v>
       </c>
       <c r="J14" s="0">
-        <v>-0.082932634757999987</v>
+        <v>-0.054512234337999989</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.31325015218000002</v>
+        <v>-0.22735219768000006</v>
       </c>
       <c r="L14" s="0">
-        <v>0.11465377557999998</v>
+        <v>0.25057783846000004</v>
       </c>
       <c r="M14" s="0">
-        <v>0.28574901727000002</v>
+        <v>0.43290486435000003</v>
       </c>
       <c r="N14" s="0">
-        <v>-0.171643545738</v>
+        <v>0.0081979446399999996</v>
       </c>
       <c r="O14" s="0">
         <v>-0.21128192139999999</v>
@@ -3355,46 +3397,46 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.11704833063219999</v>
+        <v>-0.093601068400000015</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.41955302310799991</v>
+        <v>-0.42369135848</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.43348702118800003</v>
+        <v>-0.30275738056399998</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.30481580322000001</v>
+        <v>-0.054658251640000002</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.221646914498</v>
+        <v>-0.12542564058</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.13184560894000003</v>
+        <v>0.051016411800000008</v>
       </c>
       <c r="G15" s="0">
-        <v>-0.077638379267999991</v>
+        <v>0.0074081431480000053</v>
       </c>
       <c r="H15" s="0">
-        <v>-0.079360108319999997</v>
+        <v>-0.060072773528000001</v>
       </c>
       <c r="I15" s="0">
-        <v>-0.21102132151199998</v>
+        <v>-0.27109692553800002</v>
       </c>
       <c r="J15" s="0">
-        <v>0.18540586064600001</v>
+        <v>0.173198078182</v>
       </c>
       <c r="K15" s="0">
-        <v>-0.35782008699999995</v>
+        <v>-0.20636058091999993</v>
       </c>
       <c r="L15" s="0">
-        <v>-0.23205362875999999</v>
+        <v>-0.13000039086199999</v>
       </c>
       <c r="M15" s="0">
-        <v>-0.11742046106000001</v>
+        <v>-0.25254541357999999</v>
       </c>
       <c r="N15" s="0">
-        <v>-0.36712546653400013</v>
+        <v>-0.60045550735400011</v>
       </c>
       <c r="O15" s="0">
         <v>-0.40024857470000003</v>
@@ -3567,46 +3609,46 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.163864794896</v>
+        <v>-0.13323623122</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.45257119024000003</v>
+        <v>-0.38019516192000002</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.24289018169999999</v>
+        <v>-0.18820699125759999</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.15225780405999997</v>
+        <v>-0.12912952802</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0045503008200000082</v>
+        <v>-0.020939654019999997</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.12429446513999998</v>
+        <v>-0.16096908963599998</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.19612327743999999</v>
+        <v>-0.16551489749599999</v>
       </c>
       <c r="H16" s="0">
-        <v>-0.0080970890539999833</v>
+        <v>0.058050670617999997</v>
       </c>
       <c r="I16" s="0">
-        <v>-0.0033179562679999997</v>
+        <v>0.087583058956000007</v>
       </c>
       <c r="J16" s="0">
-        <v>-0.34191488458000008</v>
+        <v>-0.17054333630000001</v>
       </c>
       <c r="K16" s="0">
-        <v>0.23085321906200001</v>
+        <v>0.179843263182</v>
       </c>
       <c r="L16" s="0">
-        <v>0.12091792623999997</v>
+        <v>0.008967982839999989</v>
       </c>
       <c r="M16" s="0">
-        <v>-0.0019727102000000052</v>
+        <v>0.062823713679999976</v>
       </c>
       <c r="N16" s="0">
-        <v>-0.36020074282000003</v>
+        <v>-0.29986395900000001</v>
       </c>
       <c r="O16" s="0">
         <v>0.46355693100000001</v>
@@ -3779,46 +3821,46 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.06157246027600001</v>
+        <v>-0.03978770025399999</v>
       </c>
       <c r="B17" s="0">
-        <v>0.32655285828000002</v>
+        <v>0.24354769018000005</v>
       </c>
       <c r="C17" s="0">
-        <v>0.05813387593599998</v>
+        <v>0.017581588161999995</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.06732317157999998</v>
+        <v>-0.21072644859600001</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.111642629876</v>
+        <v>-0.29505715941600003</v>
       </c>
       <c r="F17" s="0">
-        <v>0.28014878629399997</v>
+        <v>0.20127504498400001</v>
       </c>
       <c r="G17" s="0">
-        <v>0.16924211245999998</v>
+        <v>0.19506612541999999</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.093072101560000009</v>
+        <v>-0.104330702538</v>
       </c>
       <c r="I17" s="0">
-        <v>0.0026846111799999849</v>
+        <v>-0.17791330966000002</v>
       </c>
       <c r="J17" s="0">
-        <v>0.010436505385999995</v>
+        <v>0.16520596942599999</v>
       </c>
       <c r="K17" s="0">
-        <v>-0.068670296480000032</v>
+        <v>-0.14888736970700003</v>
       </c>
       <c r="L17" s="0">
-        <v>0.02719032404599997</v>
+        <v>-0.047056292410000013</v>
       </c>
       <c r="M17" s="0">
-        <v>0.50373938381999994</v>
+        <v>0.257962688612</v>
       </c>
       <c r="N17" s="0">
-        <v>0.18934984831999996</v>
+        <v>-0.044703507398000018</v>
       </c>
       <c r="O17" s="0">
         <v>0</v>
@@ -3991,46 +4033,46 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.021125414995000008</v>
+        <v>-0.11432961125499998</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.18004715732500001</v>
+        <v>-0.42294682485000001</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.0124531845925</v>
+        <v>-0.230757089975</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.038457621994999996</v>
+        <v>-0.087698254650000002</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.23062697845000002</v>
+        <v>-0.150617739975</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.16930596272500001</v>
+        <v>-0.18838887994750003</v>
       </c>
       <c r="G18" s="0">
-        <v>0.02551024525249998</v>
+        <v>-0.1978176341225</v>
       </c>
       <c r="H18" s="0">
-        <v>0.031910031836500014</v>
+        <v>-0.17579953132350001</v>
       </c>
       <c r="I18" s="0">
-        <v>-0.10878864083000001</v>
+        <v>-0.27788499645749998</v>
       </c>
       <c r="J18" s="0">
-        <v>0.12205327093574998</v>
+        <v>-0.058088020700000013</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.26889287422499997</v>
+        <v>-0.29249761422499998</v>
       </c>
       <c r="L18" s="0">
-        <v>-0.32916763885</v>
+        <v>-0.077241887449999991</v>
       </c>
       <c r="M18" s="0">
-        <v>0.24361328142500002</v>
+        <v>0.30861100820499998</v>
       </c>
       <c r="N18" s="0">
-        <v>0.36766515242499997</v>
+        <v>0.26311348862499995</v>
       </c>
       <c r="O18" s="0">
         <v>0</v>
@@ -4203,46 +4245,46 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.086102740804999994</v>
+        <v>-0.065061843179999995</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.36919370547499997</v>
+        <v>-0.33427691977499996</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.33390679635000003</v>
+        <v>-0.39777918586875</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.21369957297499997</v>
+        <v>-0.074313737749999997</v>
       </c>
       <c r="E19" s="0">
-        <v>0.1958148488375</v>
+        <v>0.41833858291250003</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.00029785093249999096</v>
+        <v>0.20691681125</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.29794626537499996</v>
+        <v>-0.040912043925000002</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.21076157285000002</v>
+        <v>-0.020539228450000006</v>
       </c>
       <c r="I19" s="0">
-        <v>-0.17427292932499999</v>
+        <v>-0.014635281700000002</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.90753095297499997</v>
+        <v>-0.72867401165000001</v>
       </c>
       <c r="K19" s="0">
-        <v>-0.31283989875000001</v>
+        <v>-0.38366861272499997</v>
       </c>
       <c r="L19" s="0">
-        <v>-0.45975636275000004</v>
+        <v>-0.26909445789999997</v>
       </c>
       <c r="M19" s="0">
-        <v>-0.24084082355000003</v>
+        <v>-0.057686466685000007</v>
       </c>
       <c r="N19" s="0">
-        <v>-0.039308802249999997</v>
+        <v>-0.25120704844749997</v>
       </c>
       <c r="O19" s="0">
         <v>-0.075442163889999997</v>
@@ -4415,46 +4457,46 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.14451395484000001</v>
+        <v>0.18016327070000002</v>
       </c>
       <c r="B20" s="0">
-        <v>0.17043902871400002</v>
+        <v>0.19249082390199998</v>
       </c>
       <c r="C20" s="0">
-        <v>0.10241985370399997</v>
+        <v>0.13349976356000001</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.082397305899999995</v>
+        <v>0.0010008039200000041</v>
       </c>
       <c r="E20" s="0">
-        <v>0.022922990019999999</v>
+        <v>0.10460323145000001</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.14732471937200001</v>
+        <v>-0.062155137866600006</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.34707047121199996</v>
+        <v>-0.25019781617200004</v>
       </c>
       <c r="H20" s="0">
-        <v>-0.29321269420599994</v>
+        <v>-0.26869925924600002</v>
       </c>
       <c r="I20" s="0">
-        <v>0.063502752419999989</v>
+        <v>0.14156453667999999</v>
       </c>
       <c r="J20" s="0">
-        <v>-0.32747274956</v>
+        <v>-0.25849654407999995</v>
       </c>
       <c r="K20" s="0">
-        <v>0.41330670352599996</v>
+        <v>0.58256574605399991</v>
       </c>
       <c r="L20" s="0">
-        <v>0.098217996520000003</v>
+        <v>0.33955788855199998</v>
       </c>
       <c r="M20" s="0">
-        <v>0.061819566079999999</v>
+        <v>0.37675826548000002</v>
       </c>
       <c r="N20" s="0">
-        <v>0.25117686824599994</v>
+        <v>0.59338050673999998</v>
       </c>
       <c r="O20" s="0">
         <v>-0.1009908342</v>
@@ -4627,46 +4669,46 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.14248950532199997</v>
+        <v>0.24951549263600001</v>
       </c>
       <c r="B21" s="0">
-        <v>0.10957933396000001</v>
+        <v>0.20213813690000001</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.04698306724000003</v>
+        <v>0.21731980139999996</v>
       </c>
       <c r="D21" s="0">
-        <v>0.089475553418807988</v>
+        <v>0.053866600346000007</v>
       </c>
       <c r="E21" s="0">
-        <v>0.11315879173999999</v>
+        <v>-0.19144754177999998</v>
       </c>
       <c r="F21" s="0">
-        <v>0.00045212031599999871</v>
+        <v>0.01441500606399999</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.22909799363199998</v>
+        <v>-0.08947422943199998</v>
       </c>
       <c r="H21" s="0">
-        <v>0.057861978550000005</v>
+        <v>0.15467401975600001</v>
       </c>
       <c r="I21" s="0">
-        <v>0.13745205542</v>
+        <v>0.093894455279999997</v>
       </c>
       <c r="J21" s="0">
-        <v>0.0048570535800000255</v>
+        <v>-0.0034651135800000234</v>
       </c>
       <c r="K21" s="0">
-        <v>0.023613967320000005</v>
+        <v>0.24296056412000003</v>
       </c>
       <c r="L21" s="0">
-        <v>-0.10295946076000002</v>
+        <v>0.16037444985200003</v>
       </c>
       <c r="M21" s="0">
-        <v>-0.19244461726000001</v>
+        <v>0.018462011463999985</v>
       </c>
       <c r="N21" s="0">
-        <v>-0.091326127019999953</v>
+        <v>0.44347264616000004</v>
       </c>
       <c r="O21" s="0">
         <v>0.2490971401</v>
@@ -4839,46 +4881,46 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.080301184349999999</v>
+        <v>-0.033056903900000004</v>
       </c>
       <c r="B22" s="0">
-        <v>0.11121237717499999</v>
+        <v>0.13222739649999998</v>
       </c>
       <c r="C22" s="0">
-        <v>0.20053681873250001</v>
+        <v>0.25876071813250001</v>
       </c>
       <c r="D22" s="0">
-        <v>0.253788400325</v>
+        <v>0.17645031512500001</v>
       </c>
       <c r="E22" s="0">
-        <v>0.117898349175</v>
+        <v>0.068040046849999994</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.0067020142349999961</v>
+        <v>0.022801158747500022</v>
       </c>
       <c r="G22" s="0">
-        <v>0.059401056890000012</v>
+        <v>0.055264579414999987</v>
       </c>
       <c r="H22" s="0">
-        <v>0.090873267039000005</v>
+        <v>0.20201232432499999</v>
       </c>
       <c r="I22" s="0">
-        <v>0.0022631391499999993</v>
+        <v>-0.18790690303000002</v>
       </c>
       <c r="J22" s="0">
-        <v>0.21009968102500001</v>
+        <v>0.075531473875000033</v>
       </c>
       <c r="K22" s="0">
-        <v>0.50044072319249999</v>
+        <v>0.24260847831749999</v>
       </c>
       <c r="L22" s="0">
-        <v>0.17705848755000003</v>
+        <v>0.35081492307500001</v>
       </c>
       <c r="M22" s="0">
-        <v>0.14616942355499998</v>
+        <v>0.20957440627500001</v>
       </c>
       <c r="N22" s="0">
-        <v>-0.12049259663499998</v>
+        <v>-0.4255602382525</v>
       </c>
       <c r="O22" s="0">
         <v>0.112254042</v>
@@ -5051,46 +5093,46 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.038742500723333295</v>
+        <v>-0.11002037890749997</v>
       </c>
       <c r="B23" s="0">
-        <v>0.005606001400000042</v>
+        <v>-0.10946152382499993</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.25072066682333333</v>
+        <v>-0.15824609894249997</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.24637354443333334</v>
+        <v>-0.24486593374999999</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.20972510433333333</v>
+        <v>-0.248654755915</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.064085606800000028</v>
+        <v>0.045719088324999976</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.00041695513333332251</v>
+        <v>0.116530773775</v>
       </c>
       <c r="H23" s="0">
-        <v>-0.14675637819999998</v>
+        <v>0.16196484917499998</v>
       </c>
       <c r="I23" s="0">
-        <v>-0.11856402789999999</v>
+        <v>0.045662827400000008</v>
       </c>
       <c r="J23" s="0">
-        <v>0.26910250366666666</v>
+        <v>0.427196960525</v>
       </c>
       <c r="K23" s="0">
-        <v>0.011863568666666676</v>
+        <v>-0.17484386297500001</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.25109867266166663</v>
+        <v>-0.048843675921249982</v>
       </c>
       <c r="M23" s="0">
-        <v>-0.55927359033333335</v>
+        <v>-0.42896263925</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.56220660633333341</v>
+        <v>-0.2210271268</v>
       </c>
       <c r="O23" s="0">
         <v>-0.77191658500000004</v>
@@ -5263,46 +5305,46 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.10948256708</v>
+        <v>0.087688065073999996</v>
       </c>
       <c r="B24" s="0">
-        <v>0.13888830173999997</v>
+        <v>0.19527510375999996</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.066237421699999979</v>
+        <v>-0.11387628632999995</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.14813689386000001</v>
+        <v>-0.076463564620000007</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.34964032880999996</v>
+        <v>-0.24955805672000003</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.33009275749599998</v>
+        <v>-0.25822150015600004</v>
       </c>
       <c r="G24" s="0">
-        <v>-0.267874583188</v>
+        <v>-0.148375357938</v>
       </c>
       <c r="H24" s="0">
-        <v>-0.109783591922</v>
+        <v>-0.067350574979999994</v>
       </c>
       <c r="I24" s="0">
-        <v>-0.15715466832399999</v>
+        <v>-0.12770510538000002</v>
       </c>
       <c r="J24" s="0">
-        <v>0.20344207060000002</v>
+        <v>0.31803754226000003</v>
       </c>
       <c r="K24" s="0">
-        <v>-0.079265349780000022</v>
+        <v>-0.23571865015600002</v>
       </c>
       <c r="L24" s="0">
-        <v>-0.039170010439999993</v>
+        <v>0.03926365154</v>
       </c>
       <c r="M24" s="0">
-        <v>-0.2497478494</v>
+        <v>0.052937947379999947</v>
       </c>
       <c r="N24" s="0">
-        <v>0.081565159547999991</v>
+        <v>0.25224296440800004</v>
       </c>
       <c r="O24" s="0">
         <v>0.39063300579999999</v>
@@ -5475,46 +5517,46 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.038499392198000006</v>
+        <v>-0.057871603007999997</v>
       </c>
       <c r="B25" s="0">
-        <v>0.073342423279999985</v>
+        <v>-0.016995184940000008</v>
       </c>
       <c r="C25" s="0">
-        <v>0.097716607004000006</v>
+        <v>0.046571644220000007</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.10004688246</v>
+        <v>-0.073619180787200006</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.043297388674000001</v>
+        <v>0.0044467418259999895</v>
       </c>
       <c r="F25" s="0">
-        <v>0.087156541693999987</v>
+        <v>0.05612596794799999</v>
       </c>
       <c r="G25" s="0">
-        <v>0.109150521236</v>
+        <v>0.096570202048000001</v>
       </c>
       <c r="H25" s="0">
-        <v>0.056874350393999996</v>
+        <v>-0.13907098204000001</v>
       </c>
       <c r="I25" s="0">
-        <v>-0.081188785966000002</v>
+        <v>-0.071342717390000004</v>
       </c>
       <c r="J25" s="0">
-        <v>0.37998423557999994</v>
+        <v>0.61419402425999992</v>
       </c>
       <c r="K25" s="0">
-        <v>0.40660311591399995</v>
+        <v>0.19056004823999997</v>
       </c>
       <c r="L25" s="0">
-        <v>-0.049990135681999996</v>
+        <v>-0.065161600180000015</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.21499274298599999</v>
+        <v>-0.137557216146</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.36169255513999998</v>
+        <v>-0.359419096577</v>
       </c>
       <c r="O25" s="0">
         <v>0.32989356390000002</v>
@@ -5687,46 +5729,46 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.061502550999999996</v>
+        <v>0.17203725540566664</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0067346224899999989</v>
+        <v>-0.067214371696666664</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.21923077198609997</v>
+        <v>-0.22101162248609998</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0085273242399999949</v>
+        <v>0.057973888306666665</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.12654775467666665</v>
+        <v>0.1139867047</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.41062985349999997</v>
+        <v>-0.052556858826666664</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.4066954079666667</v>
+        <v>-0.17377688443333331</v>
       </c>
       <c r="H26" s="0">
-        <v>-0.17251750024666668</v>
+        <v>0.087342603266666666</v>
       </c>
       <c r="I26" s="0">
-        <v>-0.32537496252333337</v>
+        <v>-0.22187831383333334</v>
       </c>
       <c r="J26" s="0">
-        <v>0.037885950533333351</v>
+        <v>0.097381060500000005</v>
       </c>
       <c r="K26" s="0">
-        <v>-0.65188641840000006</v>
+        <v>-0.5388650406333334</v>
       </c>
       <c r="L26" s="0">
-        <v>-0.35387869519999998</v>
+        <v>-0.23761272246666665</v>
       </c>
       <c r="M26" s="0">
-        <v>0.097853719126666669</v>
+        <v>0.11992216232666668</v>
       </c>
       <c r="N26" s="0">
-        <v>-0.39325813067333332</v>
+        <v>-0.2931636394333334</v>
       </c>
       <c r="O26" s="0">
         <v>-0.038188072500000003</v>
@@ -5899,46 +5941,46 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.26791140154999998</v>
+        <v>0.29944043465999998</v>
       </c>
       <c r="B27" s="0">
-        <v>0.27317585794999999</v>
+        <v>0.288097936838</v>
       </c>
       <c r="C27" s="0">
-        <v>0.25231569792499997</v>
+        <v>0.16833094124199999</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.15601855989999996</v>
+        <v>0.021596980564000008</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.30020843548999998</v>
+        <v>-0.16271049480200001</v>
       </c>
       <c r="F27" s="0">
-        <v>0.073465759132500003</v>
+        <v>0.10849871946</v>
       </c>
       <c r="G27" s="0">
-        <v>0.058305518022500002</v>
+        <v>0.14599948102999999</v>
       </c>
       <c r="H27" s="0">
-        <v>-0.092860258884999977</v>
+        <v>0.087052303092000002</v>
       </c>
       <c r="I27" s="0">
-        <v>0.33534835292249998</v>
+        <v>0.27856805691799996</v>
       </c>
       <c r="J27" s="0">
-        <v>0.10834539967499998</v>
+        <v>0.23887006429999999</v>
       </c>
       <c r="K27" s="0">
-        <v>-0.031301431540000008</v>
+        <v>0.010556934062000001</v>
       </c>
       <c r="L27" s="0">
-        <v>0.15127281110000002</v>
+        <v>0.20037119484799998</v>
       </c>
       <c r="M27" s="0">
-        <v>0.2165755597</v>
+        <v>0.29663563727999998</v>
       </c>
       <c r="N27" s="0">
-        <v>0.7588626394500001</v>
+        <v>0.32271441216000013</v>
       </c>
       <c r="O27" s="0">
         <v>-0.61454732560000003</v>
@@ -6111,46 +6153,46 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.028689984535999989</v>
+        <v>-0.033823513578000002</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.21070129789399999</v>
+        <v>-0.25812621938399999</v>
       </c>
       <c r="C28" s="0">
-        <v>0.039537089235999988</v>
+        <v>-0.053760139723999997</v>
       </c>
       <c r="D28" s="0">
-        <v>0.40224877119800001</v>
+        <v>0.32597440162199998</v>
       </c>
       <c r="E28" s="0">
-        <v>0.54202843669600009</v>
+        <v>0.48489055501639999</v>
       </c>
       <c r="F28" s="0">
-        <v>0.12840104280000003</v>
+        <v>0.088328900360000004</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.25117204594199993</v>
+        <v>-0.18361151815999999</v>
       </c>
       <c r="H28" s="0">
-        <v>-0.162105350334</v>
+        <v>-0.036130125094000001</v>
       </c>
       <c r="I28" s="0">
-        <v>0.18447391130899998</v>
+        <v>0.17379249702899999</v>
       </c>
       <c r="J28" s="0">
-        <v>0.090551505599999998</v>
+        <v>0.33099439459999996</v>
       </c>
       <c r="K28" s="0">
-        <v>0.001660866157999985</v>
+        <v>-0.050064153140000012</v>
       </c>
       <c r="L28" s="0">
-        <v>0.60506101535400003</v>
+        <v>0.50284914873999997</v>
       </c>
       <c r="M28" s="0">
-        <v>0.56499093984620008</v>
+        <v>0.41987915799600001</v>
       </c>
       <c r="N28" s="0">
-        <v>0.87886661916000008</v>
+        <v>0.61943214631999999</v>
       </c>
       <c r="O28" s="0">
         <v>-0.53172428230000002</v>
@@ -6323,46 +6365,46 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.37397472877999999</v>
+        <v>-0.091400380279999971</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.23062598612000004</v>
+        <v>0.0058064717399999742</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.12107479055799997</v>
+        <v>0.079600343239999954</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.17289518916800001</v>
+        <v>-0.094481037389999994</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.31030802378</v>
+        <v>-0.25079695500599997</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.35104926625599997</v>
+        <v>-0.25560215905599998</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.10892573714000001</v>
+        <v>0.0039948498200000236</v>
       </c>
       <c r="H29" s="0">
-        <v>0.20946705527399997</v>
+        <v>0.30851923015999994</v>
       </c>
       <c r="I29" s="0">
-        <v>-0.10746744653999998</v>
+        <v>0.03727285570000001</v>
       </c>
       <c r="J29" s="0">
-        <v>-0.24744084557999999</v>
+        <v>0.12774142342380004</v>
       </c>
       <c r="K29" s="0">
-        <v>-0.29621993306</v>
+        <v>0.03416853810000002</v>
       </c>
       <c r="L29" s="0">
-        <v>-0.42537753740000001</v>
+        <v>-0.24253909595999995</v>
       </c>
       <c r="M29" s="0">
-        <v>-0.28426003882</v>
+        <v>0.020558767619999984</v>
       </c>
       <c r="N29" s="0">
-        <v>-0.032476712520000041</v>
+        <v>0.24751499886</v>
       </c>
       <c r="O29" s="0">
         <v>0.168306397</v>
@@ -6535,46 +6577,46 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.10651011836799999</v>
+        <v>-0.0013062467260000019</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.25213483841399997</v>
+        <v>-0.15800831643999996</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.031291007305600006</v>
+        <v>0.13642850821640001</v>
       </c>
       <c r="D30" s="0">
-        <v>0.140643875438</v>
+        <v>0.24382758991200001</v>
       </c>
       <c r="E30" s="0">
-        <v>0.1443385009</v>
+        <v>0.15130186311999999</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.16326151867199998</v>
+        <v>-0.102582030866</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.24997396280199996</v>
+        <v>0.020548140500000003</v>
       </c>
       <c r="H30" s="0">
-        <v>-0.26821408975</v>
+        <v>-0.23961918616999997</v>
       </c>
       <c r="I30" s="0">
-        <v>-0.058169491050000008</v>
+        <v>-0.14211741688999999</v>
       </c>
       <c r="J30" s="0">
-        <v>0.51279745010200006</v>
+        <v>0.54190852245999999</v>
       </c>
       <c r="K30" s="0">
-        <v>0.064711638199999991</v>
+        <v>0.12465314105999999</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.13081929274399998</v>
+        <v>-0.18039960244</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.010847766560000005</v>
+        <v>0.11496523440000002</v>
       </c>
       <c r="N30" s="0">
-        <v>-0.08648935194259999</v>
+        <v>-0.14441535752859999</v>
       </c>
       <c r="O30" s="0">
         <v>0.076282387300000004</v>
@@ -6747,46 +6789,46 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.18929403533399999</v>
+        <v>0.193064483584</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.02976755403600001</v>
+        <v>0.061364293819999992</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.19097107003880001</v>
+        <v>-0.12605243900000002</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.019217983379999998</v>
+        <v>-0.069128421159999995</v>
       </c>
       <c r="E31" s="0">
-        <v>0.24995341966199999</v>
+        <v>0.22426172158200003</v>
       </c>
       <c r="F31" s="0">
-        <v>0.0045223151419999889</v>
+        <v>0.050123213202000007</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.24489715323199998</v>
+        <v>-0.17327028407199999</v>
       </c>
       <c r="H31" s="0">
-        <v>-0.023893723859199988</v>
+        <v>0.12155363132079999</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.029050380239999986</v>
+        <v>0.137744716854</v>
       </c>
       <c r="J31" s="0">
-        <v>-0.27623743516999999</v>
+        <v>-0.20687403882000002</v>
       </c>
       <c r="K31" s="0">
-        <v>0.091722231073999988</v>
+        <v>0.20231717007399999</v>
       </c>
       <c r="L31" s="0">
-        <v>-0.43078204609600002</v>
+        <v>-0.39963629393</v>
       </c>
       <c r="M31" s="0">
-        <v>-0.49073652460000006</v>
+        <v>-0.49243974567999993</v>
       </c>
       <c r="N31" s="0">
-        <v>-0.1783430017</v>
+        <v>-0.21421074264000001</v>
       </c>
       <c r="O31" s="0">
         <v>0.14248645030000001</v>
@@ -6959,46 +7001,46 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.005728990860000005</v>
+        <v>0.08971522752000001</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.082030839928000018</v>
+        <v>0.034465453411999983</v>
       </c>
       <c r="C32" s="0">
-        <v>-0.038060549759999993</v>
+        <v>-0.020950944560000007</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.069806715842000003</v>
+        <v>-0.098873206921999995</v>
       </c>
       <c r="E32" s="0">
-        <v>-0.10970503524000001</v>
+        <v>-0.18855626488000002</v>
       </c>
       <c r="F32" s="0">
-        <v>0.11441587527799997</v>
+        <v>0.091465008954000018</v>
       </c>
       <c r="G32" s="0">
-        <v>0.21854973391999999</v>
+        <v>0.30991722845999992</v>
       </c>
       <c r="H32" s="0">
-        <v>0.08608694057800001</v>
+        <v>0.13577960068600001</v>
       </c>
       <c r="I32" s="0">
-        <v>-0.092586001283999991</v>
+        <v>-0.16723437075999997</v>
       </c>
       <c r="J32" s="0">
-        <v>0.11103821818000001</v>
+        <v>-0.11794781273999999</v>
       </c>
       <c r="K32" s="0">
-        <v>-0.062579285620000022</v>
+        <v>0.082858502907999967</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.29370439743799998</v>
+        <v>-0.014170630878000013</v>
       </c>
       <c r="M32" s="0">
-        <v>-0.36632170084000004</v>
+        <v>-0.090932341760000007</v>
       </c>
       <c r="N32" s="0">
-        <v>0.050292093859999998</v>
+        <v>-0.042692337968000003</v>
       </c>
       <c r="O32" s="0">
         <v>-0.3213862965</v>
@@ -7171,46 +7213,46 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.18085321381000002</v>
+        <v>0.20303492680000002</v>
       </c>
       <c r="B33" s="0">
-        <v>0.065662611326000001</v>
+        <v>0.12717721064599999</v>
       </c>
       <c r="C33" s="0">
-        <v>0.1136400523</v>
+        <v>0.11013950952</v>
       </c>
       <c r="D33" s="0">
-        <v>0.16809706485799999</v>
+        <v>0.1046992231054</v>
       </c>
       <c r="E33" s="0">
-        <v>-0.063995554553999995</v>
+        <v>-0.17900876222000001</v>
       </c>
       <c r="F33" s="0">
-        <v>0.31252366030000001</v>
+        <v>0.22358832099999998</v>
       </c>
       <c r="G33" s="0">
-        <v>0.09058748849999998</v>
+        <v>0.031325757353999985</v>
       </c>
       <c r="H33" s="0">
-        <v>0.071823532219999972</v>
+        <v>0.070712789765999984</v>
       </c>
       <c r="I33" s="0">
-        <v>0.085392520860000015</v>
+        <v>0.091086998060000007</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.18316417239999999</v>
+        <v>-0.19810057690000002</v>
       </c>
       <c r="K33" s="0">
-        <v>0.082211160399999983</v>
+        <v>0.0085000701999999873</v>
       </c>
       <c r="L33" s="0">
-        <v>-0.036273980720000008</v>
+        <v>-0.094533778340000013</v>
       </c>
       <c r="M33" s="0">
-        <v>-0.12470805567999999</v>
+        <v>-0.175179095274</v>
       </c>
       <c r="N33" s="0">
-        <v>0.16765388352600002</v>
+        <v>0.1846103090448</v>
       </c>
       <c r="O33" s="0">
         <v>0.39874933950000002</v>
@@ -7383,46 +7425,46 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>-0.54677096920424995</v>
+        <v>-0.35925007757924998</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.5985452294000001</v>
+        <v>-0.35752895134999996</v>
       </c>
       <c r="C34" s="0">
-        <v>-0.40782255610000001</v>
+        <v>-0.27230387992499999</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.50940216969999996</v>
+        <v>-0.36355189137499999</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.43619735461499998</v>
+        <v>-0.32820696912750003</v>
       </c>
       <c r="F34" s="0">
-        <v>-0.75164104652999997</v>
+        <v>-0.54294600655500003</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.419181588725</v>
+        <v>-0.35887845892500003</v>
       </c>
       <c r="H34" s="0">
-        <v>-0.29570467302500003</v>
+        <v>-0.25031786042500004</v>
       </c>
       <c r="I34" s="0">
-        <v>-0.32780120554999997</v>
+        <v>-0.285542803475</v>
       </c>
       <c r="J34" s="0">
-        <v>-0.54224395904999989</v>
+        <v>-0.38474338694999999</v>
       </c>
       <c r="K34" s="0">
-        <v>-0.69523023451499999</v>
+        <v>-0.43676175131499995</v>
       </c>
       <c r="L34" s="0">
-        <v>-0.29591579060250001</v>
+        <v>-0.24998289270250001</v>
       </c>
       <c r="M34" s="0">
-        <v>-0.024114437024999991</v>
+        <v>-0.052092880649999992</v>
       </c>
       <c r="N34" s="0">
-        <v>-0.0087273348250000056</v>
+        <v>0.0068539014249999752</v>
       </c>
       <c r="O34" s="0">
         <v>0.048692091069999999</v>
@@ -7595,46 +7637,46 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.074979400594000017</v>
+        <v>0.020129675854000006</v>
       </c>
       <c r="B35" s="0">
-        <v>0.19727106428000002</v>
+        <v>0.14632524148000001</v>
       </c>
       <c r="C35" s="0">
-        <v>-0.125795220102</v>
+        <v>-0.077243311801999989</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.25635904096000001</v>
+        <v>-0.23714692851999999</v>
       </c>
       <c r="E35" s="0">
-        <v>-0.17787053095200001</v>
+        <v>-0.16584360741200002</v>
       </c>
       <c r="F35" s="0">
-        <v>-0.25095809863599999</v>
+        <v>-0.24220936485600003</v>
       </c>
       <c r="G35" s="0">
-        <v>-0.374184857466</v>
+        <v>-0.36584400378199999</v>
       </c>
       <c r="H35" s="0">
-        <v>-0.29607404372480001</v>
+        <v>-0.24522697784760003</v>
       </c>
       <c r="I35" s="0">
-        <v>-0.27262324618</v>
+        <v>-0.26046300008000001</v>
       </c>
       <c r="J35" s="0">
-        <v>-0.31937694002000006</v>
+        <v>-0.47311943306000004</v>
       </c>
       <c r="K35" s="0">
-        <v>0.19747158500599998</v>
+        <v>0.11677180276600004</v>
       </c>
       <c r="L35" s="0">
-        <v>-0.15653823258000002</v>
+        <v>-0.061456883480000016</v>
       </c>
       <c r="M35" s="0">
-        <v>-0.29411398825599999</v>
+        <v>-0.23597497063600006</v>
       </c>
       <c r="N35" s="0">
-        <v>-0.24475923397999999</v>
+        <v>-0.35420299483999995</v>
       </c>
       <c r="O35" s="0">
         <v>0.89730491710000004</v>
@@ -7807,46 +7849,46 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.053594512924000005</v>
+        <v>0.117302748772</v>
       </c>
       <c r="B36" s="0">
-        <v>-0.051124439947999999</v>
+        <v>-0.0015503879879999794</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.10861153241000002</v>
+        <v>-0.081452129310000024</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.051590851001999984</v>
+        <v>-0.054277724177999989</v>
       </c>
       <c r="E36" s="0">
-        <v>-0.0055875493440000088</v>
+        <v>-0.0047803994200000064</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.1199719526</v>
+        <v>-0.19843099515399998</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.095385099019999975</v>
+        <v>-0.15150074491999999</v>
       </c>
       <c r="H36" s="0">
-        <v>-0.048468316060000016</v>
+        <v>-0.053545915484000006</v>
       </c>
       <c r="I36" s="0">
-        <v>-0.08747142363999999</v>
+        <v>-0.10278602555999998</v>
       </c>
       <c r="J36" s="0">
-        <v>-0.20479173727200001</v>
+        <v>-0.21688113445999999</v>
       </c>
       <c r="K36" s="0">
-        <v>-0.177918725394</v>
+        <v>-0.22701909235399995</v>
       </c>
       <c r="L36" s="0">
-        <v>-0.081888546125999981</v>
+        <v>0.002668225276000019</v>
       </c>
       <c r="M36" s="0">
-        <v>-0.1897682389</v>
+        <v>-0.16840913613200001</v>
       </c>
       <c r="N36" s="0">
-        <v>-0.17704627574000004</v>
+        <v>-0.21790253456000003</v>
       </c>
       <c r="O36" s="0">
         <v>1.0403552680000001</v>
@@ -8019,46 +8061,46 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>-0.123288678008</v>
+        <v>-0.020438226721999991</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.13509402279999996</v>
+        <v>-0.088160376800000023</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.0037161644400000248</v>
+        <v>0.035657199179999995</v>
       </c>
       <c r="D37" s="0">
-        <v>0.18816483779400001</v>
+        <v>0.17113462232400001</v>
       </c>
       <c r="E37" s="0">
-        <v>0.57009511828000003</v>
+        <v>0.54162118468199993</v>
       </c>
       <c r="F37" s="0">
-        <v>-0.051863792402000009</v>
+        <v>-0.021164189140000012</v>
       </c>
       <c r="G37" s="0">
-        <v>-0.20156523131999998</v>
+        <v>-0.064409580279999989</v>
       </c>
       <c r="H37" s="0">
-        <v>-0.04156272663599999</v>
+        <v>0.066908666080000012</v>
       </c>
       <c r="I37" s="0">
-        <v>0.101651464796</v>
+        <v>0.11866461373600001</v>
       </c>
       <c r="J37" s="0">
-        <v>0.019772885900000047</v>
+        <v>0.075594560599999999</v>
       </c>
       <c r="K37" s="0">
-        <v>-0.20101067134199999</v>
+        <v>-0.13480392592000001</v>
       </c>
       <c r="L37" s="0">
-        <v>-0.10867540471999999</v>
+        <v>0.10275528476000004</v>
       </c>
       <c r="M37" s="0">
-        <v>-0.097842541519999965</v>
+        <v>0.12663197092</v>
       </c>
       <c r="N37" s="0">
-        <v>0.052459334680000011</v>
+        <v>-0.019712245400000005</v>
       </c>
       <c r="O37" s="0">
         <v>-1.3300000160000001</v>
@@ -8231,46 +8273,46 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>-0.18490965797999998</v>
+        <v>-0.18758877666400001</v>
       </c>
       <c r="B38" s="0">
-        <v>-0.49720951900600008</v>
+        <v>-0.50204360707400009</v>
       </c>
       <c r="C38" s="0">
-        <v>-0.29769711177999997</v>
+        <v>-0.22390297383800001</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.14834007681200001</v>
+        <v>-0.11444894375199999</v>
       </c>
       <c r="E38" s="0">
-        <v>0.033126141720000016</v>
+        <v>-0.010600877919999996</v>
       </c>
       <c r="F38" s="0">
-        <v>-0.32614679722000001</v>
+        <v>-0.24455398060000003</v>
       </c>
       <c r="G38" s="0">
-        <v>-0.51502502719999999</v>
+        <v>-0.44794963745999999</v>
       </c>
       <c r="H38" s="0">
-        <v>-0.18386410013999999</v>
+        <v>-0.17685460453999999</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.18432785714000005</v>
+        <v>-0.06197893472000001</v>
       </c>
       <c r="J38" s="0">
-        <v>-0.042545678419999997</v>
+        <v>-0.13220751725999999</v>
       </c>
       <c r="K38" s="0">
-        <v>-0.0019222708800000099</v>
+        <v>0.059086497679999982</v>
       </c>
       <c r="L38" s="0">
-        <v>-0.20804050969999999</v>
+        <v>-0.12013560134000001</v>
       </c>
       <c r="M38" s="0">
-        <v>-0.17834371498000001</v>
+        <v>-0.061392477010000002</v>
       </c>
       <c r="N38" s="0">
-        <v>-0.52360440539499997</v>
+        <v>-0.45588211167499998</v>
       </c>
       <c r="O38" s="0">
         <v>-0.76855981880000002</v>
@@ -8443,46 +8485,46 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>-0.079018746459999983</v>
+        <v>-0.15033045194</v>
       </c>
       <c r="B39" s="0">
-        <v>-0.022886230190000002</v>
+        <v>-0.13615428898199999</v>
       </c>
       <c r="C39" s="0">
-        <v>-0.42896224427999996</v>
+        <v>-0.45697631063999999</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.51894124325999991</v>
+        <v>-0.50261027347999998</v>
       </c>
       <c r="E39" s="0">
-        <v>-0.32413274662000002</v>
+        <v>-0.23099499526000003</v>
       </c>
       <c r="F39" s="0">
-        <v>-0.31939289542000004</v>
+        <v>-0.37680175271999999</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.45974004864000007</v>
+        <v>-0.53639258682000002</v>
       </c>
       <c r="H39" s="0">
-        <v>-0.05755932988000001</v>
+        <v>-0.047215754596000012</v>
       </c>
       <c r="I39" s="0">
-        <v>-0.15385719625800001</v>
+        <v>-0.09192417901399999</v>
       </c>
       <c r="J39" s="0">
-        <v>-1.019002661667</v>
+        <v>-0.94475652932699994</v>
       </c>
       <c r="K39" s="0">
-        <v>-0.14911125613999998</v>
+        <v>-0.31029580297999998</v>
       </c>
       <c r="L39" s="0">
-        <v>-0.190344388768</v>
+        <v>-0.27428360853999995</v>
       </c>
       <c r="M39" s="0">
-        <v>-0.0061762317999999759</v>
+        <v>-0.131666802331</v>
       </c>
       <c r="N39" s="0">
-        <v>-0.99760507659200004</v>
+        <v>-1.0177618120720002</v>
       </c>
       <c r="O39" s="0">
         <v>-0.55561698520000002</v>
@@ -8655,46 +8697,46 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.044546234977799991</v>
+        <v>-0.047774912694199992</v>
       </c>
       <c r="B40" s="0">
-        <v>-0.29239464002000004</v>
+        <v>-0.27345678286000002</v>
       </c>
       <c r="C40" s="0">
-        <v>-0.13813035779999999</v>
+        <v>-0.054516053460000012</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.20422547971999999</v>
+        <v>-0.042205363819999994</v>
       </c>
       <c r="E40" s="0">
-        <v>-0.090054571946</v>
+        <v>0.025761556963999992</v>
       </c>
       <c r="F40" s="0">
-        <v>-0.22317560879000001</v>
+        <v>-0.084355025907999995</v>
       </c>
       <c r="G40" s="0">
-        <v>-0.33288367110600003</v>
+        <v>-0.198232096926</v>
       </c>
       <c r="H40" s="0">
-        <v>-0.21254725280200004</v>
+        <v>-0.13314340427419999</v>
       </c>
       <c r="I40" s="0">
-        <v>0.092162932118000002</v>
+        <v>0.070944538880000005</v>
       </c>
       <c r="J40" s="0">
-        <v>-0.036085928449999999</v>
+        <v>0.23920981236000002</v>
       </c>
       <c r="K40" s="0">
-        <v>-0.17127703424000001</v>
+        <v>-0.11659070298</v>
       </c>
       <c r="L40" s="0">
-        <v>-0.21316700250000001</v>
+        <v>-0.1336074532</v>
       </c>
       <c r="M40" s="0">
-        <v>-0.080654440639999964</v>
+        <v>0.020135551660000008</v>
       </c>
       <c r="N40" s="0">
-        <v>0.088344273267999957</v>
+        <v>0.18638134097999998</v>
       </c>
       <c r="O40" s="0">
         <v>-0.63524519300000004</v>
@@ -8867,46 +8909,46 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.014646918958000004</v>
+        <v>-0.11553943983200002</v>
       </c>
       <c r="B41" s="0">
-        <v>0.023975867979999999</v>
+        <v>-0.016513766940000018</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.11087946754</v>
+        <v>-0.16030304783999999</v>
       </c>
       <c r="D41" s="0">
-        <v>0.25570558324200005</v>
+        <v>0.20642558550199999</v>
       </c>
       <c r="E41" s="0">
-        <v>0.33232963297999996</v>
+        <v>0.26118775142400003</v>
       </c>
       <c r="F41" s="0">
-        <v>-0.22363083304</v>
+        <v>-0.14483114455999999</v>
       </c>
       <c r="G41" s="0">
-        <v>-0.30044315072</v>
+        <v>-0.26813590310000002</v>
       </c>
       <c r="H41" s="0">
-        <v>-0.11066852115799999</v>
+        <v>-0.02783882096999999</v>
       </c>
       <c r="I41" s="0">
-        <v>0.038270254354000006</v>
+        <v>-0.0094402794259999864</v>
       </c>
       <c r="J41" s="0">
-        <v>-0.0073841153759999891</v>
+        <v>-0.088875264836000015</v>
       </c>
       <c r="K41" s="0">
-        <v>0.061246014652000004</v>
+        <v>-0.044379826428000001</v>
       </c>
       <c r="L41" s="0">
-        <v>0.25444388062000001</v>
+        <v>0.20590113221999995</v>
       </c>
       <c r="M41" s="0">
-        <v>0.66085313970000004</v>
+        <v>0.53280531071999992</v>
       </c>
       <c r="N41" s="0">
-        <v>0.43354971550800003</v>
+        <v>0.18939332462</v>
       </c>
       <c r="O41" s="0">
         <v>-0.67851346629999998</v>
@@ -9079,46 +9121,46 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.15737113942999997</v>
+        <v>0.12113643131999999</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.22468741876000001</v>
+        <v>-0.18007105027999998</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.245230211354</v>
+        <v>-0.24809576710800002</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.11540902335999999</v>
+        <v>-0.15508128764000001</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.014655163539999983</v>
+        <v>-0.014633498535999984</v>
       </c>
       <c r="F42" s="0">
-        <v>-0.28466592010000002</v>
+        <v>-0.22955073015999999</v>
       </c>
       <c r="G42" s="0">
-        <v>-0.48578625629999994</v>
+        <v>-0.40694614352000003</v>
       </c>
       <c r="H42" s="0">
-        <v>-0.38174187932600001</v>
+        <v>-0.35859854728599999</v>
       </c>
       <c r="I42" s="0">
-        <v>-0.14045863832799999</v>
+        <v>-0.22829600087999999</v>
       </c>
       <c r="J42" s="0">
-        <v>-0.094802570018000007</v>
+        <v>-0.10088468559800001</v>
       </c>
       <c r="K42" s="0">
-        <v>-0.4014472416</v>
+        <v>-0.36240913419999998</v>
       </c>
       <c r="L42" s="0">
-        <v>-0.76899879425999995</v>
+        <v>-0.66365998609999999</v>
       </c>
       <c r="M42" s="0">
-        <v>-0.33994679316600002</v>
+        <v>-0.095062715426000005</v>
       </c>
       <c r="N42" s="0">
-        <v>0.018784179240000042</v>
+        <v>0.040164483720000012</v>
       </c>
       <c r="O42" s="0">
         <v>0.40902775530000002</v>
@@ -9291,46 +9333,46 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.11767582183400001</v>
+        <v>-0.034937275578000006</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.031231405952000003</v>
+        <v>-0.031384948972000018</v>
       </c>
       <c r="C43" s="0">
-        <v>0.0089675025400000052</v>
+        <v>0.0073018513199999968</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.36005671962000002</v>
+        <v>-0.38595578246000006</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.42091038926000002</v>
+        <v>-0.47001995701200006</v>
       </c>
       <c r="F43" s="0">
-        <v>-0.33935783410000003</v>
+        <v>-0.31933119071999999</v>
       </c>
       <c r="G43" s="0">
-        <v>-0.56481906104000001</v>
+        <v>-0.60622347072000005</v>
       </c>
       <c r="H43" s="0">
-        <v>-0.2834701668704</v>
+        <v>-0.29719808275639997</v>
       </c>
       <c r="I43" s="0">
-        <v>-0.31148566309000003</v>
+        <v>-0.33462671760000001</v>
       </c>
       <c r="J43" s="0">
-        <v>-0.79601889609999998</v>
+        <v>-0.69106108991600002</v>
       </c>
       <c r="K43" s="0">
-        <v>0.17617025812000001</v>
+        <v>0.30596330999800003</v>
       </c>
       <c r="L43" s="0">
-        <v>0.19315178982800002</v>
+        <v>0.25743173865199998</v>
       </c>
       <c r="M43" s="0">
-        <v>0.32879459943800005</v>
+        <v>0.44641769201999998</v>
       </c>
       <c r="N43" s="0">
-        <v>-0.54788160254000007</v>
+        <v>-0.42397699479999995</v>
       </c>
       <c r="O43" s="0">
         <v>-0.1140072796</v>
@@ -9503,46 +9545,46 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>-0.11181660149999999</v>
+        <v>-0.14421764296</v>
       </c>
       <c r="B44" s="0">
-        <v>0.050752564259999987</v>
+        <v>-0.066009835320000002</v>
       </c>
       <c r="C44" s="0">
-        <v>-0.066731687711999998</v>
+        <v>-0.20255282535739999</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.149339296058</v>
+        <v>-0.20009967328758402</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.038807868016000002</v>
+        <v>-0.078726020584000023</v>
       </c>
       <c r="F44" s="0">
-        <v>-0.28066726425999999</v>
+        <v>-0.42536925519999996</v>
       </c>
       <c r="G44" s="0">
-        <v>-0.34608858147999999</v>
+        <v>-0.47581175624000005</v>
       </c>
       <c r="H44" s="0">
-        <v>-0.14239684300399999</v>
+        <v>-0.33187867704399998</v>
       </c>
       <c r="I44" s="0">
-        <v>0.019098441838000014</v>
+        <v>-0.18985314486800003</v>
       </c>
       <c r="J44" s="0">
-        <v>-0.18115622937999998</v>
+        <v>-0.17516072700000002</v>
       </c>
       <c r="K44" s="0">
-        <v>-0.22152001823799999</v>
+        <v>-0.28256739239799999</v>
       </c>
       <c r="L44" s="0">
-        <v>-0.31678882654039997</v>
+        <v>-0.41781996007</v>
       </c>
       <c r="M44" s="0">
-        <v>-0.56806312442000007</v>
+        <v>-0.72730444967999996</v>
       </c>
       <c r="N44" s="0">
-        <v>0.39719347349999995</v>
+        <v>0.18242612131999997</v>
       </c>
       <c r="O44" s="0">
         <v>-0.56576498959999999</v>
@@ -9715,46 +9757,46 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.014861940050000005</v>
+        <v>-0.28311872451999998</v>
       </c>
       <c r="B45" s="0">
-        <v>0.30429007131999997</v>
+        <v>-0.19385977994</v>
       </c>
       <c r="C45" s="0">
-        <v>-0.0822687577</v>
+        <v>-0.47031911627999995</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.35113573510399998</v>
+        <v>-0.41271027149999995</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.26370171232</v>
+        <v>-0.33583802224000003</v>
       </c>
       <c r="F45" s="0">
-        <v>-0.34322616180600002</v>
+        <v>-0.41460814736599999</v>
       </c>
       <c r="G45" s="0">
-        <v>0.19752038448000001</v>
+        <v>-0.11477683545999998</v>
       </c>
       <c r="H45" s="0">
-        <v>0.083051227411999981</v>
+        <v>-0.16016235554980002</v>
       </c>
       <c r="I45" s="0">
-        <v>0.025882105450000005</v>
+        <v>-0.12256230025720001</v>
       </c>
       <c r="J45" s="0">
-        <v>0.23845059935999999</v>
+        <v>-0.11173609242999998</v>
       </c>
       <c r="K45" s="0">
-        <v>0.038245261639999986</v>
+        <v>-0.37901456923999999</v>
       </c>
       <c r="L45" s="0">
-        <v>0.020005150229999998</v>
+        <v>-0.40273681481000001</v>
       </c>
       <c r="M45" s="0">
-        <v>0.089117965899999957</v>
+        <v>-0.23900765176</v>
       </c>
       <c r="N45" s="0">
-        <v>-0.055650307500000017</v>
+        <v>-0.26143251907999998</v>
       </c>
       <c r="O45" s="0">
         <v>0.23920347259999999</v>
@@ -9927,46 +9969,46 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.28740094507499997</v>
+        <v>-0.38131183334999996</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.33726335755000003</v>
+        <v>-0.38053189077500005</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.23469229642249997</v>
+        <v>-0.36060697134749997</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.34922469569999998</v>
+        <v>-0.42822553002249997</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.20184690566750005</v>
+        <v>-0.22377429700000007</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.36828665354999995</v>
+        <v>-0.43017204858499997</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.48221606247500004</v>
+        <v>-0.68311115227499997</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.61026974313500004</v>
+        <v>-0.66241110757499999</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.2863100515525</v>
+        <v>-0.35536800525250001</v>
       </c>
       <c r="J46" s="0">
-        <v>-0.52488054465</v>
+        <v>-0.62591132362500002</v>
       </c>
       <c r="K46" s="0">
-        <v>-0.048613286894999996</v>
+        <v>-0.051409512970000001</v>
       </c>
       <c r="L46" s="0">
-        <v>-0.22561817082499996</v>
+        <v>-0.32196636612749996</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.12543797039499999</v>
+        <v>-0.36198335654500002</v>
       </c>
       <c r="N46" s="0">
-        <v>-0.37853253183249996</v>
+        <v>-0.29786746042499995</v>
       </c>
       <c r="O46" s="0">
         <v>1.911679589</v>
@@ -10139,46 +10181,46 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.15701511676999996</v>
+        <v>0.067510972089999982</v>
       </c>
       <c r="B47" s="0">
-        <v>0.067622035739999961</v>
+        <v>-0.0039279128599999606</v>
       </c>
       <c r="C47" s="0">
-        <v>0.319473473048</v>
+        <v>0.29138508644799999</v>
       </c>
       <c r="D47" s="0">
-        <v>0.084836738652000004</v>
+        <v>0.093544801491999993</v>
       </c>
       <c r="E47" s="0">
-        <v>0.17426618428239998</v>
+        <v>0.21028834938240001</v>
       </c>
       <c r="F47" s="0">
-        <v>0.090303468720000002</v>
+        <v>0.14709988901999999</v>
       </c>
       <c r="G47" s="0">
-        <v>0.056006818485999997</v>
+        <v>0.036162632126000016</v>
       </c>
       <c r="H47" s="0">
-        <v>-0.085058423571999997</v>
+        <v>-0.045483504520000016</v>
       </c>
       <c r="I47" s="0">
-        <v>0.010710264979999985</v>
+        <v>-0.021869206440000032</v>
       </c>
       <c r="J47" s="0">
-        <v>0.22257114560399999</v>
+        <v>0.31825516374399998</v>
       </c>
       <c r="K47" s="0">
-        <v>0.54205924492400004</v>
+        <v>0.55199362394399998</v>
       </c>
       <c r="L47" s="0">
-        <v>0.22024200992400003</v>
+        <v>0.18484945250399998</v>
       </c>
       <c r="M47" s="0">
-        <v>0.39186679132000002</v>
+        <v>0.36337720083800001</v>
       </c>
       <c r="N47" s="0">
-        <v>0.27048909692000001</v>
+        <v>0.22168333071999999</v>
       </c>
       <c r="O47" s="0">
         <v>0.24858040619999999</v>
@@ -10351,46 +10393,46 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.027729544700000011</v>
+        <v>0.1192017405375</v>
       </c>
       <c r="B48" s="0">
-        <v>0.43302776477499999</v>
+        <v>0.46704155429999999</v>
       </c>
       <c r="C48" s="0">
-        <v>0.29206992929999998</v>
+        <v>0.32639867357499996</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.15221269739000004</v>
+        <v>-0.10151888002500002</v>
       </c>
       <c r="E48" s="0">
-        <v>0.019977268100000001</v>
+        <v>0.029157586100000001</v>
       </c>
       <c r="F48" s="0">
-        <v>-0.18990660947499999</v>
+        <v>-0.12404271677500001</v>
       </c>
       <c r="G48" s="0">
-        <v>-0.037314220450000005</v>
+        <v>0.046098353525000003</v>
       </c>
       <c r="H48" s="0">
-        <v>-0.15351002766749999</v>
+        <v>-0.070288148242500001</v>
       </c>
       <c r="I48" s="0">
-        <v>-0.065363476562499995</v>
+        <v>-0.080673496862499999</v>
       </c>
       <c r="J48" s="0">
-        <v>0.47497321939999992</v>
+        <v>0.27577553870499993</v>
       </c>
       <c r="K48" s="0">
-        <v>0.56297257725000005</v>
+        <v>0.46407791895000006</v>
       </c>
       <c r="L48" s="0">
-        <v>0.3292233215</v>
+        <v>0.30246651675000003</v>
       </c>
       <c r="M48" s="0">
-        <v>0.17086341034750002</v>
+        <v>0.063259249172500004</v>
       </c>
       <c r="N48" s="0">
-        <v>-0.073844130872499983</v>
+        <v>-0.23341596807499998</v>
       </c>
       <c r="O48" s="0">
         <v>-0.2301575163</v>
@@ -10563,46 +10605,46 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.33639749337500002</v>
+        <v>0.48825088682500001</v>
       </c>
       <c r="B49" s="0">
-        <v>0.71485658242499994</v>
+        <v>0.8556453691</v>
       </c>
       <c r="C49" s="0">
-        <v>0.68865235725000007</v>
+        <v>0.81225627452500004</v>
       </c>
       <c r="D49" s="0">
-        <v>0.043577553472500009</v>
+        <v>0.10958469512750001</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.29535256495000001</v>
+        <v>-0.22319464965000002</v>
       </c>
       <c r="F49" s="0">
-        <v>0.17229771820000001</v>
+        <v>0.2301852367625</v>
       </c>
       <c r="G49" s="0">
-        <v>0.16707570667500002</v>
+        <v>0.236380156585</v>
       </c>
       <c r="H49" s="0">
-        <v>0.20399600975500001</v>
+        <v>0.24284041971000001</v>
       </c>
       <c r="I49" s="0">
-        <v>0.15170704245</v>
+        <v>0.30609122333</v>
       </c>
       <c r="J49" s="0">
-        <v>-0.12749859107499997</v>
+        <v>-0.10900876447499999</v>
       </c>
       <c r="K49" s="0">
-        <v>0.55131213229999998</v>
+        <v>0.64155743944999999</v>
       </c>
       <c r="L49" s="0">
-        <v>0.41982698689999998</v>
+        <v>0.55981476122499996</v>
       </c>
       <c r="M49" s="0">
-        <v>0.43289232827500002</v>
+        <v>0.57648819085000003</v>
       </c>
       <c r="N49" s="0">
-        <v>0.51729593137499996</v>
+        <v>0.71320756837499999</v>
       </c>
       <c r="O49" s="0">
         <v>0.53844279559999997</v>
@@ -10775,46 +10817,46 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.011674378651999981</v>
+        <v>0.086214301759999987</v>
       </c>
       <c r="B50" s="0">
-        <v>0.13472475465600003</v>
+        <v>0.017952469262000007</v>
       </c>
       <c r="C50" s="0">
-        <v>-0.026821156041999999</v>
+        <v>-0.078648235499999997</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.133557534472</v>
+        <v>-0.029776638856000015</v>
       </c>
       <c r="E50" s="0">
-        <v>0.13531035669159999</v>
+        <v>0.18461490553160001</v>
       </c>
       <c r="F50" s="0">
-        <v>0.14565291427200006</v>
+        <v>0.047098018239999997</v>
       </c>
       <c r="G50" s="0">
-        <v>0.083215789200000015</v>
+        <v>0.081067229720000036</v>
       </c>
       <c r="H50" s="0">
-        <v>-0.073667310434000016</v>
+        <v>-0.018877567961999984</v>
       </c>
       <c r="I50" s="0">
-        <v>-0.26664220623000001</v>
+        <v>-0.081552344020000028</v>
       </c>
       <c r="J50" s="0">
-        <v>0.059268956219999946</v>
+        <v>0.08492152484200001</v>
       </c>
       <c r="K50" s="0">
-        <v>0.081405785344000017</v>
+        <v>-0.040229142596000009</v>
       </c>
       <c r="L50" s="0">
-        <v>0.026916678077999988</v>
+        <v>0.14214023853800001</v>
       </c>
       <c r="M50" s="0">
-        <v>0.14716759924</v>
+        <v>0.31319975821999996</v>
       </c>
       <c r="N50" s="0">
-        <v>-0.098824155343</v>
+        <v>0.12814766079999998</v>
       </c>
       <c r="O50" s="0">
         <v>0.3814151717</v>
@@ -10987,46 +11029,46 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.21272562366499997</v>
+        <v>0.19925977918999999</v>
       </c>
       <c r="B51" s="0">
-        <v>0.42826608150000001</v>
+        <v>0.41845515750000001</v>
       </c>
       <c r="C51" s="0">
-        <v>0.090019118049999958</v>
+        <v>0.1428296838</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.13966105214999999</v>
+        <v>-0.0056951915749999804</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.3603883536875</v>
+        <v>-0.11178035683750004</v>
       </c>
       <c r="F51" s="0">
-        <v>0.12546245485000002</v>
+        <v>0.065622672349999994</v>
       </c>
       <c r="G51" s="0">
-        <v>0.34769727454999999</v>
+        <v>0.15276664044999999</v>
       </c>
       <c r="H51" s="0">
-        <v>0.49760958852499998</v>
+        <v>0.41639153237499998</v>
       </c>
       <c r="I51" s="0">
-        <v>-0.20305184069999999</v>
+        <v>-0.13126112307499999</v>
       </c>
       <c r="J51" s="0">
-        <v>0.94225027915750004</v>
+        <v>1.0426522544825001</v>
       </c>
       <c r="K51" s="0">
-        <v>0.091124855128750015</v>
+        <v>0.16470430537875003</v>
       </c>
       <c r="L51" s="0">
-        <v>-0.025908035024999998</v>
+        <v>-0.028967803474999998</v>
       </c>
       <c r="M51" s="0">
-        <v>-0.35865630387499997</v>
+        <v>-0.35602491817499998</v>
       </c>
       <c r="N51" s="0">
-        <v>-0.015729159775000057</v>
+        <v>-0.22564121790000005</v>
       </c>
       <c r="O51" s="0">
         <v>-1.1064945479999999</v>
@@ -11199,46 +11241,46 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>-0.37221578426250002</v>
+        <v>-0.33944208357500005</v>
       </c>
       <c r="B52" s="0">
-        <v>-0.48136101325000002</v>
+        <v>-0.37496392201000006</v>
       </c>
       <c r="C52" s="0">
-        <v>-0.28055194304999997</v>
+        <v>-0.21503238149999998</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.1036324765</v>
+        <v>-0.056997943149999994</v>
       </c>
       <c r="E52" s="0">
-        <v>-0.58973498704999994</v>
+        <v>-0.54724176707499994</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.34279825207999998</v>
+        <v>-0.37307445172999998</v>
       </c>
       <c r="G52" s="0">
-        <v>-0.37953383694999998</v>
+        <v>-0.3802512442</v>
       </c>
       <c r="H52" s="0">
-        <v>-0.25524038388499998</v>
+        <v>-0.23085439183500001</v>
       </c>
       <c r="I52" s="0">
-        <v>-0.27933938784750001</v>
+        <v>-0.2921029187975</v>
       </c>
       <c r="J52" s="0">
-        <v>-0.1789779808885</v>
+        <v>-0.12852842582999999</v>
       </c>
       <c r="K52" s="0">
-        <v>-0.18660666046250002</v>
+        <v>-0.097861164187499988</v>
       </c>
       <c r="L52" s="0">
-        <v>-0.41995574885999998</v>
+        <v>-0.57045648527500004</v>
       </c>
       <c r="M52" s="0">
-        <v>-0.37914366264749999</v>
+        <v>-0.22761625132249996</v>
       </c>
       <c r="N52" s="0">
-        <v>-0.50769239557500001</v>
+        <v>-0.58981100387500007</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -13,7 +13,1225 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -429,46 +1647,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>490</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>491</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>492</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>493</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>494</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>495</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>496</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>497</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>498</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>93</v>
+        <v>499</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>94</v>
+        <v>500</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>95</v>
+        <v>501</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>96</v>
+        <v>502</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>97</v>
+        <v>503</v>
       </c>
       <c r="O1" s="0">
         <v>-0.36030029759999999</v>

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -13,7 +13,301 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -1574,19 +1868,19 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
-    <col min="3" max="3" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="14.7109375" customWidth="true"/>
-    <col min="6" max="6" width="14.42578125" customWidth="true"/>
-    <col min="7" max="7" width="14.7109375" customWidth="true"/>
-    <col min="8" max="8" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="15.42578125" customWidth="true"/>
+    <col min="7" max="7" width="14.42578125" customWidth="true"/>
+    <col min="8" max="8" width="15.42578125" customWidth="true"/>
     <col min="9" max="9" width="15.42578125" customWidth="true"/>
     <col min="10" max="10" width="14.42578125" customWidth="true"/>
-    <col min="11" max="11" width="14.42578125" customWidth="true"/>
+    <col min="11" max="11" width="14.7109375" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
-    <col min="14" max="14" width="14.7109375" customWidth="true"/>
+    <col min="14" max="14" width="14.42578125" customWidth="true"/>
     <col min="15" max="15" width="14.42578125" customWidth="true"/>
     <col min="16" max="16" width="15.42578125" customWidth="true"/>
     <col min="17" max="17" width="15.42578125" customWidth="true"/>
@@ -1647,46 +1941,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>490</v>
+        <v>588</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>491</v>
+        <v>589</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>492</v>
+        <v>590</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>493</v>
+        <v>591</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>494</v>
+        <v>592</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>495</v>
+        <v>593</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>496</v>
+        <v>594</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>497</v>
+        <v>595</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>498</v>
+        <v>596</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>500</v>
+        <v>598</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>501</v>
+        <v>599</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>502</v>
+        <v>600</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>503</v>
+        <v>601</v>
       </c>
       <c r="O1" s="0">
         <v>-0.36030029759999999</v>
@@ -1859,46 +2153,46 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.17404947509500002</v>
+        <v>-0.063339606725000025</v>
       </c>
       <c r="B2" s="0">
-        <v>0.098749061035000002</v>
+        <v>0.0056187006749999768</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.052212924644999999</v>
+        <v>0.070126625054999989</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.021883959077500001</v>
+        <v>0.00037497279999998412</v>
       </c>
       <c r="E2" s="0">
-        <v>0.041203313919999998</v>
+        <v>0.082438606499999997</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.045271061934999995</v>
+        <v>-0.098252209044999997</v>
       </c>
       <c r="G2" s="0">
-        <v>0.1484613273075</v>
+        <v>-0.17124169665</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.10187551697699999</v>
+        <v>-0.11586068652499999</v>
       </c>
       <c r="I2" s="0">
-        <v>0.024551287557250008</v>
+        <v>0.020342380639999991</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.74635415267500005</v>
+        <v>0.10533918912500001</v>
       </c>
       <c r="K2" s="0">
-        <v>0.15934744287499999</v>
+        <v>-0.0045996491000000125</v>
       </c>
       <c r="L2" s="0">
-        <v>0.16259734787749999</v>
+        <v>-0.039205498547499995</v>
       </c>
       <c r="M2" s="0">
-        <v>0.049747595950000008</v>
+        <v>0.015872804535000007</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.15645782475</v>
+        <v>-0.1236102826475</v>
       </c>
       <c r="O2" s="0">
         <v>-2.2181104129999998</v>
@@ -2071,46 +2365,46 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.177608158352</v>
+        <v>-0.12190965093999999</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.31965428096000004</v>
+        <v>-0.46303203731999998</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.44395674948000002</v>
+        <v>-0.59417880265999989</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.17819079336400001</v>
+        <v>-0.28341996178000001</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.42045410224000002</v>
+        <v>-0.42311957725999993</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.74546986727999998</v>
+        <v>-0.59991508543999994</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.29959097899999998</v>
+        <v>-0.33110076925399995</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.081749090787999995</v>
+        <v>-0.279990904032</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.4965314493800001</v>
+        <v>-0.53784157962000001</v>
       </c>
       <c r="J3" s="0">
-        <v>0.36309151909999998</v>
+        <v>-0.13308069155999999</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.87656137640400011</v>
+        <v>-0.85872295828799994</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.47075110990599994</v>
+        <v>-0.47800881804599998</v>
       </c>
       <c r="M3" s="0">
-        <v>0.017875184925999932</v>
+        <v>-0.0073792004800000031</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.61045343340000002</v>
+        <v>-0.40698323407399994</v>
       </c>
       <c r="O3" s="0">
         <v>2.209751169</v>
@@ -2283,46 +2577,46 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.014483754904000007</v>
+        <v>-0.045824388798000007</v>
       </c>
       <c r="B4" s="0">
-        <v>0.086456085120000026</v>
+        <v>0.13406402436599998</v>
       </c>
       <c r="C4" s="0">
-        <v>0.42552011843599996</v>
+        <v>0.43079300396000003</v>
       </c>
       <c r="D4" s="0">
-        <v>0.18113726774</v>
+        <v>0.21442424582</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.06298730542</v>
+        <v>0.13417337153999997</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.06727547456000002</v>
+        <v>0.071190644160000011</v>
       </c>
       <c r="G4" s="0">
-        <v>0.085721532156399993</v>
+        <v>0.095871614999999993</v>
       </c>
       <c r="H4" s="0">
-        <v>0.22191534698800003</v>
+        <v>0.16366998540399999</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.026372654596000005</v>
+        <v>-0.11928051776599999</v>
       </c>
       <c r="J4" s="0">
-        <v>0.28991432420800001</v>
+        <v>0.71292516303200004</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.083234223020000012</v>
+        <v>0.17918962581600001</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.49167504645999999</v>
+        <v>-0.066781175120000022</v>
       </c>
       <c r="M4" s="0">
-        <v>-0.39214274555</v>
+        <v>-0.41402743800399999</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.56042485312000001</v>
+        <v>-0.066676969814000023</v>
       </c>
       <c r="O4" s="0">
         <v>0.4165435166</v>
@@ -2495,46 +2789,46 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.034408589239999975</v>
+        <v>0.079834165280000022</v>
       </c>
       <c r="B5" s="0">
-        <v>0.022381938406000002</v>
+        <v>-0.030615445252000002</v>
       </c>
       <c r="C5" s="0">
-        <v>0.059936688904000002</v>
+        <v>0.080349093698000001</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.143475222988</v>
+        <v>-0.21639967577999997</v>
       </c>
       <c r="E5" s="0">
-        <v>0.043798379836000004</v>
+        <v>-0.16443188285999999</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.17804600139400001</v>
+        <v>-0.100729576444</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.28971948063999997</v>
+        <v>-0.22600571549000001</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.2396612455214</v>
+        <v>-0.10736519503399999</v>
       </c>
       <c r="I5" s="0">
-        <v>0.10844125808000001</v>
+        <v>0.23355627250799998</v>
       </c>
       <c r="J5" s="0">
-        <v>0.38858298976000005</v>
+        <v>-0.12552637855999998</v>
       </c>
       <c r="K5" s="0">
-        <v>0.22564394052</v>
+        <v>0.016963570693999973</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.13084269542000002</v>
+        <v>-0.24596928686800004</v>
       </c>
       <c r="M5" s="0">
-        <v>0.18659904059999999</v>
+        <v>-0.21830422014</v>
       </c>
       <c r="N5" s="0">
-        <v>0.31384271154000004</v>
+        <v>0.018413177660000012</v>
       </c>
       <c r="O5" s="0">
         <v>0.041952293760000002</v>
@@ -2707,46 +3001,46 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.27231863468</v>
+        <v>0.12028841264000001</v>
       </c>
       <c r="B6" s="0">
-        <v>0.14390450374000002</v>
+        <v>0.17989594587399999</v>
       </c>
       <c r="C6" s="0">
-        <v>0.18977620054000002</v>
+        <v>0.030171364080000002</v>
       </c>
       <c r="D6" s="0">
-        <v>0.21858967148200001</v>
+        <v>0.15921456703999998</v>
       </c>
       <c r="E6" s="0">
-        <v>0.30994357175999998</v>
+        <v>0.13157698256</v>
       </c>
       <c r="F6" s="0">
-        <v>0.41538343073600004</v>
+        <v>0.15834647248199998</v>
       </c>
       <c r="G6" s="0">
-        <v>0.36875111675399996</v>
+        <v>0.073738345043999995</v>
       </c>
       <c r="H6" s="0">
-        <v>0.20267146704</v>
+        <v>0.028964570059999993</v>
       </c>
       <c r="I6" s="0">
-        <v>0.40251759771200002</v>
+        <v>0.17437361516800004</v>
       </c>
       <c r="J6" s="0">
-        <v>0.40471625038000003</v>
+        <v>0.33913502043999999</v>
       </c>
       <c r="K6" s="0">
-        <v>0.64140013220000003</v>
+        <v>0.30980127984</v>
       </c>
       <c r="L6" s="0">
-        <v>0.473795503708</v>
+        <v>-0.047457468540000013</v>
       </c>
       <c r="M6" s="0">
-        <v>0.39757241627999995</v>
+        <v>-0.033072042268000021</v>
       </c>
       <c r="N6" s="0">
-        <v>0.42826639035999997</v>
+        <v>0.040338870062000008</v>
       </c>
       <c r="O6" s="0">
         <v>0.36606569439999997</v>
@@ -2919,46 +3213,46 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1744265710198</v>
+        <v>0.13818495780599999</v>
       </c>
       <c r="B7" s="0">
-        <v>0.11384394562</v>
+        <v>-0.038006980760000017</v>
       </c>
       <c r="C7" s="0">
-        <v>0.28769072663800005</v>
+        <v>-0.030096002392000009</v>
       </c>
       <c r="D7" s="0">
-        <v>0.34878457983999994</v>
+        <v>0.11172677316200001</v>
       </c>
       <c r="E7" s="0">
-        <v>0.29329104062599998</v>
+        <v>0.097819106185999996</v>
       </c>
       <c r="F7" s="0">
-        <v>0.20744567753999998</v>
+        <v>-0.035761677740000011</v>
       </c>
       <c r="G7" s="0">
-        <v>0.30061399002399997</v>
+        <v>0.22919954025799999</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.099158271153999999</v>
+        <v>-0.030874216828000001</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.14719920126199998</v>
+        <v>-0.13258873458939999</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.14948484796</v>
+        <v>-0.29615941386</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.034069555519999982</v>
+        <v>0.12004163473999999</v>
       </c>
       <c r="L7" s="0">
-        <v>0.53002413195999998</v>
+        <v>0.56145281205999997</v>
       </c>
       <c r="M7" s="0">
-        <v>0.28765590342000003</v>
+        <v>0.34587157874000002</v>
       </c>
       <c r="N7" s="0">
-        <v>0.17049336030000001</v>
+        <v>0.23989430183999999</v>
       </c>
       <c r="O7" s="0">
         <v>-0.56850860540000003</v>
@@ -3131,46 +3425,46 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.29663124048060002</v>
+        <v>-0.25812746972000006</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.26110560478</v>
+        <v>-0.31047272140800003</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.38017037870800002</v>
+        <v>-0.32600955568399997</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.25578792806</v>
+        <v>-0.2181308558</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.43300434882000005</v>
+        <v>-0.36999648281999997</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.35198882339999998</v>
+        <v>-0.23553738172000002</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.18113076379999998</v>
+        <v>-0.10206985449999997</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.073132766512</v>
+        <v>-0.060795018731999974</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.40158205015800003</v>
+        <v>-0.26911498443999998</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.61921312468000012</v>
+        <v>-0.6378362942000001</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.60844717689799999</v>
+        <v>-0.17668098184000006</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.74423678969200002</v>
+        <v>-0.46186076710000001</v>
       </c>
       <c r="M8" s="0">
-        <v>-0.66449311039999992</v>
+        <v>-0.53706566469999995</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.75392620345000005</v>
+        <v>-0.44322106512000004</v>
       </c>
       <c r="O8" s="0">
         <v>0.26118116409999997</v>
@@ -3343,46 +3637,46 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.070539696499999985</v>
+        <v>-0.20173030602200001</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.16889839997600001</v>
+        <v>-0.33968921131800001</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.16862712888</v>
+        <v>-0.37334272004000002</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.33146564270000001</v>
+        <v>-0.50012880447200003</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.31766842724</v>
+        <v>-0.48329482229999998</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.19598277952400001</v>
+        <v>-0.32665765836740002</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.10318859494000002</v>
+        <v>-0.28207584038800004</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.13131904179199999</v>
+        <v>-0.35115810149999999</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.016564598340000024</v>
+        <v>-0.12383451748400001</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.35529358865999999</v>
+        <v>-1.3289792353199998</v>
       </c>
       <c r="K9" s="0">
-        <v>0.52910316609399999</v>
+        <v>0.031684692393999993</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.19582983298000003</v>
+        <v>-0.62753735571199987</v>
       </c>
       <c r="M9" s="0">
-        <v>0.38343070678399999</v>
+        <v>0.11758126501999999</v>
       </c>
       <c r="N9" s="0">
-        <v>0.133275924096</v>
+        <v>-0.93030675343199998</v>
       </c>
       <c r="O9" s="0">
         <v>1.475594625</v>
@@ -3555,46 +3849,46 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.17972466768799999</v>
+        <v>-0.17051830381999999</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.33269725926139998</v>
+        <v>-0.31427215454000001</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.32881310416000004</v>
+        <v>-0.073678214293999983</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.10159357506000002</v>
+        <v>0.15677092089799999</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.14540198377999997</v>
+        <v>0.28213276747999999</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.094309082819999987</v>
+        <v>0.16179615259999997</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.40107503800800004</v>
+        <v>-0.23851159348000001</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.46186175309999999</v>
+        <v>-0.47654944458799997</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.35113355079999997</v>
+        <v>-0.11025240354480001</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.13018344653799999</v>
+        <v>-0.00052285252000000559</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.17003140795999999</v>
+        <v>0.0062406214059999993</v>
       </c>
       <c r="L10" s="0">
-        <v>-0.36235347103800003</v>
+        <v>-0.24845772578799999</v>
       </c>
       <c r="M10" s="0">
-        <v>-0.13115113688999999</v>
+        <v>-0.15683255282</v>
       </c>
       <c r="N10" s="0">
-        <v>-0.1268883234</v>
+        <v>0.15352078156000004</v>
       </c>
       <c r="O10" s="0">
         <v>0.076811407009999999</v>
@@ -3767,46 +4061,46 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.39146498618200004</v>
+        <v>0.34336882660439999</v>
       </c>
       <c r="B11" s="0">
-        <v>0.52778952010000002</v>
+        <v>0.41499136685999993</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.13632180960000001</v>
+        <v>-0.1591009575</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.15460537072</v>
+        <v>-0.053069796023000014</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.10623048503999999</v>
+        <v>0.35272531437999993</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.098524746534000007</v>
+        <v>0.097605556440000019</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.26475996738000002</v>
+        <v>0.064280368308000019</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.030758927099999989</v>
+        <v>0.006180267379999993</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.21177418592000002</v>
+        <v>0.13823230070100001</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.30416712517200006</v>
+        <v>-0.30404736371999996</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.54232310738</v>
+        <v>-0.39439651477800003</v>
       </c>
       <c r="L11" s="0">
-        <v>-0.23038093981999994</v>
+        <v>-0.11367188632</v>
       </c>
       <c r="M11" s="0">
-        <v>-0.29757975201999998</v>
+        <v>-0.23551083038199999</v>
       </c>
       <c r="N11" s="0">
-        <v>0.051067955204000003</v>
+        <v>-0.15048131258</v>
       </c>
       <c r="O11" s="0">
         <v>-0.47033640300000001</v>
@@ -3979,46 +4273,46 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.14079934590600002</v>
+        <v>-0.11052264167199999</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.20651421445600002</v>
+        <v>-0.27743020948800001</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.43134398875999996</v>
+        <v>-0.39555675772339999</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.119896482764</v>
+        <v>0.02587199267</v>
       </c>
       <c r="E12" s="0">
-        <v>0.070047106419999991</v>
+        <v>-0.094909540819999999</v>
       </c>
       <c r="F12" s="0">
-        <v>0.071058348641999988</v>
+        <v>0.066742546880000003</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.21179769198799997</v>
+        <v>0.017287302726000001</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.17359164765399998</v>
+        <v>-0.28609827704599999</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.337705464392</v>
+        <v>-0.18056355293800003</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.20114020645</v>
+        <v>-0.19093721733999999</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.35961920932800001</v>
+        <v>-0.31769041694</v>
       </c>
       <c r="L12" s="0">
-        <v>-0.24188583614000003</v>
+        <v>-0.14616127210999999</v>
       </c>
       <c r="M12" s="0">
-        <v>-0.18516335260600003</v>
+        <v>0.12359440176</v>
       </c>
       <c r="N12" s="0">
-        <v>-0.83104828660000007</v>
+        <v>-0.75201210938000007</v>
       </c>
       <c r="O12" s="0">
         <v>0.24583915889999999</v>
@@ -4191,46 +4485,46 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.23027278461199999</v>
+        <v>0.19529811410000003</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.001555064920000001</v>
+        <v>0.053765507820000003</v>
       </c>
       <c r="C13" s="0">
-        <v>0.042769489086</v>
+        <v>0.149267446764</v>
       </c>
       <c r="D13" s="0">
-        <v>0.24607298176999998</v>
+        <v>0.38017347089599995</v>
       </c>
       <c r="E13" s="0">
-        <v>0.27270043554800005</v>
+        <v>0.47279168518999992</v>
       </c>
       <c r="F13" s="0">
-        <v>0.1101407174</v>
+        <v>0.26116997171999995</v>
       </c>
       <c r="G13" s="0">
-        <v>0.027022329677000002</v>
+        <v>0.17903193246800003</v>
       </c>
       <c r="H13" s="0">
-        <v>-0.026508733480000001</v>
+        <v>0.121502504016</v>
       </c>
       <c r="I13" s="0">
-        <v>0.025409329459999973</v>
+        <v>0.49033942074000009</v>
       </c>
       <c r="J13" s="0">
-        <v>-0.28918646920000002</v>
+        <v>0.039676074700000022</v>
       </c>
       <c r="K13" s="0">
-        <v>-0.182769539338</v>
+        <v>0.21430202207639998</v>
       </c>
       <c r="L13" s="0">
-        <v>-0.15447117285999998</v>
+        <v>0.44383049724599999</v>
       </c>
       <c r="M13" s="0">
-        <v>0.52034083221600003</v>
+        <v>0.57108237110000004</v>
       </c>
       <c r="N13" s="0">
-        <v>0.23019381257999999</v>
+        <v>0.5418150573160001</v>
       </c>
       <c r="O13" s="0">
         <v>-0.33513325440000002</v>
@@ -4403,46 +4697,46 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.19428359242000001</v>
+        <v>-0.044928728009999995</v>
       </c>
       <c r="B14" s="0">
-        <v>0.10291485230000001</v>
+        <v>-0.36741998673999998</v>
       </c>
       <c r="C14" s="0">
-        <v>0.083903644919999992</v>
+        <v>-0.31912925865999997</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.10883548604</v>
+        <v>-0.26401620754600003</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.24590304561999998</v>
+        <v>-0.045789884280000012</v>
       </c>
       <c r="F14" s="0">
-        <v>0.07055247140999997</v>
+        <v>0.048853355221999996</v>
       </c>
       <c r="G14" s="0">
-        <v>0.093652709520000002</v>
+        <v>-0.54502521798000003</v>
       </c>
       <c r="H14" s="0">
-        <v>0.28117804576000005</v>
+        <v>-0.34907628918</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.10680968288000001</v>
+        <v>-0.16679148546200001</v>
       </c>
       <c r="J14" s="0">
-        <v>-0.054512234337999989</v>
+        <v>-0.46940982805999998</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.22735219768000006</v>
+        <v>-0.53993644857199996</v>
       </c>
       <c r="L14" s="0">
-        <v>0.25057783846000004</v>
+        <v>-0.074943640727999999</v>
       </c>
       <c r="M14" s="0">
-        <v>0.43290486435000003</v>
+        <v>-0.042349152500000001</v>
       </c>
       <c r="N14" s="0">
-        <v>0.0081979446399999996</v>
+        <v>-0.145966857176</v>
       </c>
       <c r="O14" s="0">
         <v>-0.21128192139999999</v>
@@ -4615,46 +4909,46 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.093601068400000015</v>
+        <v>-0.016045560457999986</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.42369135848</v>
+        <v>-0.34538539338000002</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.30275738056399998</v>
+        <v>-0.49162606530000003</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.054658251640000002</v>
+        <v>-0.53780678723800002</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.12542564058</v>
+        <v>-0.60445359785999986</v>
       </c>
       <c r="F15" s="0">
-        <v>0.051016411800000008</v>
+        <v>-0.21207464549999999</v>
       </c>
       <c r="G15" s="0">
-        <v>0.0074081431480000053</v>
+        <v>-0.20353427501999999</v>
       </c>
       <c r="H15" s="0">
-        <v>-0.060072773528000001</v>
+        <v>-0.29702182789999998</v>
       </c>
       <c r="I15" s="0">
-        <v>-0.27109692553800002</v>
+        <v>-0.30053985473400002</v>
       </c>
       <c r="J15" s="0">
-        <v>0.173198078182</v>
+        <v>0.15345969570000001</v>
       </c>
       <c r="K15" s="0">
-        <v>-0.20636058091999993</v>
+        <v>-0.78200446448000005</v>
       </c>
       <c r="L15" s="0">
-        <v>-0.13000039086199999</v>
+        <v>-0.66264059659999996</v>
       </c>
       <c r="M15" s="0">
-        <v>-0.25254541357999999</v>
+        <v>-0.8277492650399999</v>
       </c>
       <c r="N15" s="0">
-        <v>-0.60045550735400011</v>
+        <v>-0.66411143567999997</v>
       </c>
       <c r="O15" s="0">
         <v>-0.40024857470000003</v>
@@ -4827,46 +5121,46 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.13323623122</v>
+        <v>-0.073890166314</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.38019516192000002</v>
+        <v>-0.24023834180200004</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.18820699125759999</v>
+        <v>-0.18509670822600002</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.12912952802</v>
+        <v>-0.33656895956199995</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.020939654019999997</v>
+        <v>-0.18865623926000002</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.16096908963599998</v>
+        <v>-0.26948986024599997</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.16551489749599999</v>
+        <v>-0.22066168086000001</v>
       </c>
       <c r="H16" s="0">
-        <v>0.058050670617999997</v>
+        <v>-0.19876626246000001</v>
       </c>
       <c r="I16" s="0">
-        <v>0.087583058956000007</v>
+        <v>0.09456482649600001</v>
       </c>
       <c r="J16" s="0">
-        <v>-0.17054333630000001</v>
+        <v>-0.37713523506000002</v>
       </c>
       <c r="K16" s="0">
-        <v>0.179843263182</v>
+        <v>0.24803269959399996</v>
       </c>
       <c r="L16" s="0">
-        <v>0.008967982839999989</v>
+        <v>-0.01713259968599997</v>
       </c>
       <c r="M16" s="0">
-        <v>0.062823713679999976</v>
+        <v>-0.14584931001399998</v>
       </c>
       <c r="N16" s="0">
-        <v>-0.29986395900000001</v>
+        <v>-0.26459664932400001</v>
       </c>
       <c r="O16" s="0">
         <v>0.46355693100000001</v>
@@ -5039,46 +5333,46 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.03978770025399999</v>
+        <v>-0.23344497628000002</v>
       </c>
       <c r="B17" s="0">
-        <v>0.24354769018000005</v>
+        <v>-0.16073316744800001</v>
       </c>
       <c r="C17" s="0">
-        <v>0.017581588161999995</v>
+        <v>-0.31965472690000002</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.21072644859600001</v>
+        <v>-0.20277506094</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.29505715941600003</v>
+        <v>-0.16038680042000003</v>
       </c>
       <c r="F17" s="0">
-        <v>0.20127504498400001</v>
+        <v>0.037944618608000011</v>
       </c>
       <c r="G17" s="0">
-        <v>0.19506612541999999</v>
+        <v>-0.27319941264599995</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.104330702538</v>
+        <v>-0.22654307010000002</v>
       </c>
       <c r="I17" s="0">
-        <v>-0.17791330966000002</v>
+        <v>-0.28842580083200003</v>
       </c>
       <c r="J17" s="0">
-        <v>0.16520596942599999</v>
+        <v>-0.39832654668</v>
       </c>
       <c r="K17" s="0">
-        <v>-0.14888736970700003</v>
+        <v>-0.36853563929600003</v>
       </c>
       <c r="L17" s="0">
-        <v>-0.047056292410000013</v>
+        <v>-0.55236749935200002</v>
       </c>
       <c r="M17" s="0">
-        <v>0.257962688612</v>
+        <v>0.1415053456</v>
       </c>
       <c r="N17" s="0">
-        <v>-0.044703507398000018</v>
+        <v>-0.55674936769999994</v>
       </c>
       <c r="O17" s="0">
         <v>0</v>
@@ -5251,46 +5545,46 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.11432961125499998</v>
+        <v>0.259603402825</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.42294682485000001</v>
+        <v>0.36912333445000001</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.230757089975</v>
+        <v>0.38117260134999997</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.087698254650000002</v>
+        <v>-0.077659556025000021</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.150617739975</v>
+        <v>0.15486780213249995</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.18838887994750003</v>
+        <v>0.24440780108499999</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.1978176341225</v>
+        <v>0.13666964249999997</v>
       </c>
       <c r="H18" s="0">
-        <v>-0.17579953132350001</v>
+        <v>0.23948625075500002</v>
       </c>
       <c r="I18" s="0">
-        <v>-0.27788499645749998</v>
+        <v>-0.071653099902499962</v>
       </c>
       <c r="J18" s="0">
-        <v>-0.058088020700000013</v>
+        <v>-0.06475673903250001</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.29249761422499998</v>
+        <v>0.44551375303750002</v>
       </c>
       <c r="L18" s="0">
-        <v>-0.077241887449999991</v>
+        <v>0.35622294607499999</v>
       </c>
       <c r="M18" s="0">
-        <v>0.30861100820499998</v>
+        <v>0.32120223613750004</v>
       </c>
       <c r="N18" s="0">
-        <v>0.26311348862499995</v>
+        <v>-0.019264697612499992</v>
       </c>
       <c r="O18" s="0">
         <v>0</v>
@@ -5463,46 +5757,46 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.065061843179999995</v>
+        <v>0.10654448919499999</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.33427691977499996</v>
+        <v>-0.31853296372249995</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.39777918586875</v>
+        <v>-0.12938196097499999</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.074313737749999997</v>
+        <v>0.31274764250000003</v>
       </c>
       <c r="E19" s="0">
-        <v>0.41833858291250003</v>
+        <v>0.61261669197250002</v>
       </c>
       <c r="F19" s="0">
-        <v>0.20691681125</v>
+        <v>0.22022353077500001</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.040912043925000002</v>
+        <v>0.015825938264999992</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.020539228450000006</v>
+        <v>0.066138658150000001</v>
       </c>
       <c r="I19" s="0">
-        <v>-0.014635281700000002</v>
+        <v>0.11396068180000003</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.72867401165000001</v>
+        <v>-0.20134657862500005</v>
       </c>
       <c r="K19" s="0">
-        <v>-0.38366861272499997</v>
+        <v>-0.27013022715000001</v>
       </c>
       <c r="L19" s="0">
-        <v>-0.26909445789999997</v>
+        <v>0.082581148460000003</v>
       </c>
       <c r="M19" s="0">
-        <v>-0.057686466685000007</v>
+        <v>0.072678806322499984</v>
       </c>
       <c r="N19" s="0">
-        <v>-0.25120704844749997</v>
+        <v>-0.29495723225000003</v>
       </c>
       <c r="O19" s="0">
         <v>-0.075442163889999997</v>
@@ -5675,46 +5969,46 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.18016327070000002</v>
+        <v>-0.27329745697200003</v>
       </c>
       <c r="B20" s="0">
-        <v>0.19249082390199998</v>
+        <v>-0.48144794637999999</v>
       </c>
       <c r="C20" s="0">
-        <v>0.13349976356000001</v>
+        <v>-0.34998670009399996</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0010008039200000041</v>
+        <v>0.030968809244000001</v>
       </c>
       <c r="E20" s="0">
-        <v>0.10460323145000001</v>
+        <v>0.23064006003999998</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.062155137866600006</v>
+        <v>-0.004200954192000006</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.25019781617200004</v>
+        <v>-0.29173973508000001</v>
       </c>
       <c r="H20" s="0">
-        <v>-0.26869925924600002</v>
+        <v>-0.45236376136000001</v>
       </c>
       <c r="I20" s="0">
-        <v>0.14156453667999999</v>
+        <v>-0.26932649602000003</v>
       </c>
       <c r="J20" s="0">
-        <v>-0.25849654407999995</v>
+        <v>-0.31415393252400003</v>
       </c>
       <c r="K20" s="0">
-        <v>0.58256574605399991</v>
+        <v>-0.18133750285799999</v>
       </c>
       <c r="L20" s="0">
-        <v>0.33955788855199998</v>
+        <v>-0.11973347985999998</v>
       </c>
       <c r="M20" s="0">
-        <v>0.37675826548000002</v>
+        <v>-0.19418346918000001</v>
       </c>
       <c r="N20" s="0">
-        <v>0.59338050673999998</v>
+        <v>-0.37459201917999996</v>
       </c>
       <c r="O20" s="0">
         <v>-0.1009908342</v>
@@ -5887,46 +6181,46 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.24951549263600001</v>
+        <v>0.14812582702000002</v>
       </c>
       <c r="B21" s="0">
-        <v>0.20213813690000001</v>
+        <v>0.29659971905600002</v>
       </c>
       <c r="C21" s="0">
-        <v>0.21731980139999996</v>
+        <v>0.224966572812</v>
       </c>
       <c r="D21" s="0">
-        <v>0.053866600346000007</v>
+        <v>0.128383272976</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.19144754177999998</v>
+        <v>-0.072321381399999995</v>
       </c>
       <c r="F21" s="0">
-        <v>0.01441500606399999</v>
+        <v>0.043607015520000021</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.08947422943199998</v>
+        <v>-0.0016190103199999917</v>
       </c>
       <c r="H21" s="0">
-        <v>0.15467401975600001</v>
+        <v>0.229936856986</v>
       </c>
       <c r="I21" s="0">
-        <v>0.093894455279999997</v>
+        <v>0.34010210310999994</v>
       </c>
       <c r="J21" s="0">
-        <v>-0.0034651135800000234</v>
+        <v>0.17877923102000004</v>
       </c>
       <c r="K21" s="0">
-        <v>0.24296056412000003</v>
+        <v>0.40574699762999999</v>
       </c>
       <c r="L21" s="0">
-        <v>0.16037444985200003</v>
+        <v>0.20628181692800002</v>
       </c>
       <c r="M21" s="0">
-        <v>0.018462011463999985</v>
+        <v>-0.04675058881999998</v>
       </c>
       <c r="N21" s="0">
-        <v>0.44347264616000004</v>
+        <v>0.11291793566000004</v>
       </c>
       <c r="O21" s="0">
         <v>0.2490971401</v>
@@ -6099,46 +6393,46 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.033056903900000004</v>
+        <v>-0.23661975798249998</v>
       </c>
       <c r="B22" s="0">
-        <v>0.13222739649999998</v>
+        <v>-0.20783356362500002</v>
       </c>
       <c r="C22" s="0">
-        <v>0.25876071813250001</v>
+        <v>-0.19673185962500001</v>
       </c>
       <c r="D22" s="0">
-        <v>0.17645031512500001</v>
+        <v>-0.0027593690949999986</v>
       </c>
       <c r="E22" s="0">
-        <v>0.068040046849999994</v>
+        <v>-0.077544199830000007</v>
       </c>
       <c r="F22" s="0">
-        <v>0.022801158747500022</v>
+        <v>-0.31380762285999997</v>
       </c>
       <c r="G22" s="0">
-        <v>0.055264579414999987</v>
+        <v>-0.31796781304474997</v>
       </c>
       <c r="H22" s="0">
-        <v>0.20201232432499999</v>
+        <v>-0.0096455564425000015</v>
       </c>
       <c r="I22" s="0">
-        <v>-0.18790690303000002</v>
+        <v>-0.13853244710000001</v>
       </c>
       <c r="J22" s="0">
-        <v>0.075531473875000033</v>
+        <v>-0.40748365052250002</v>
       </c>
       <c r="K22" s="0">
-        <v>0.24260847831749999</v>
+        <v>-0.14219240688500001</v>
       </c>
       <c r="L22" s="0">
-        <v>0.35081492307500001</v>
+        <v>-0.073647339749999999</v>
       </c>
       <c r="M22" s="0">
-        <v>0.20957440627500001</v>
+        <v>-0.11051214329999999</v>
       </c>
       <c r="N22" s="0">
-        <v>-0.4255602382525</v>
+        <v>-0.26262797742499999</v>
       </c>
       <c r="O22" s="0">
         <v>0.112254042</v>
@@ -6311,46 +6605,46 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.11002037890749997</v>
+        <v>-0.18157923237499998</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.10946152382499993</v>
+        <v>-0.41662939271249999</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.15824609894249997</v>
+        <v>-0.16326548962499998</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.24486593374999999</v>
+        <v>-0.1164313566725</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.248654755915</v>
+        <v>-0.34791742240500001</v>
       </c>
       <c r="F23" s="0">
-        <v>0.045719088324999976</v>
+        <v>-0.20851815370000004</v>
       </c>
       <c r="G23" s="0">
-        <v>0.116530773775</v>
+        <v>-0.042834540975000002</v>
       </c>
       <c r="H23" s="0">
-        <v>0.16196484917499998</v>
+        <v>-0.12507389682499997</v>
       </c>
       <c r="I23" s="0">
-        <v>0.045662827400000008</v>
+        <v>-0.052971558524999976</v>
       </c>
       <c r="J23" s="0">
-        <v>0.427196960525</v>
+        <v>-0.10072621709999993</v>
       </c>
       <c r="K23" s="0">
-        <v>-0.17484386297500001</v>
+        <v>-0.31657466752500008</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.048843675921249982</v>
+        <v>-0.18961524087500001</v>
       </c>
       <c r="M23" s="0">
-        <v>-0.42896263925</v>
+        <v>-0.37920551135000002</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.2210271268</v>
+        <v>-0.46708473437500003</v>
       </c>
       <c r="O23" s="0">
         <v>-0.77191658500000004</v>
@@ -6523,46 +6817,46 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.087688065073999996</v>
+        <v>0.20634645620600001</v>
       </c>
       <c r="B24" s="0">
-        <v>0.19527510375999996</v>
+        <v>0.21045031750000001</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.11387628632999995</v>
+        <v>0.084635765439999996</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.076463564620000007</v>
+        <v>-0.037556420940000002</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.24955805672000003</v>
+        <v>-0.026089951759999997</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.25822150015600004</v>
+        <v>0.013281049299999991</v>
       </c>
       <c r="G24" s="0">
-        <v>-0.148375357938</v>
+        <v>-0.067033445041999998</v>
       </c>
       <c r="H24" s="0">
-        <v>-0.067350574979999994</v>
+        <v>0.12562390845399998</v>
       </c>
       <c r="I24" s="0">
-        <v>-0.12770510538000002</v>
+        <v>-0.010733656880000008</v>
       </c>
       <c r="J24" s="0">
-        <v>0.31803754226000003</v>
+        <v>0.13104047269999999</v>
       </c>
       <c r="K24" s="0">
-        <v>-0.23571865015600002</v>
+        <v>0.026673184659999995</v>
       </c>
       <c r="L24" s="0">
-        <v>0.03926365154</v>
+        <v>0.088928946580000015</v>
       </c>
       <c r="M24" s="0">
-        <v>0.052937947379999947</v>
+        <v>0.044861428399999979</v>
       </c>
       <c r="N24" s="0">
-        <v>0.25224296440800004</v>
+        <v>0.26045146668000002</v>
       </c>
       <c r="O24" s="0">
         <v>0.39063300579999999</v>
@@ -6735,46 +7029,46 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.057871603007999997</v>
+        <v>0.16277083119999999</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.016995184940000008</v>
+        <v>0.19583880741399998</v>
       </c>
       <c r="C25" s="0">
-        <v>0.046571644220000007</v>
+        <v>0.31620724964800007</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.073619180787200006</v>
+        <v>0.15530113541999999</v>
       </c>
       <c r="E25" s="0">
-        <v>0.0044467418259999895</v>
+        <v>0.33156362406000001</v>
       </c>
       <c r="F25" s="0">
-        <v>0.05612596794799999</v>
+        <v>0.294321797404</v>
       </c>
       <c r="G25" s="0">
-        <v>0.096570202048000001</v>
+        <v>0.29912883812000002</v>
       </c>
       <c r="H25" s="0">
-        <v>-0.13907098204000001</v>
+        <v>0.26633837205800004</v>
       </c>
       <c r="I25" s="0">
-        <v>-0.071342717390000004</v>
+        <v>0.083858311985999995</v>
       </c>
       <c r="J25" s="0">
-        <v>0.61419402425999992</v>
+        <v>0.61875275583599998</v>
       </c>
       <c r="K25" s="0">
-        <v>0.19056004823999997</v>
+        <v>0.64492110091999999</v>
       </c>
       <c r="L25" s="0">
-        <v>-0.065161600180000015</v>
+        <v>0.25299217198320001</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.137557216146</v>
+        <v>0.20978542244200002</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.359419096577</v>
+        <v>-0.29246540666400006</v>
       </c>
       <c r="O25" s="0">
         <v>0.32989356390000002</v>
@@ -6947,46 +7241,46 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.17203725540566664</v>
+        <v>0.26069741215333336</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.067214371696666664</v>
+        <v>0.068039633426666676</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.22101162248609998</v>
+        <v>0.031002562049999998</v>
       </c>
       <c r="D26" s="0">
-        <v>0.057973888306666665</v>
+        <v>-0.2559261112666667</v>
       </c>
       <c r="E26" s="0">
-        <v>0.1139867047</v>
+        <v>0.0037246650666666512</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.052556858826666664</v>
+        <v>0.35185677646666669</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.17377688443333331</v>
+        <v>0.25888162428</v>
       </c>
       <c r="H26" s="0">
-        <v>0.087342603266666666</v>
+        <v>0.38162027153333328</v>
       </c>
       <c r="I26" s="0">
-        <v>-0.22187831383333334</v>
+        <v>0.46637981420000002</v>
       </c>
       <c r="J26" s="0">
-        <v>0.097381060500000005</v>
+        <v>0.16334652855666668</v>
       </c>
       <c r="K26" s="0">
-        <v>-0.5388650406333334</v>
+        <v>0.048137510886666658</v>
       </c>
       <c r="L26" s="0">
-        <v>-0.23761272246666665</v>
+        <v>0.40729006197333328</v>
       </c>
       <c r="M26" s="0">
-        <v>0.11992216232666668</v>
+        <v>0.79703630933333336</v>
       </c>
       <c r="N26" s="0">
-        <v>-0.2931636394333334</v>
+        <v>0.11686673711599999</v>
       </c>
       <c r="O26" s="0">
         <v>-0.038188072500000003</v>
@@ -7159,46 +7453,46 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.29944043465999998</v>
+        <v>0.28860547454000002</v>
       </c>
       <c r="B27" s="0">
-        <v>0.288097936838</v>
+        <v>-0.060432049082000006</v>
       </c>
       <c r="C27" s="0">
-        <v>0.16833094124199999</v>
+        <v>-0.15177820655400001</v>
       </c>
       <c r="D27" s="0">
-        <v>0.021596980564000008</v>
+        <v>-0.12789099335999995</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.16271049480200001</v>
+        <v>-0.12879581887999997</v>
       </c>
       <c r="F27" s="0">
-        <v>0.10849871946</v>
+        <v>-0.15903257350980002</v>
       </c>
       <c r="G27" s="0">
-        <v>0.14599948102999999</v>
+        <v>-0.046152750822000002</v>
       </c>
       <c r="H27" s="0">
-        <v>0.087052303092000002</v>
+        <v>-0.14124659523999999</v>
       </c>
       <c r="I27" s="0">
-        <v>0.27856805691799996</v>
+        <v>0.058017102320000014</v>
       </c>
       <c r="J27" s="0">
-        <v>0.23887006429999999</v>
+        <v>0.033391848489999987</v>
       </c>
       <c r="K27" s="0">
-        <v>0.010556934062000001</v>
+        <v>-0.27325287987200003</v>
       </c>
       <c r="L27" s="0">
-        <v>0.20037119484799998</v>
+        <v>-0.180771343132</v>
       </c>
       <c r="M27" s="0">
-        <v>0.29663563727999998</v>
+        <v>-0.16927758550000002</v>
       </c>
       <c r="N27" s="0">
-        <v>0.32271441216000013</v>
+        <v>-0.016774903700000003</v>
       </c>
       <c r="O27" s="0">
         <v>-0.61454732560000003</v>
@@ -7371,46 +7665,46 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.033823513578000002</v>
+        <v>-0.002329392313999984</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.25812621938399999</v>
+        <v>-0.097562366405999995</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.053760139723999997</v>
+        <v>-0.108319516766</v>
       </c>
       <c r="D28" s="0">
-        <v>0.32597440162199998</v>
+        <v>0.33409233712000008</v>
       </c>
       <c r="E28" s="0">
-        <v>0.48489055501639999</v>
+        <v>0.48730259480000004</v>
       </c>
       <c r="F28" s="0">
-        <v>0.088328900360000004</v>
+        <v>-0.098859853582000001</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.18361151815999999</v>
+        <v>-0.23436762565999997</v>
       </c>
       <c r="H28" s="0">
-        <v>-0.036130125094000001</v>
+        <v>-0.11919974400399999</v>
       </c>
       <c r="I28" s="0">
-        <v>0.17379249702899999</v>
+        <v>0.045894091679999992</v>
       </c>
       <c r="J28" s="0">
-        <v>0.33099439459999996</v>
+        <v>0.033452471512000002</v>
       </c>
       <c r="K28" s="0">
-        <v>-0.050064153140000012</v>
+        <v>-0.041129465720000022</v>
       </c>
       <c r="L28" s="0">
-        <v>0.50284914873999997</v>
+        <v>0.34727018809288002</v>
       </c>
       <c r="M28" s="0">
-        <v>0.41987915799600001</v>
+        <v>0.32674935033999997</v>
       </c>
       <c r="N28" s="0">
-        <v>0.61943214631999999</v>
+        <v>0.32147694426000001</v>
       </c>
       <c r="O28" s="0">
         <v>-0.53172428230000002</v>
@@ -7583,46 +7877,46 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.091400380279999971</v>
+        <v>-0.51299987750000009</v>
       </c>
       <c r="B29" s="0">
-        <v>0.0058064717399999742</v>
+        <v>-0.60315882426</v>
       </c>
       <c r="C29" s="0">
-        <v>0.079600343239999954</v>
+        <v>-0.48445998169999999</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.094481037389999994</v>
+        <v>-0.57433621966400006</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.25079695500599997</v>
+        <v>-0.84479599721999998</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.25560215905599998</v>
+        <v>-0.88813237136000001</v>
       </c>
       <c r="G29" s="0">
-        <v>0.0039948498200000236</v>
+        <v>-0.52980314411999996</v>
       </c>
       <c r="H29" s="0">
-        <v>0.30851923015999994</v>
+        <v>-0.26002129243400002</v>
       </c>
       <c r="I29" s="0">
-        <v>0.03727285570000001</v>
+        <v>-0.46681006782000001</v>
       </c>
       <c r="J29" s="0">
-        <v>0.12774142342380004</v>
+        <v>-0.39383254856999994</v>
       </c>
       <c r="K29" s="0">
-        <v>0.03416853810000002</v>
+        <v>-0.66861714714000009</v>
       </c>
       <c r="L29" s="0">
-        <v>-0.24253909595999995</v>
+        <v>-0.97744514180800002</v>
       </c>
       <c r="M29" s="0">
-        <v>0.020558767619999984</v>
+        <v>-0.74542575506000008</v>
       </c>
       <c r="N29" s="0">
-        <v>0.24751499886</v>
+        <v>-0.50725000017999999</v>
       </c>
       <c r="O29" s="0">
         <v>0.168306397</v>
@@ -7795,46 +8089,46 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0013062467260000019</v>
+        <v>0.20495146948000001</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.15800831643999996</v>
+        <v>0.19673787740999998</v>
       </c>
       <c r="C30" s="0">
-        <v>0.13642850821640001</v>
+        <v>0.28112338240000001</v>
       </c>
       <c r="D30" s="0">
-        <v>0.24382758991200001</v>
+        <v>0.31134124913999994</v>
       </c>
       <c r="E30" s="0">
-        <v>0.15130186311999999</v>
+        <v>0.31552584143399998</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.102582030866</v>
+        <v>0.081099611939999997</v>
       </c>
       <c r="G30" s="0">
-        <v>0.020548140500000003</v>
+        <v>0.067091928604000012</v>
       </c>
       <c r="H30" s="0">
-        <v>-0.23961918616999997</v>
+        <v>0.053713779955999998</v>
       </c>
       <c r="I30" s="0">
-        <v>-0.14211741688999999</v>
+        <v>0.19861087810000003</v>
       </c>
       <c r="J30" s="0">
-        <v>0.54190852245999999</v>
+        <v>0.45815453041999998</v>
       </c>
       <c r="K30" s="0">
-        <v>0.12465314105999999</v>
+        <v>0.48722581541999999</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.18039960244</v>
+        <v>-0.038798032396000007</v>
       </c>
       <c r="M30" s="0">
-        <v>0.11496523440000002</v>
+        <v>0.16633625282600001</v>
       </c>
       <c r="N30" s="0">
-        <v>-0.14441535752859999</v>
+        <v>0.094860079699999988</v>
       </c>
       <c r="O30" s="0">
         <v>0.076282387300000004</v>
@@ -8007,46 +8301,46 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.193064483584</v>
+        <v>0.090440989240000019</v>
       </c>
       <c r="B31" s="0">
-        <v>0.061364293819999992</v>
+        <v>0.0092501064300000158</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.12605243900000002</v>
+        <v>-0.039887556380000001</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.069128421159999995</v>
+        <v>-0.29078415319000001</v>
       </c>
       <c r="E31" s="0">
-        <v>0.22426172158200003</v>
+        <v>-0.21300893912000002</v>
       </c>
       <c r="F31" s="0">
-        <v>0.050123213202000007</v>
+        <v>-0.19543592788</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.17327028407199999</v>
+        <v>-0.12962781211999999</v>
       </c>
       <c r="H31" s="0">
-        <v>0.12155363132079999</v>
+        <v>0.11786444989800002</v>
       </c>
       <c r="I31" s="0">
-        <v>0.137744716854</v>
+        <v>0.0022605622180000007</v>
       </c>
       <c r="J31" s="0">
-        <v>-0.20687403882000002</v>
+        <v>0.0015364860199999831</v>
       </c>
       <c r="K31" s="0">
-        <v>0.20231717007399999</v>
+        <v>0.24884161912199998</v>
       </c>
       <c r="L31" s="0">
-        <v>-0.39963629393</v>
+        <v>-0.63231134523999999</v>
       </c>
       <c r="M31" s="0">
-        <v>-0.49243974567999993</v>
+        <v>-0.35544205497999998</v>
       </c>
       <c r="N31" s="0">
-        <v>-0.21421074264000001</v>
+        <v>-0.023453878840000008</v>
       </c>
       <c r="O31" s="0">
         <v>0.14248645030000001</v>
@@ -8219,46 +8513,46 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.08971522752000001</v>
+        <v>0.063033387023999993</v>
       </c>
       <c r="B32" s="0">
-        <v>0.034465453411999983</v>
+        <v>0.18972997528399999</v>
       </c>
       <c r="C32" s="0">
-        <v>-0.020950944560000007</v>
+        <v>0.053098947886000017</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.098873206921999995</v>
+        <v>-0.00077131672799998774</v>
       </c>
       <c r="E32" s="0">
-        <v>-0.18855626488000002</v>
+        <v>-0.135984265918</v>
       </c>
       <c r="F32" s="0">
-        <v>0.091465008954000018</v>
+        <v>0.034917140419999999</v>
       </c>
       <c r="G32" s="0">
-        <v>0.30991722845999992</v>
+        <v>0.13441887137200001</v>
       </c>
       <c r="H32" s="0">
-        <v>0.13577960068600001</v>
+        <v>-0.12770253967600001</v>
       </c>
       <c r="I32" s="0">
-        <v>-0.16723437075999997</v>
+        <v>-0.25126933253200001</v>
       </c>
       <c r="J32" s="0">
-        <v>-0.11794781273999999</v>
+        <v>-0.082835546976000013</v>
       </c>
       <c r="K32" s="0">
-        <v>0.082858502907999967</v>
+        <v>0.077449787350000007</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.014170630878000013</v>
+        <v>-0.26666882547999993</v>
       </c>
       <c r="M32" s="0">
-        <v>-0.090932341760000007</v>
+        <v>-0.0050315074800000078</v>
       </c>
       <c r="N32" s="0">
-        <v>-0.042692337968000003</v>
+        <v>0.32631967526399996</v>
       </c>
       <c r="O32" s="0">
         <v>-0.3213862965</v>
@@ -8431,46 +8725,46 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.20303492680000002</v>
+        <v>0.31796575935999993</v>
       </c>
       <c r="B33" s="0">
-        <v>0.12717721064599999</v>
+        <v>-0.028224362700000005</v>
       </c>
       <c r="C33" s="0">
-        <v>0.11013950952</v>
+        <v>-0.014075236519999984</v>
       </c>
       <c r="D33" s="0">
-        <v>0.1046992231054</v>
+        <v>0.061574553879999994</v>
       </c>
       <c r="E33" s="0">
-        <v>-0.17900876222000001</v>
+        <v>-0.35043397712799995</v>
       </c>
       <c r="F33" s="0">
-        <v>0.22358832099999998</v>
+        <v>0.14914319213999999</v>
       </c>
       <c r="G33" s="0">
-        <v>0.031325757353999985</v>
+        <v>-0.050978130325999994</v>
       </c>
       <c r="H33" s="0">
-        <v>0.070712789765999984</v>
+        <v>0.13325466574799999</v>
       </c>
       <c r="I33" s="0">
-        <v>0.091086998060000007</v>
+        <v>-0.12976677990000002</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.19810057690000002</v>
+        <v>-0.26610648468000003</v>
       </c>
       <c r="K33" s="0">
-        <v>0.0085000701999999873</v>
+        <v>-0.14748443042000001</v>
       </c>
       <c r="L33" s="0">
-        <v>-0.094533778340000013</v>
+        <v>-0.028963930660000005</v>
       </c>
       <c r="M33" s="0">
-        <v>-0.175179095274</v>
+        <v>-0.24313060006400003</v>
       </c>
       <c r="N33" s="0">
-        <v>0.1846103090448</v>
+        <v>-0.45557891741599998</v>
       </c>
       <c r="O33" s="0">
         <v>0.39874933950000002</v>
@@ -8643,46 +8937,46 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>-0.35925007757924998</v>
+        <v>-0.28709842332500002</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.35752895134999996</v>
+        <v>-0.27696015734999996</v>
       </c>
       <c r="C34" s="0">
-        <v>-0.27230387992499999</v>
+        <v>0.0066860009149999969</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.36355189137499999</v>
+        <v>-0.16945141402500002</v>
       </c>
       <c r="E34" s="0">
-        <v>-0.32820696912750003</v>
+        <v>-0.35243925874250004</v>
       </c>
       <c r="F34" s="0">
-        <v>-0.54294600655500003</v>
+        <v>-0.43293836333750002</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.35887845892500003</v>
+        <v>-0.18113262052500001</v>
       </c>
       <c r="H34" s="0">
-        <v>-0.25031786042500004</v>
+        <v>-0.070981948300000014</v>
       </c>
       <c r="I34" s="0">
-        <v>-0.285542803475</v>
+        <v>-0.005729710849999986</v>
       </c>
       <c r="J34" s="0">
-        <v>-0.38474338694999999</v>
+        <v>-0.27686584539999998</v>
       </c>
       <c r="K34" s="0">
-        <v>-0.43676175131499995</v>
+        <v>-0.2230074510075</v>
       </c>
       <c r="L34" s="0">
-        <v>-0.24998289270250001</v>
+        <v>-0.16253021644749999</v>
       </c>
       <c r="M34" s="0">
-        <v>-0.052092880649999992</v>
+        <v>-0.072481414125000032</v>
       </c>
       <c r="N34" s="0">
-        <v>0.0068539014249999752</v>
+        <v>-0.01810579112500001</v>
       </c>
       <c r="O34" s="0">
         <v>0.048692091069999999</v>
@@ -8855,46 +9149,46 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.020129675854000006</v>
+        <v>0.17828637844</v>
       </c>
       <c r="B35" s="0">
-        <v>0.14632524148000001</v>
+        <v>0.33629133373999992</v>
       </c>
       <c r="C35" s="0">
-        <v>-0.077243311801999989</v>
+        <v>-0.14194670589599998</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.23714692851999999</v>
+        <v>-0.28781313060000002</v>
       </c>
       <c r="E35" s="0">
-        <v>-0.16584360741200002</v>
+        <v>-0.32210393577599999</v>
       </c>
       <c r="F35" s="0">
-        <v>-0.24220936485600003</v>
+        <v>-0.23723923125419999</v>
       </c>
       <c r="G35" s="0">
-        <v>-0.36584400378199999</v>
+        <v>-0.33211431543199998</v>
       </c>
       <c r="H35" s="0">
-        <v>-0.24522697784760003</v>
+        <v>-0.10824108781400002</v>
       </c>
       <c r="I35" s="0">
-        <v>-0.26046300008000001</v>
+        <v>-0.24254876112000004</v>
       </c>
       <c r="J35" s="0">
-        <v>-0.47311943306000004</v>
+        <v>-0.37198547660000003</v>
       </c>
       <c r="K35" s="0">
-        <v>0.11677180276600004</v>
+        <v>0.04733679068600001</v>
       </c>
       <c r="L35" s="0">
-        <v>-0.061456883480000016</v>
+        <v>-0.053358232408000014</v>
       </c>
       <c r="M35" s="0">
-        <v>-0.23597497063600006</v>
+        <v>-0.330359896514</v>
       </c>
       <c r="N35" s="0">
-        <v>-0.35420299483999995</v>
+        <v>-0.45247226761999998</v>
       </c>
       <c r="O35" s="0">
         <v>0.89730491710000004</v>
@@ -9067,46 +9361,46 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.117302748772</v>
+        <v>0.15840762013999998</v>
       </c>
       <c r="B36" s="0">
-        <v>-0.0015503879879999794</v>
+        <v>0.19291342214000001</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.081452129310000024</v>
+        <v>0.13026746194</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.054277724177999989</v>
+        <v>-0.0016924051719999888</v>
       </c>
       <c r="E36" s="0">
-        <v>-0.0047803994200000064</v>
+        <v>-0.067196418066400004</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.19843099515399998</v>
+        <v>-0.18698463974000004</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.15150074491999999</v>
+        <v>-0.20102462136000004</v>
       </c>
       <c r="H36" s="0">
-        <v>-0.053545915484000006</v>
+        <v>-0.086222758439999991</v>
       </c>
       <c r="I36" s="0">
-        <v>-0.10278602555999998</v>
+        <v>-0.18025624676000002</v>
       </c>
       <c r="J36" s="0">
-        <v>-0.21688113445999999</v>
+        <v>0.01721334895379999</v>
       </c>
       <c r="K36" s="0">
-        <v>-0.22701909235399995</v>
+        <v>-0.25095721733999998</v>
       </c>
       <c r="L36" s="0">
-        <v>0.002668225276000019</v>
+        <v>-0.11026961228900004</v>
       </c>
       <c r="M36" s="0">
-        <v>-0.16840913613200001</v>
+        <v>-0.21131687469999999</v>
       </c>
       <c r="N36" s="0">
-        <v>-0.21790253456000003</v>
+        <v>-0.41146772267799997</v>
       </c>
       <c r="O36" s="0">
         <v>1.0403552680000001</v>
@@ -9279,46 +9573,46 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>-0.020438226721999991</v>
+        <v>-0.048515389099999993</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.088160376800000023</v>
+        <v>0.022442429021999992</v>
       </c>
       <c r="C37" s="0">
-        <v>0.035657199179999995</v>
+        <v>0.089225612783999986</v>
       </c>
       <c r="D37" s="0">
-        <v>0.17113462232400001</v>
+        <v>0.23146368803000006</v>
       </c>
       <c r="E37" s="0">
-        <v>0.54162118468199993</v>
+        <v>0.383644252006</v>
       </c>
       <c r="F37" s="0">
-        <v>-0.021164189140000012</v>
+        <v>0.069863179450000007</v>
       </c>
       <c r="G37" s="0">
-        <v>-0.064409580279999989</v>
+        <v>0.071717234083999992</v>
       </c>
       <c r="H37" s="0">
-        <v>0.066908666080000012</v>
+        <v>0.048679649300000009</v>
       </c>
       <c r="I37" s="0">
-        <v>0.11866461373600001</v>
+        <v>0.20779064637800002</v>
       </c>
       <c r="J37" s="0">
-        <v>0.075594560599999999</v>
+        <v>0.03053098956000002</v>
       </c>
       <c r="K37" s="0">
-        <v>-0.13480392592000001</v>
+        <v>0.0030679080719999974</v>
       </c>
       <c r="L37" s="0">
-        <v>0.10275528476000004</v>
+        <v>0.22722887523999996</v>
       </c>
       <c r="M37" s="0">
-        <v>0.12663197092</v>
+        <v>-0.070697479675999972</v>
       </c>
       <c r="N37" s="0">
-        <v>-0.019712245400000005</v>
+        <v>0.025876179419999933</v>
       </c>
       <c r="O37" s="0">
         <v>-1.3300000160000001</v>
@@ -9491,46 +9785,46 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>-0.18758877666400001</v>
+        <v>0.34303131368000001</v>
       </c>
       <c r="B38" s="0">
-        <v>-0.50204360707400009</v>
+        <v>0.067314346339999998</v>
       </c>
       <c r="C38" s="0">
-        <v>-0.22390297383800001</v>
+        <v>0.0011768279419999972</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.11444894375199999</v>
+        <v>-0.00066287106199999497</v>
       </c>
       <c r="E38" s="0">
-        <v>-0.010600877919999996</v>
+        <v>-0.091189584520000005</v>
       </c>
       <c r="F38" s="0">
-        <v>-0.24455398060000003</v>
+        <v>0.1268872142094</v>
       </c>
       <c r="G38" s="0">
-        <v>-0.44794963745999999</v>
+        <v>0.43074061154800003</v>
       </c>
       <c r="H38" s="0">
-        <v>-0.17685460453999999</v>
+        <v>0.40251290829999997</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.06197893472000001</v>
+        <v>0.062080591966919993</v>
       </c>
       <c r="J38" s="0">
-        <v>-0.13220751725999999</v>
+        <v>-0.0038432387199999864</v>
       </c>
       <c r="K38" s="0">
-        <v>0.059086497679999982</v>
+        <v>0.012412596328000005</v>
       </c>
       <c r="L38" s="0">
-        <v>-0.12013560134000001</v>
+        <v>0.017567036219999999</v>
       </c>
       <c r="M38" s="0">
-        <v>-0.061392477010000002</v>
+        <v>-0.003734047684000008</v>
       </c>
       <c r="N38" s="0">
-        <v>-0.45588211167499998</v>
+        <v>-0.013081963915999983</v>
       </c>
       <c r="O38" s="0">
         <v>-0.76855981880000002</v>
@@ -9703,46 +9997,46 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>-0.15033045194</v>
+        <v>-0.17127440141400002</v>
       </c>
       <c r="B39" s="0">
-        <v>-0.13615428898199999</v>
+        <v>-0.081670548120000033</v>
       </c>
       <c r="C39" s="0">
-        <v>-0.45697631063999999</v>
+        <v>-0.24158087839999998</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.50261027347999998</v>
+        <v>-0.37015549412000004</v>
       </c>
       <c r="E39" s="0">
-        <v>-0.23099499526000003</v>
+        <v>-0.27251117406000003</v>
       </c>
       <c r="F39" s="0">
-        <v>-0.37680175271999999</v>
+        <v>-0.28583363711999998</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.53639258682000002</v>
+        <v>-0.25054201747999999</v>
       </c>
       <c r="H39" s="0">
-        <v>-0.047215754596000012</v>
+        <v>-0.10281522648000001</v>
       </c>
       <c r="I39" s="0">
-        <v>-0.09192417901399999</v>
+        <v>-0.0021495291259999937</v>
       </c>
       <c r="J39" s="0">
-        <v>-0.94475652932699994</v>
+        <v>-0.38283877526000004</v>
       </c>
       <c r="K39" s="0">
-        <v>-0.31029580297999998</v>
+        <v>0.30838341045999995</v>
       </c>
       <c r="L39" s="0">
-        <v>-0.27428360853999995</v>
+        <v>-0.13662703530799999</v>
       </c>
       <c r="M39" s="0">
-        <v>-0.131666802331</v>
+        <v>0.29640374155999993</v>
       </c>
       <c r="N39" s="0">
-        <v>-1.0177618120720002</v>
+        <v>-0.33532084834000003</v>
       </c>
       <c r="O39" s="0">
         <v>-0.55561698520000002</v>
@@ -9915,46 +10209,46 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>-0.047774912694199992</v>
+        <v>-0.08872258022</v>
       </c>
       <c r="B40" s="0">
-        <v>-0.27345678286000002</v>
+        <v>-0.38435786863999999</v>
       </c>
       <c r="C40" s="0">
-        <v>-0.054516053460000012</v>
+        <v>-0.68467067238599999</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.042205363819999994</v>
+        <v>-0.52538681190000003</v>
       </c>
       <c r="E40" s="0">
-        <v>0.025761556963999992</v>
+        <v>-0.27227063868000001</v>
       </c>
       <c r="F40" s="0">
-        <v>-0.084355025907999995</v>
+        <v>-0.48060765445999998</v>
       </c>
       <c r="G40" s="0">
-        <v>-0.198232096926</v>
+        <v>-0.53253736800000007</v>
       </c>
       <c r="H40" s="0">
-        <v>-0.13314340427419999</v>
+        <v>-0.28784261262799998</v>
       </c>
       <c r="I40" s="0">
-        <v>0.070944538880000005</v>
+        <v>-0.26161211495800002</v>
       </c>
       <c r="J40" s="0">
-        <v>0.23920981236000002</v>
+        <v>-0.40979904300000003</v>
       </c>
       <c r="K40" s="0">
-        <v>-0.11659070298</v>
+        <v>-0.74116815720000007</v>
       </c>
       <c r="L40" s="0">
-        <v>-0.1336074532</v>
+        <v>-0.74520976134599992</v>
       </c>
       <c r="M40" s="0">
-        <v>0.020135551660000008</v>
+        <v>-0.66987060058000003</v>
       </c>
       <c r="N40" s="0">
-        <v>0.18638134097999998</v>
+        <v>-0.65215878305999997</v>
       </c>
       <c r="O40" s="0">
         <v>-0.63524519300000004</v>
@@ -10127,46 +10421,46 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.11553943983200002</v>
+        <v>-0.24165144590600002</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.016513766940000018</v>
+        <v>-0.096193339101999994</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.16030304783999999</v>
+        <v>-0.088997562299999972</v>
       </c>
       <c r="D41" s="0">
-        <v>0.20642558550199999</v>
+        <v>-0.12816799226</v>
       </c>
       <c r="E41" s="0">
-        <v>0.26118775142400003</v>
+        <v>0.0069035401900000015</v>
       </c>
       <c r="F41" s="0">
-        <v>-0.14483114455999999</v>
+        <v>-0.15010649822</v>
       </c>
       <c r="G41" s="0">
-        <v>-0.26813590310000002</v>
+        <v>0.043182202154000038</v>
       </c>
       <c r="H41" s="0">
-        <v>-0.02783882096999999</v>
+        <v>0.031983846939000006</v>
       </c>
       <c r="I41" s="0">
-        <v>-0.0094402794259999864</v>
+        <v>-0.090432771120000005</v>
       </c>
       <c r="J41" s="0">
-        <v>-0.088875264836000015</v>
+        <v>-0.092400238004000018</v>
       </c>
       <c r="K41" s="0">
-        <v>-0.044379826428000001</v>
+        <v>-0.21006693545999999</v>
       </c>
       <c r="L41" s="0">
-        <v>0.20590113221999995</v>
+        <v>-0.56994116052999999</v>
       </c>
       <c r="M41" s="0">
-        <v>0.53280531071999992</v>
+        <v>-0.42415364868000005</v>
       </c>
       <c r="N41" s="0">
-        <v>0.18939332462</v>
+        <v>-0.16233160754799997</v>
       </c>
       <c r="O41" s="0">
         <v>-0.67851346629999998</v>
@@ -10339,46 +10633,46 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.12113643131999999</v>
+        <v>0.23892022555999998</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.18007105027999998</v>
+        <v>-0.055082159597999988</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.24809576710800002</v>
+        <v>-0.23558269261399997</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.15508128764000001</v>
+        <v>-0.34812335985999998</v>
       </c>
       <c r="E42" s="0">
-        <v>-0.014633498535999984</v>
+        <v>-0.28154700832000001</v>
       </c>
       <c r="F42" s="0">
-        <v>-0.22955073015999999</v>
+        <v>-0.24501491657999996</v>
       </c>
       <c r="G42" s="0">
-        <v>-0.40694614352000003</v>
+        <v>-0.15783780606</v>
       </c>
       <c r="H42" s="0">
-        <v>-0.35859854728599999</v>
+        <v>-0.13201754645200001</v>
       </c>
       <c r="I42" s="0">
-        <v>-0.22829600087999999</v>
+        <v>-0.23025134887999998</v>
       </c>
       <c r="J42" s="0">
-        <v>-0.10088468559800001</v>
+        <v>-0.64558194414000003</v>
       </c>
       <c r="K42" s="0">
-        <v>-0.36240913419999998</v>
+        <v>-0.45530325648000003</v>
       </c>
       <c r="L42" s="0">
-        <v>-0.66365998609999999</v>
+        <v>-0.31709955001999995</v>
       </c>
       <c r="M42" s="0">
-        <v>-0.095062715426000005</v>
+        <v>-0.21844962612000002</v>
       </c>
       <c r="N42" s="0">
-        <v>0.040164483720000012</v>
+        <v>-0.50608182392000001</v>
       </c>
       <c r="O42" s="0">
         <v>0.40902775530000002</v>
@@ -10551,46 +10845,46 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.034937275578000006</v>
+        <v>-0.099342549899999993</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.031384948972000018</v>
+        <v>-0.18885181853240002</v>
       </c>
       <c r="C43" s="0">
-        <v>0.0073018513199999968</v>
+        <v>-0.21970394992000003</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.38595578246000006</v>
+        <v>-0.55186997927999992</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.47001995701200006</v>
+        <v>-0.54713623181999993</v>
       </c>
       <c r="F43" s="0">
-        <v>-0.31933119071999999</v>
+        <v>-0.24964945853999998</v>
       </c>
       <c r="G43" s="0">
-        <v>-0.60622347072000005</v>
+        <v>-0.41511329952000003</v>
       </c>
       <c r="H43" s="0">
-        <v>-0.29719808275639997</v>
+        <v>-0.31835093568488004</v>
       </c>
       <c r="I43" s="0">
-        <v>-0.33462671760000001</v>
+        <v>-0.59030250732</v>
       </c>
       <c r="J43" s="0">
-        <v>-0.69106108991600002</v>
+        <v>-0.62608172851999999</v>
       </c>
       <c r="K43" s="0">
-        <v>0.30596330999800003</v>
+        <v>0.023140955619999997</v>
       </c>
       <c r="L43" s="0">
-        <v>0.25743173865199998</v>
+        <v>0.047213396982000014</v>
       </c>
       <c r="M43" s="0">
-        <v>0.44641769201999998</v>
+        <v>0.13840455969600002</v>
       </c>
       <c r="N43" s="0">
-        <v>-0.42397699479999995</v>
+        <v>-0.85412413481999994</v>
       </c>
       <c r="O43" s="0">
         <v>-0.1140072796</v>
@@ -10763,46 +11057,46 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>-0.14421764296</v>
+        <v>0.14500487538360002</v>
       </c>
       <c r="B44" s="0">
-        <v>-0.066009835320000002</v>
+        <v>-0.05365674614999999</v>
       </c>
       <c r="C44" s="0">
-        <v>-0.20255282535739999</v>
+        <v>0.002471531120000009</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.20009967328758402</v>
+        <v>0.016474058328000005</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.078726020584000023</v>
+        <v>-0.060432724548199993</v>
       </c>
       <c r="F44" s="0">
-        <v>-0.42536925519999996</v>
+        <v>-0.34880840208000008</v>
       </c>
       <c r="G44" s="0">
-        <v>-0.47581175624000005</v>
+        <v>-0.36418870679999998</v>
       </c>
       <c r="H44" s="0">
-        <v>-0.33187867704399998</v>
+        <v>-0.15338341612</v>
       </c>
       <c r="I44" s="0">
-        <v>-0.18985314486800003</v>
+        <v>-0.219382294984</v>
       </c>
       <c r="J44" s="0">
-        <v>-0.17516072700000002</v>
+        <v>0.21035490028600007</v>
       </c>
       <c r="K44" s="0">
-        <v>-0.28256739239799999</v>
+        <v>0.05783957829240001</v>
       </c>
       <c r="L44" s="0">
-        <v>-0.41781996007</v>
+        <v>0.032343879952400005</v>
       </c>
       <c r="M44" s="0">
-        <v>-0.72730444967999996</v>
+        <v>0.037245116454000013</v>
       </c>
       <c r="N44" s="0">
-        <v>0.18242612131999997</v>
+        <v>0.22048858139999999</v>
       </c>
       <c r="O44" s="0">
         <v>-0.56576498959999999</v>
@@ -10975,46 +11269,46 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>-0.28311872451999998</v>
+        <v>-0.22452393433999998</v>
       </c>
       <c r="B45" s="0">
-        <v>-0.19385977994</v>
+        <v>-0.42774680515999997</v>
       </c>
       <c r="C45" s="0">
-        <v>-0.47031911627999995</v>
+        <v>-0.60222477826599996</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.41271027149999995</v>
+        <v>-0.47775411071400004</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.33583802224000003</v>
+        <v>-0.53915175767000001</v>
       </c>
       <c r="F45" s="0">
-        <v>-0.41460814736599999</v>
+        <v>-0.38694462323599998</v>
       </c>
       <c r="G45" s="0">
-        <v>-0.11477683545999998</v>
+        <v>-0.325522451918</v>
       </c>
       <c r="H45" s="0">
-        <v>-0.16016235554980002</v>
+        <v>-0.080738515425599983</v>
       </c>
       <c r="I45" s="0">
-        <v>-0.12256230025720001</v>
+        <v>-0.289574333746</v>
       </c>
       <c r="J45" s="0">
-        <v>-0.11173609242999998</v>
+        <v>-0.23496150225600002</v>
       </c>
       <c r="K45" s="0">
-        <v>-0.37901456923999999</v>
+        <v>-0.62060517382599989</v>
       </c>
       <c r="L45" s="0">
-        <v>-0.40273681481000001</v>
+        <v>-0.57484877290000003</v>
       </c>
       <c r="M45" s="0">
-        <v>-0.23900765176</v>
+        <v>-0.58573718704</v>
       </c>
       <c r="N45" s="0">
-        <v>-0.26143251907999998</v>
+        <v>-0.69408428608000006</v>
       </c>
       <c r="O45" s="0">
         <v>0.23920347259999999</v>
@@ -11187,46 +11481,46 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.38131183334999996</v>
+        <v>-0.54869628184749997</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.38053189077500005</v>
+        <v>-0.61763025837499996</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.36060697134749997</v>
+        <v>-0.41324856879999999</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.42822553002249997</v>
+        <v>-0.38683226457500003</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.22377429700000007</v>
+        <v>-0.363098620175</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.43017204858499997</v>
+        <v>-0.32381398037499998</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.68311115227499997</v>
+        <v>-0.67723262934999995</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.66241110757499999</v>
+        <v>-0.71271830022499993</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.35536800525250001</v>
+        <v>-0.242326588275</v>
       </c>
       <c r="J46" s="0">
-        <v>-0.62591132362500002</v>
+        <v>-0.81410852017499991</v>
       </c>
       <c r="K46" s="0">
-        <v>-0.051409512970000001</v>
+        <v>-0.171319853075</v>
       </c>
       <c r="L46" s="0">
-        <v>-0.32196636612749996</v>
+        <v>-0.49577031324999998</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.36198335654500002</v>
+        <v>-0.44393838724999996</v>
       </c>
       <c r="N46" s="0">
-        <v>-0.29786746042499995</v>
+        <v>-0.38080616832500003</v>
       </c>
       <c r="O46" s="0">
         <v>1.911679589</v>
@@ -11399,46 +11693,46 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.067510972089999982</v>
+        <v>0.25961516592400002</v>
       </c>
       <c r="B47" s="0">
-        <v>-0.0039279128599999606</v>
+        <v>0.31376273688</v>
       </c>
       <c r="C47" s="0">
-        <v>0.29138508644799999</v>
+        <v>0.25633909667999999</v>
       </c>
       <c r="D47" s="0">
-        <v>0.093544801491999993</v>
+        <v>0.025520815862400004</v>
       </c>
       <c r="E47" s="0">
-        <v>0.21028834938240001</v>
+        <v>-0.11589974187800001</v>
       </c>
       <c r="F47" s="0">
-        <v>0.14709988901999999</v>
+        <v>-0.22233604745999996</v>
       </c>
       <c r="G47" s="0">
-        <v>0.036162632126000016</v>
+        <v>0.052007610780000005</v>
       </c>
       <c r="H47" s="0">
-        <v>-0.045483504520000016</v>
+        <v>0.0052123045079999928</v>
       </c>
       <c r="I47" s="0">
-        <v>-0.021869206440000032</v>
+        <v>-0.051898326140000006</v>
       </c>
       <c r="J47" s="0">
-        <v>0.31825516374399998</v>
+        <v>0.15052628142000002</v>
       </c>
       <c r="K47" s="0">
-        <v>0.55199362394399998</v>
+        <v>0.28822145581999997</v>
       </c>
       <c r="L47" s="0">
-        <v>0.18484945250399998</v>
+        <v>0.054124837200000012</v>
       </c>
       <c r="M47" s="0">
-        <v>0.36337720083800001</v>
+        <v>-0.094896728080000006</v>
       </c>
       <c r="N47" s="0">
-        <v>0.22168333071999999</v>
+        <v>0.24895233506179998</v>
       </c>
       <c r="O47" s="0">
         <v>0.24858040619999999</v>
@@ -11611,46 +11905,46 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.1192017405375</v>
+        <v>0.045787922062499986</v>
       </c>
       <c r="B48" s="0">
-        <v>0.46704155429999999</v>
+        <v>0.33056521605</v>
       </c>
       <c r="C48" s="0">
-        <v>0.32639867357499996</v>
+        <v>0.28029757504999997</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.10151888002500002</v>
+        <v>-0.12382340982624999</v>
       </c>
       <c r="E48" s="0">
-        <v>0.029157586100000001</v>
+        <v>0.025600726685000012</v>
       </c>
       <c r="F48" s="0">
-        <v>-0.12404271677500001</v>
+        <v>-0.15348495312500002</v>
       </c>
       <c r="G48" s="0">
-        <v>0.046098353525000003</v>
+        <v>0.042868791449999985</v>
       </c>
       <c r="H48" s="0">
-        <v>-0.070288148242500001</v>
+        <v>-0.15073884230500001</v>
       </c>
       <c r="I48" s="0">
-        <v>-0.080673496862499999</v>
+        <v>-0.15848845952500001</v>
       </c>
       <c r="J48" s="0">
-        <v>0.27577553870499993</v>
+        <v>-0.21522283602499998</v>
       </c>
       <c r="K48" s="0">
-        <v>0.46407791895000006</v>
+        <v>0.53727378692499994</v>
       </c>
       <c r="L48" s="0">
-        <v>0.30246651675000003</v>
+        <v>0.21930938652499998</v>
       </c>
       <c r="M48" s="0">
-        <v>0.063259249172500004</v>
+        <v>0.044509813800000006</v>
       </c>
       <c r="N48" s="0">
-        <v>-0.23341596807499998</v>
+        <v>-0.39187980410000001</v>
       </c>
       <c r="O48" s="0">
         <v>-0.2301575163</v>
@@ -11823,46 +12117,46 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.48825088682500001</v>
+        <v>0.18245619974749996</v>
       </c>
       <c r="B49" s="0">
-        <v>0.8556453691</v>
+        <v>0.34801632097499996</v>
       </c>
       <c r="C49" s="0">
-        <v>0.81225627452500004</v>
+        <v>0.24305242124999998</v>
       </c>
       <c r="D49" s="0">
-        <v>0.10958469512750001</v>
+        <v>-0.30166896298749996</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.22319464965000002</v>
+        <v>-0.5438189284424999</v>
       </c>
       <c r="F49" s="0">
-        <v>0.2301852367625</v>
+        <v>-0.19373883950000001</v>
       </c>
       <c r="G49" s="0">
-        <v>0.236380156585</v>
+        <v>-0.084945083669749996</v>
       </c>
       <c r="H49" s="0">
-        <v>0.24284041971000001</v>
+        <v>-0.0010628448250000061</v>
       </c>
       <c r="I49" s="0">
-        <v>0.30609122333</v>
+        <v>-0.17165056315749999</v>
       </c>
       <c r="J49" s="0">
-        <v>-0.10900876447499999</v>
+        <v>-0.33863123752500002</v>
       </c>
       <c r="K49" s="0">
-        <v>0.64155743944999999</v>
+        <v>0.30004967835000002</v>
       </c>
       <c r="L49" s="0">
-        <v>0.55981476122499996</v>
+        <v>0.13105806714999998</v>
       </c>
       <c r="M49" s="0">
-        <v>0.57648819085000003</v>
+        <v>0.18134324735000001</v>
       </c>
       <c r="N49" s="0">
-        <v>0.71320756837499999</v>
+        <v>0.31253400520000002</v>
       </c>
       <c r="O49" s="0">
         <v>0.53844279559999997</v>
@@ -12035,46 +12329,46 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.086214301759999987</v>
+        <v>0.1665230486</v>
       </c>
       <c r="B50" s="0">
-        <v>0.017952469262000007</v>
+        <v>0.24150959417080001</v>
       </c>
       <c r="C50" s="0">
-        <v>-0.078648235499999997</v>
+        <v>0.101861710334</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.029776638856000015</v>
+        <v>-0.026013151240000011</v>
       </c>
       <c r="E50" s="0">
-        <v>0.18461490553160001</v>
+        <v>0.1649203853</v>
       </c>
       <c r="F50" s="0">
-        <v>0.047098018239999997</v>
+        <v>0.092442810900000005</v>
       </c>
       <c r="G50" s="0">
-        <v>0.081067229720000036</v>
+        <v>-0.091346487863999987</v>
       </c>
       <c r="H50" s="0">
-        <v>-0.018877567961999984</v>
+        <v>-0.25651353105999997</v>
       </c>
       <c r="I50" s="0">
-        <v>-0.081552344020000028</v>
+        <v>0.048224468729999991</v>
       </c>
       <c r="J50" s="0">
-        <v>0.08492152484200001</v>
+        <v>-0.12787740264000003</v>
       </c>
       <c r="K50" s="0">
-        <v>-0.040229142596000009</v>
+        <v>0.065651893374</v>
       </c>
       <c r="L50" s="0">
-        <v>0.14214023853800001</v>
+        <v>-0.082790838233999992</v>
       </c>
       <c r="M50" s="0">
-        <v>0.31319975821999996</v>
+        <v>-0.045613992020000008</v>
       </c>
       <c r="N50" s="0">
-        <v>0.12814766079999998</v>
+        <v>-0.073874748682000002</v>
       </c>
       <c r="O50" s="0">
         <v>0.3814151717</v>
@@ -12247,46 +12541,46 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.19925977918999999</v>
+        <v>0.44720758327500004</v>
       </c>
       <c r="B51" s="0">
-        <v>0.41845515750000001</v>
+        <v>0.61870060401500004</v>
       </c>
       <c r="C51" s="0">
-        <v>0.1428296838</v>
+        <v>0.37785885827499999</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0056951915749999804</v>
+        <v>0.27727894180000001</v>
       </c>
       <c r="E51" s="0">
-        <v>-0.11178035683750004</v>
+        <v>0.027456172450000038</v>
       </c>
       <c r="F51" s="0">
-        <v>0.065622672349999994</v>
+        <v>0.28975595652499997</v>
       </c>
       <c r="G51" s="0">
-        <v>0.15276664044999999</v>
+        <v>0.34980306812500001</v>
       </c>
       <c r="H51" s="0">
-        <v>0.41639153237499998</v>
+        <v>0.61947150262499995</v>
       </c>
       <c r="I51" s="0">
-        <v>-0.13126112307499999</v>
+        <v>0.032870878349999993</v>
       </c>
       <c r="J51" s="0">
-        <v>1.0426522544825001</v>
+        <v>0.83989436705000009</v>
       </c>
       <c r="K51" s="0">
-        <v>0.16470430537875003</v>
+        <v>0.43175430042499996</v>
       </c>
       <c r="L51" s="0">
-        <v>-0.028967803474999998</v>
+        <v>0.099032796100000015</v>
       </c>
       <c r="M51" s="0">
-        <v>-0.35602491817499998</v>
+        <v>-0.053050557599999965</v>
       </c>
       <c r="N51" s="0">
-        <v>-0.22564121790000005</v>
+        <v>0.15965113892499996</v>
       </c>
       <c r="O51" s="0">
         <v>-1.1064945479999999</v>
@@ -12459,46 +12753,46 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>-0.33944208357500005</v>
+        <v>-0.57193563189999996</v>
       </c>
       <c r="B52" s="0">
-        <v>-0.37496392201000006</v>
+        <v>-0.62378551127250004</v>
       </c>
       <c r="C52" s="0">
-        <v>-0.21503238149999998</v>
+        <v>-0.420907309575</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.056997943149999994</v>
+        <v>-0.34313125882499995</v>
       </c>
       <c r="E52" s="0">
-        <v>-0.54724176707499994</v>
+        <v>-0.54792294782750006</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.37307445172999998</v>
+        <v>-0.48342957387500002</v>
       </c>
       <c r="G52" s="0">
-        <v>-0.3802512442</v>
+        <v>-0.48333162877499997</v>
       </c>
       <c r="H52" s="0">
-        <v>-0.23085439183500001</v>
+        <v>-0.20427072222499998</v>
       </c>
       <c r="I52" s="0">
-        <v>-0.2921029187975</v>
+        <v>-0.15964696472749998</v>
       </c>
       <c r="J52" s="0">
-        <v>-0.12852842582999999</v>
+        <v>-0.18851490439000002</v>
       </c>
       <c r="K52" s="0">
-        <v>-0.097861164187499988</v>
+        <v>-0.26176031884000001</v>
       </c>
       <c r="L52" s="0">
-        <v>-0.57045648527500004</v>
+        <v>-0.7127461746</v>
       </c>
       <c r="M52" s="0">
-        <v>-0.22761625132249996</v>
+        <v>-0.32304998642499994</v>
       </c>
       <c r="N52" s="0">
-        <v>-0.58981100387500007</v>
+        <v>-0.45194121640249996</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>
@@ -12671,46 +12965,46 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>-0.6152199831666666</v>
+        <v>-0.43440893413333331</v>
       </c>
       <c r="B53" s="0">
-        <v>-0.48961685188333343</v>
+        <v>-0.26746878094400001</v>
       </c>
       <c r="C53" s="0">
-        <v>-0.30313926887000003</v>
+        <v>-0.14072008601666669</v>
       </c>
       <c r="D53" s="0">
-        <v>-0.035267152333333336</v>
+        <v>0.057768459110000003</v>
       </c>
       <c r="E53" s="0">
-        <v>-0.60779118873333338</v>
+        <v>-0.42081293070000009</v>
       </c>
       <c r="F53" s="0">
-        <v>-0.10968015980000001</v>
+        <v>0.021342945766666659</v>
       </c>
       <c r="G53" s="0">
-        <v>0.11503947892666666</v>
+        <v>0.21437384646700006</v>
       </c>
       <c r="H53" s="0">
-        <v>0.0024838254100000012</v>
+        <v>0.096737593559999988</v>
       </c>
       <c r="I53" s="0">
-        <v>-0.55930822466666663</v>
+        <v>-0.33987850593333335</v>
       </c>
       <c r="J53" s="0">
-        <v>-0.27374326789999998</v>
+        <v>0.056421349466666659</v>
       </c>
       <c r="K53" s="0">
-        <v>0.041176115266666681</v>
+        <v>0.088863727100000012</v>
       </c>
       <c r="L53" s="0">
-        <v>-0.75269883013333327</v>
+        <v>-0.49678464264000005</v>
       </c>
       <c r="M53" s="0">
-        <v>-0.78019503653333333</v>
+        <v>-0.44335684653333329</v>
       </c>
       <c r="N53" s="0">
-        <v>-0.33367815718000005</v>
+        <v>-0.12926540365999997</v>
       </c>
     </row>
   </sheetData>

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -13,7 +13,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -1941,46 +2067,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>598</v>
+        <v>640</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="O1" s="0">
         <v>-0.36030029759999999</v>

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,143 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD29F58-84CF-E948-AC4E-1ED19D9180D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" fullCalcOnLoad="true" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -82,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,12 +216,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,2394 +540,2398 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="BS53" sqref="BS53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
-    <col min="12" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="14.5" customWidth="1"/>
-    <col min="20" max="20" width="15.5" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" customWidth="1"/>
-    <col min="22" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="15.5" customWidth="1"/>
-    <col min="28" max="28" width="15.6640625" customWidth="1"/>
-    <col min="29" max="30" width="14.5" customWidth="1"/>
-    <col min="31" max="31" width="14.6640625" customWidth="1"/>
-    <col min="32" max="33" width="15.5" customWidth="1"/>
-    <col min="34" max="35" width="14.5" customWidth="1"/>
-    <col min="36" max="37" width="15.5" customWidth="1"/>
-    <col min="38" max="38" width="14.5" customWidth="1"/>
-    <col min="39" max="39" width="14.6640625" customWidth="1"/>
-    <col min="40" max="41" width="14.5" customWidth="1"/>
-    <col min="42" max="42" width="15.5" customWidth="1"/>
-    <col min="43" max="44" width="14.5" customWidth="1"/>
-    <col min="45" max="45" width="15.6640625" customWidth="1"/>
-    <col min="46" max="46" width="14.5" customWidth="1"/>
-    <col min="47" max="47" width="14.6640625" customWidth="1"/>
-    <col min="48" max="49" width="14.5" customWidth="1"/>
-    <col min="50" max="50" width="14.6640625" customWidth="1"/>
-    <col min="51" max="51" width="14.5" customWidth="1"/>
-    <col min="52" max="52" width="13.6640625" customWidth="1"/>
-    <col min="53" max="53" width="15.5" customWidth="1"/>
-    <col min="54" max="54" width="14.5" customWidth="1"/>
-    <col min="55" max="55" width="15.5" customWidth="1"/>
-    <col min="56" max="57" width="14.5" customWidth="1"/>
-    <col min="58" max="58" width="15.5" customWidth="1"/>
-    <col min="59" max="60" width="14.5" customWidth="1"/>
-    <col min="61" max="61" width="13.6640625" customWidth="1"/>
-    <col min="62" max="62" width="14.5" customWidth="1"/>
-    <col min="63" max="63" width="13.6640625" customWidth="1"/>
-    <col min="64" max="64" width="14.5" customWidth="1"/>
-    <col min="65" max="65" width="14.6640625" customWidth="1"/>
-    <col min="66" max="66" width="14.5" customWidth="1"/>
-    <col min="67" max="68" width="15.5" customWidth="1"/>
-    <col min="69" max="69" width="14.5" customWidth="1"/>
-    <col min="70" max="70" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.42578125" customWidth="true"/>
+    <col min="7" max="7" width="14.42578125" customWidth="true"/>
+    <col min="8" max="8" width="15.42578125" customWidth="true"/>
+    <col min="10" max="10" width="14.42578125" customWidth="true"/>
+    <col min="11" max="11" width="14.7109375" customWidth="true"/>
+    <col min="12" max="12" width="16.42578125" customWidth="true"/>
+    <col min="14" max="14" width="14.42578125" customWidth="true"/>
+    <col min="16" max="17" width="15.5" customWidth="true"/>
+    <col min="18" max="18" width="14.6640625" customWidth="true"/>
+    <col min="19" max="19" width="14.5" customWidth="true"/>
+    <col min="20" max="20" width="15.5" customWidth="true"/>
+    <col min="21" max="21" width="14.6640625" customWidth="true"/>
+    <col min="22" max="26" width="14.5" customWidth="true"/>
+    <col min="27" max="27" width="15.5" customWidth="true"/>
+    <col min="28" max="28" width="15.6640625" customWidth="true"/>
+    <col min="29" max="30" width="14.5" customWidth="true"/>
+    <col min="31" max="31" width="14.6640625" customWidth="true"/>
+    <col min="32" max="33" width="15.5" customWidth="true"/>
+    <col min="34" max="35" width="14.5" customWidth="true"/>
+    <col min="36" max="37" width="15.5" customWidth="true"/>
+    <col min="38" max="38" width="14.5" customWidth="true"/>
+    <col min="39" max="39" width="14.6640625" customWidth="true"/>
+    <col min="40" max="41" width="14.5" customWidth="true"/>
+    <col min="42" max="42" width="15.5" customWidth="true"/>
+    <col min="43" max="44" width="14.5" customWidth="true"/>
+    <col min="45" max="45" width="15.6640625" customWidth="true"/>
+    <col min="46" max="46" width="14.5" customWidth="true"/>
+    <col min="47" max="47" width="14.6640625" customWidth="true"/>
+    <col min="48" max="49" width="14.5" customWidth="true"/>
+    <col min="50" max="50" width="14.6640625" customWidth="true"/>
+    <col min="51" max="51" width="14.5" customWidth="true"/>
+    <col min="52" max="52" width="13.6640625" customWidth="true"/>
+    <col min="53" max="53" width="15.5" customWidth="true"/>
+    <col min="54" max="54" width="14.5" customWidth="true"/>
+    <col min="55" max="55" width="15.5" customWidth="true"/>
+    <col min="56" max="57" width="14.5" customWidth="true"/>
+    <col min="58" max="58" width="15.5" customWidth="true"/>
+    <col min="59" max="60" width="14.5" customWidth="true"/>
+    <col min="61" max="61" width="13.6640625" customWidth="true"/>
+    <col min="62" max="62" width="14.5" customWidth="true"/>
+    <col min="63" max="63" width="13.6640625" customWidth="true"/>
+    <col min="64" max="64" width="14.5" customWidth="true"/>
+    <col min="65" max="65" width="14.6640625" customWidth="true"/>
+    <col min="66" max="66" width="14.5" customWidth="true"/>
+    <col min="67" max="68" width="15.5" customWidth="true"/>
+    <col min="69" max="69" width="14.5" customWidth="true"/>
+    <col min="70" max="70" width="14.6640625" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="9" max="9" width="15.42578125" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="15" max="15" width="14.5" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-6.3339606725000025E-2</v>
-      </c>
-      <c r="B2">
-        <v>5.6187006749999768E-3</v>
-      </c>
-      <c r="C2">
-        <v>7.0126625054999989E-2</v>
-      </c>
-      <c r="D2">
-        <v>3.7497279999998412E-4</v>
-      </c>
-      <c r="E2">
-        <v>8.2438606499999997E-2</v>
-      </c>
-      <c r="F2">
-        <v>-9.8252209044999997E-2</v>
-      </c>
-      <c r="G2">
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>-0.063339606725000025</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.0056187006749999768</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.070126625054999989</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.00037497279999998412</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.082438606499999997</v>
+      </c>
+      <c r="F2" s="0">
+        <v>-0.098252209044999997</v>
+      </c>
+      <c r="G2" s="0">
         <v>-0.17124169665</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>-0.11586068652499999</v>
       </c>
-      <c r="I2">
-        <v>2.0342380639999991E-2</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="0">
+        <v>0.020342380639999991</v>
+      </c>
+      <c r="J2" s="0">
         <v>0.10533918912500001</v>
       </c>
-      <c r="K2">
-        <v>-4.5996491000000125E-3</v>
-      </c>
-      <c r="L2">
-        <v>-3.9205498547499995E-2</v>
-      </c>
-      <c r="M2">
-        <v>1.5872804535000007E-2</v>
-      </c>
-      <c r="N2">
+      <c r="K2" s="0">
+        <v>-0.0045996491000000125</v>
+      </c>
+      <c r="L2" s="0">
+        <v>-0.039205498547499995</v>
+      </c>
+      <c r="M2" s="0">
+        <v>0.015872804535000007</v>
+      </c>
+      <c r="N2" s="0">
         <v>-0.1236102826475</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
         <v>-0.12190965093999999</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>-0.46303203731999998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>-0.59417880265999989</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>-0.28341996178000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>-0.42311957725999993</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>-0.59991508543999994</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>-0.33110076925399995</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>-0.279990904032</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>-0.53784157962000001</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0">
         <v>-0.13308069155999999</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="0">
         <v>-0.85872295828799994</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>-0.47800881804599998</v>
       </c>
-      <c r="M3">
-        <v>-7.3792004800000031E-3</v>
-      </c>
-      <c r="N3">
+      <c r="M3" s="0">
+        <v>-0.0073792004800000031</v>
+      </c>
+      <c r="N3" s="0">
         <v>-0.40698323407399994</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-4.5824388798000007E-2</v>
-      </c>
-      <c r="B4">
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
+        <v>-0.045824388798000007</v>
+      </c>
+      <c r="B4" s="0">
         <v>0.13406402436599998</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>0.43079300396000003</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.21442424582</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.13417337153999997</v>
       </c>
-      <c r="F4">
-        <v>7.1190644160000011E-2</v>
-      </c>
-      <c r="G4">
-        <v>9.5871614999999993E-2</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="0">
+        <v>0.071190644160000011</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.095871614999999993</v>
+      </c>
+      <c r="H4" s="0">
         <v>0.16366998540399999</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>-0.11928051776599999</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0">
         <v>0.71292516303200004</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="0">
         <v>0.17918962581600001</v>
       </c>
-      <c r="L4">
-        <v>-6.6781175120000022E-2</v>
-      </c>
-      <c r="M4">
+      <c r="L4" s="0">
+        <v>-0.066781175120000022</v>
+      </c>
+      <c r="M4" s="0">
         <v>-0.41402743800399999</v>
       </c>
-      <c r="N4">
-        <v>-6.6676969814000023E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>7.9834165280000022E-2</v>
-      </c>
-      <c r="B5">
-        <v>-3.0615445252000002E-2</v>
-      </c>
-      <c r="C5">
-        <v>8.0349093698000001E-2</v>
-      </c>
-      <c r="D5">
+      <c r="N4" s="0">
+        <v>-0.066676969814000023</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
+        <v>0.079834165280000022</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.030615445252000002</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.080349093698000001</v>
+      </c>
+      <c r="D5" s="0">
         <v>-0.21639967577999997</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>-0.16443188285999999</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>-0.100729576444</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>-0.22600571549000001</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>-0.10736519503399999</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>0.23355627250799998</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0">
         <v>-0.12552637855999998</v>
       </c>
-      <c r="K5">
-        <v>1.6963570693999973E-2</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="0">
+        <v>0.016963570693999973</v>
+      </c>
+      <c r="L5" s="0">
         <v>-0.24596928686800004</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0">
         <v>-0.21830422014</v>
       </c>
-      <c r="N5">
-        <v>1.8413177660000012E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="N5" s="0">
+        <v>0.018413177660000012</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
         <v>0.12028841264000001</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>0.17989594587399999</v>
       </c>
-      <c r="C6">
-        <v>3.0171364080000002E-2</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="0">
+        <v>0.030171364080000002</v>
+      </c>
+      <c r="D6" s="0">
         <v>0.15921456703999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>0.13157698256</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>0.15834647248199998</v>
       </c>
-      <c r="G6">
-        <v>7.3738345043999995E-2</v>
-      </c>
-      <c r="H6">
-        <v>2.8964570059999993E-2</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="0">
+        <v>0.073738345043999995</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.028964570059999993</v>
+      </c>
+      <c r="I6" s="0">
         <v>0.17437361516800004</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="0">
         <v>0.33913502043999999</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="0">
         <v>0.30980127984</v>
       </c>
-      <c r="L6">
-        <v>-4.7457468540000013E-2</v>
-      </c>
-      <c r="M6">
-        <v>-3.3072042268000021E-2</v>
-      </c>
-      <c r="N6">
-        <v>4.0338870062000008E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="L6" s="0">
+        <v>-0.047457468540000013</v>
+      </c>
+      <c r="M6" s="0">
+        <v>-0.033072042268000021</v>
+      </c>
+      <c r="N6" s="0">
+        <v>0.040338870062000008</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
         <v>0.13818495780599999</v>
       </c>
-      <c r="B7">
-        <v>-3.8006980760000017E-2</v>
-      </c>
-      <c r="C7">
-        <v>-3.0096002392000009E-2</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="0">
+        <v>-0.038006980760000017</v>
+      </c>
+      <c r="C7" s="0">
+        <v>-0.030096002392000009</v>
+      </c>
+      <c r="D7" s="0">
         <v>0.11172677316200001</v>
       </c>
-      <c r="E7">
-        <v>9.7819106185999996E-2</v>
-      </c>
-      <c r="F7">
-        <v>-3.5761677740000011E-2</v>
-      </c>
-      <c r="G7">
+      <c r="E7" s="0">
+        <v>0.097819106185999996</v>
+      </c>
+      <c r="F7" s="0">
+        <v>-0.035761677740000011</v>
+      </c>
+      <c r="G7" s="0">
         <v>0.22919954025799999</v>
       </c>
-      <c r="H7">
-        <v>-3.0874216828000001E-2</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="0">
+        <v>-0.030874216828000001</v>
+      </c>
+      <c r="I7" s="0">
         <v>-0.13258873458939999</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0">
         <v>-0.29615941386</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="0">
         <v>0.12004163473999999</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0">
         <v>0.56145281205999997</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0">
         <v>0.34587157874000002</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <v>0.23989430183999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
         <v>-0.25812746972000006</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>-0.31047272140800003</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>-0.32600955568399997</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>-0.2181308558</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>-0.36999648281999997</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>-0.23553738172000002</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>-0.10206985449999997</v>
       </c>
-      <c r="H8">
-        <v>-6.0795018731999974E-2</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="0">
+        <v>-0.060795018731999974</v>
+      </c>
+      <c r="I8" s="0">
         <v>-0.26911498443999998</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0">
         <v>-0.6378362942000001</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0">
         <v>-0.17668098184000006</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0">
         <v>-0.46186076710000001</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0">
         <v>-0.53706566469999995</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0">
         <v>-0.44322106512000004</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
         <v>-0.20173030602200001</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>-0.33968921131800001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>-0.37334272004000002</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>-0.50012880447200003</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>-0.48329482229999998</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>-0.32665765836740002</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>-0.28207584038800004</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>-0.35115810149999999</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>-0.12383451748400001</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0">
         <v>-1.3289792353199998</v>
       </c>
-      <c r="K9">
-        <v>3.1684692393999993E-2</v>
-      </c>
-      <c r="L9">
+      <c r="K9" s="0">
+        <v>0.031684692393999993</v>
+      </c>
+      <c r="L9" s="0">
         <v>-0.62753735571199987</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="0">
         <v>0.11758126501999999</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0">
         <v>-0.93030675343199998</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
         <v>-0.17051830381999999</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>-0.31427215454000001</v>
       </c>
-      <c r="C10">
-        <v>-7.3678214293999983E-2</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="0">
+        <v>-0.073678214293999983</v>
+      </c>
+      <c r="D10" s="0">
         <v>0.15677092089799999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>0.28213276747999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>0.16179615259999997</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>-0.23851159348000001</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>-0.47654944458799997</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>-0.11025240354480001</v>
       </c>
-      <c r="J10">
-        <v>-5.2285252000000559E-4</v>
-      </c>
-      <c r="K10">
-        <v>6.2406214059999993E-3</v>
-      </c>
-      <c r="L10">
+      <c r="J10" s="0">
+        <v>-0.00052285252000000559</v>
+      </c>
+      <c r="K10" s="0">
+        <v>0.0062406214059999993</v>
+      </c>
+      <c r="L10" s="0">
         <v>-0.24845772578799999</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="0">
         <v>-0.15683255282</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <v>0.15352078156000004</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
         <v>0.34336882660439999</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>0.41499136685999993</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>-0.1591009575</v>
       </c>
-      <c r="D11">
-        <v>-5.3069796023000014E-2</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="0">
+        <v>-0.053069796023000014</v>
+      </c>
+      <c r="E11" s="0">
         <v>0.35272531437999993</v>
       </c>
-      <c r="F11">
-        <v>9.7605556440000019E-2</v>
-      </c>
-      <c r="G11">
-        <v>6.4280368308000019E-2</v>
-      </c>
-      <c r="H11">
-        <v>6.180267379999993E-3</v>
-      </c>
-      <c r="I11">
+      <c r="F11" s="0">
+        <v>0.097605556440000019</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.064280368308000019</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.006180267379999993</v>
+      </c>
+      <c r="I11" s="0">
         <v>0.13823230070100001</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0">
         <v>-0.30404736371999996</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0">
         <v>-0.39439651477800003</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0">
         <v>-0.11367188632</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="0">
         <v>-0.23551083038199999</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <v>-0.15048131258</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
         <v>-0.11052264167199999</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>-0.27743020948800001</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>-0.39555675772339999</v>
       </c>
-      <c r="D12">
-        <v>2.587199267E-2</v>
-      </c>
-      <c r="E12">
-        <v>-9.4909540819999999E-2</v>
-      </c>
-      <c r="F12">
-        <v>6.6742546880000003E-2</v>
-      </c>
-      <c r="G12">
-        <v>1.7287302726000001E-2</v>
-      </c>
-      <c r="H12">
+      <c r="D12" s="0">
+        <v>0.02587199267</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.094909540819999999</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.066742546880000003</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.017287302726000001</v>
+      </c>
+      <c r="H12" s="0">
         <v>-0.28609827704599999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>-0.18056355293800003</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="0">
         <v>-0.19093721733999999</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0">
         <v>-0.31769041694</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="0">
         <v>-0.14616127210999999</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="0">
         <v>0.12359440176</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <v>-0.75201210938000007</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
         <v>0.19529811410000003</v>
       </c>
-      <c r="B13">
-        <v>5.3765507820000003E-2</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="0">
+        <v>0.053765507820000003</v>
+      </c>
+      <c r="C13" s="0">
         <v>0.149267446764</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>0.38017347089599995</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>0.47279168518999992</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>0.26116997171999995</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>0.17903193246800003</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>0.121502504016</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>0.49033942074000009</v>
       </c>
-      <c r="J13">
-        <v>3.9676074700000022E-2</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="0">
+        <v>0.039676074700000022</v>
+      </c>
+      <c r="K13" s="0">
         <v>0.21430202207639998</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="0">
         <v>0.44383049724599999</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="0">
         <v>0.57108237110000004</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="0">
         <v>0.5418150573160001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>-4.4928728009999995E-2</v>
-      </c>
-      <c r="B14">
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>-0.044928728009999995</v>
+      </c>
+      <c r="B14" s="0">
         <v>-0.36741998673999998</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>-0.31912925865999997</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>-0.26401620754600003</v>
       </c>
-      <c r="E14">
-        <v>-4.5789884280000012E-2</v>
-      </c>
-      <c r="F14">
-        <v>4.8853355221999996E-2</v>
-      </c>
-      <c r="G14">
+      <c r="E14" s="0">
+        <v>-0.045789884280000012</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.048853355221999996</v>
+      </c>
+      <c r="G14" s="0">
         <v>-0.54502521798000003</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>-0.34907628918</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>-0.16679148546200001</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="0">
         <v>-0.46940982805999998</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <v>-0.53993644857199996</v>
       </c>
-      <c r="L14">
-        <v>-7.4943640727999999E-2</v>
-      </c>
-      <c r="M14">
-        <v>-4.2349152500000001E-2</v>
-      </c>
-      <c r="N14">
+      <c r="L14" s="0">
+        <v>-0.074943640727999999</v>
+      </c>
+      <c r="M14" s="0">
+        <v>-0.042349152500000001</v>
+      </c>
+      <c r="N14" s="0">
         <v>-0.145966857176</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>-1.6045560457999986E-2</v>
-      </c>
-      <c r="B15">
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>-0.016045560457999986</v>
+      </c>
+      <c r="B15" s="0">
         <v>-0.34538539338000002</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>-0.49162606530000003</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>-0.53780678723800002</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>-0.60445359785999986</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>-0.21207464549999999</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>-0.20353427501999999</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>-0.29702182789999998</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>-0.30053985473400002</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="0">
         <v>0.15345969570000001</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <v>-0.78200446448000005</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="0">
         <v>-0.66264059659999996</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="0">
         <v>-0.8277492650399999</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0">
         <v>-0.66411143567999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>-7.3890166314E-2</v>
-      </c>
-      <c r="B16">
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>-0.073890166314</v>
+      </c>
+      <c r="B16" s="0">
         <v>-0.24023834180200004</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>-0.18509670822600002</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>-0.33656895956199995</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>-0.18865623926000002</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>-0.26948986024599997</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>-0.22066168086000001</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>-0.19876626246000001</v>
       </c>
-      <c r="I16">
-        <v>9.456482649600001E-2</v>
-      </c>
-      <c r="J16">
+      <c r="I16" s="0">
+        <v>0.09456482649600001</v>
+      </c>
+      <c r="J16" s="0">
         <v>-0.37713523506000002</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <v>0.24803269959399996</v>
       </c>
-      <c r="L16">
-        <v>-1.713259968599997E-2</v>
-      </c>
-      <c r="M16">
+      <c r="L16" s="0">
+        <v>-0.01713259968599997</v>
+      </c>
+      <c r="M16" s="0">
         <v>-0.14584931001399998</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0">
         <v>-0.26459664932400001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
         <v>-0.23344497628000002</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>-0.16073316744800001</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>-0.31965472690000002</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>-0.20277506094</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>-0.16038680042000003</v>
       </c>
-      <c r="F17">
-        <v>3.7944618608000011E-2</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="0">
+        <v>0.037944618608000011</v>
+      </c>
+      <c r="G17" s="0">
         <v>-0.27319941264599995</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>-0.22654307010000002</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>-0.28842580083200003</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0">
         <v>-0.39832654668</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="0">
         <v>-0.36853563929600003</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="0">
         <v>-0.55236749935200002</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="0">
         <v>0.1415053456</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="0">
         <v>-0.55674936769999994</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
         <v>0.259603402825</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>0.36912333445000001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>0.38117260134999997</v>
       </c>
-      <c r="D18">
-        <v>-7.7659556025000021E-2</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="0">
+        <v>-0.077659556025000021</v>
+      </c>
+      <c r="E18" s="0">
         <v>0.15486780213249995</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>0.24440780108499999</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>0.13666964249999997</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>0.23948625075500002</v>
       </c>
-      <c r="I18">
-        <v>-7.1653099902499962E-2</v>
-      </c>
-      <c r="J18">
-        <v>-6.475673903250001E-2</v>
-      </c>
-      <c r="K18">
+      <c r="I18" s="0">
+        <v>-0.071653099902499962</v>
+      </c>
+      <c r="J18" s="0">
+        <v>-0.06475673903250001</v>
+      </c>
+      <c r="K18" s="0">
         <v>0.44551375303750002</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0">
         <v>0.35622294607499999</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="0">
         <v>0.32120223613750004</v>
       </c>
-      <c r="N18">
-        <v>-1.9264697612499992E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="N18" s="0">
+        <v>-0.019264697612499992</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
         <v>0.10654448919499999</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>-0.31853296372249995</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>-0.12938196097499999</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>0.31274764250000003</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>0.61261669197250002</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>0.22022353077500001</v>
       </c>
-      <c r="G19">
-        <v>1.5825938264999992E-2</v>
-      </c>
-      <c r="H19">
-        <v>6.6138658150000001E-2</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="0">
+        <v>0.015825938264999992</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.066138658150000001</v>
+      </c>
+      <c r="I19" s="0">
         <v>0.11396068180000003</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="0">
         <v>-0.20134657862500005</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <v>-0.27013022715000001</v>
       </c>
-      <c r="L19">
-        <v>8.2581148460000003E-2</v>
-      </c>
-      <c r="M19">
-        <v>7.2678806322499984E-2</v>
-      </c>
-      <c r="N19">
+      <c r="L19" s="0">
+        <v>0.082581148460000003</v>
+      </c>
+      <c r="M19" s="0">
+        <v>0.072678806322499984</v>
+      </c>
+      <c r="N19" s="0">
         <v>-0.29495723225000003</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
         <v>-0.27329745697200003</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>-0.48144794637999999</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>-0.34998670009399996</v>
       </c>
-      <c r="D20">
-        <v>3.0968809244000001E-2</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="0">
+        <v>0.030968809244000001</v>
+      </c>
+      <c r="E20" s="0">
         <v>0.23064006003999998</v>
       </c>
-      <c r="F20">
-        <v>-4.200954192000006E-3</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="0">
+        <v>-0.004200954192000006</v>
+      </c>
+      <c r="G20" s="0">
         <v>-0.29173973508000001</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>-0.45236376136000001</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>-0.26932649602000003</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="0">
         <v>-0.31415393252400003</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <v>-0.18133750285799999</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0">
         <v>-0.11973347985999998</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="0">
         <v>-0.19418346918000001</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="0">
         <v>-0.37459201917999996</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="0">
         <v>0.14812582702000002</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>0.29659971905600002</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>0.224966572812</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>0.128383272976</v>
       </c>
-      <c r="E21">
-        <v>-7.2321381399999995E-2</v>
-      </c>
-      <c r="F21">
-        <v>4.3607015520000021E-2</v>
-      </c>
-      <c r="G21">
-        <v>-1.6190103199999917E-3</v>
-      </c>
-      <c r="H21">
+      <c r="E21" s="0">
+        <v>-0.072321381399999995</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.043607015520000021</v>
+      </c>
+      <c r="G21" s="0">
+        <v>-0.0016190103199999917</v>
+      </c>
+      <c r="H21" s="0">
         <v>0.229936856986</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>0.34010210310999994</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="0">
         <v>0.17877923102000004</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0">
         <v>0.40574699762999999</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="0">
         <v>0.20628181692800002</v>
       </c>
-      <c r="M21">
-        <v>-4.675058881999998E-2</v>
-      </c>
-      <c r="N21">
+      <c r="M21" s="0">
+        <v>-0.04675058881999998</v>
+      </c>
+      <c r="N21" s="0">
         <v>0.11291793566000004</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="0">
         <v>-0.23661975798249998</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>-0.20783356362500002</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>-0.19673185962500001</v>
       </c>
-      <c r="D22">
-        <v>-2.7593690949999986E-3</v>
-      </c>
-      <c r="E22">
-        <v>-7.7544199830000007E-2</v>
-      </c>
-      <c r="F22">
+      <c r="D22" s="0">
+        <v>-0.0027593690949999986</v>
+      </c>
+      <c r="E22" s="0">
+        <v>-0.077544199830000007</v>
+      </c>
+      <c r="F22" s="0">
         <v>-0.31380762285999997</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>-0.31796781304474997</v>
       </c>
-      <c r="H22">
-        <v>-9.6455564425000015E-3</v>
-      </c>
-      <c r="I22">
+      <c r="H22" s="0">
+        <v>-0.0096455564425000015</v>
+      </c>
+      <c r="I22" s="0">
         <v>-0.13853244710000001</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="0">
         <v>-0.40748365052250002</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <v>-0.14219240688500001</v>
       </c>
-      <c r="L22">
-        <v>-7.3647339749999999E-2</v>
-      </c>
-      <c r="M22">
+      <c r="L22" s="0">
+        <v>-0.073647339749999999</v>
+      </c>
+      <c r="M22" s="0">
         <v>-0.11051214329999999</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="0">
         <v>-0.26262797742499999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="0">
         <v>-0.18157923237499998</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>-0.41662939271249999</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>-0.16326548962499998</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>-0.1164313566725</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>-0.34791742240500001</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>-0.20851815370000004</v>
       </c>
-      <c r="G23">
-        <v>-4.2834540975000002E-2</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="0">
+        <v>-0.042834540975000002</v>
+      </c>
+      <c r="H23" s="0">
         <v>-0.12507389682499997</v>
       </c>
-      <c r="I23">
-        <v>-5.2971558524999976E-2</v>
-      </c>
-      <c r="J23">
+      <c r="I23" s="0">
+        <v>-0.052971558524999976</v>
+      </c>
+      <c r="J23" s="0">
         <v>-0.10072621709999993</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0">
         <v>-0.31657466752500008</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="0">
         <v>-0.18961524087500001</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="0">
         <v>-0.37920551135000002</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="0">
         <v>-0.46708473437500003</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="0">
         <v>0.20634645620600001</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>0.21045031750000001</v>
       </c>
-      <c r="C24">
-        <v>8.4635765439999996E-2</v>
-      </c>
-      <c r="D24">
-        <v>-3.7556420940000002E-2</v>
-      </c>
-      <c r="E24">
-        <v>-2.6089951759999997E-2</v>
-      </c>
-      <c r="F24">
-        <v>1.3281049299999991E-2</v>
-      </c>
-      <c r="G24">
-        <v>-6.7033445041999998E-2</v>
-      </c>
-      <c r="H24">
+      <c r="C24" s="0">
+        <v>0.084635765439999996</v>
+      </c>
+      <c r="D24" s="0">
+        <v>-0.037556420940000002</v>
+      </c>
+      <c r="E24" s="0">
+        <v>-0.026089951759999997</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.013281049299999991</v>
+      </c>
+      <c r="G24" s="0">
+        <v>-0.067033445041999998</v>
+      </c>
+      <c r="H24" s="0">
         <v>0.12562390845399998</v>
       </c>
-      <c r="I24">
-        <v>-1.0733656880000008E-2</v>
-      </c>
-      <c r="J24">
+      <c r="I24" s="0">
+        <v>-0.010733656880000008</v>
+      </c>
+      <c r="J24" s="0">
         <v>0.13104047269999999</v>
       </c>
-      <c r="K24">
-        <v>2.6673184659999995E-2</v>
-      </c>
-      <c r="L24">
-        <v>8.8928946580000015E-2</v>
-      </c>
-      <c r="M24">
-        <v>4.4861428399999979E-2</v>
-      </c>
-      <c r="N24">
+      <c r="K24" s="0">
+        <v>0.026673184659999995</v>
+      </c>
+      <c r="L24" s="0">
+        <v>0.088928946580000015</v>
+      </c>
+      <c r="M24" s="0">
+        <v>0.044861428399999979</v>
+      </c>
+      <c r="N24" s="0">
         <v>0.26045146668000002</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" x14ac:dyDescent="0.2">
+      <c r="A25" s="0">
         <v>0.16277083119999999</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>0.19583880741399998</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>0.31620724964800007</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>0.15530113541999999</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>0.33156362406000001</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>0.294321797404</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>0.29912883812000002</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0">
         <v>0.26633837205800004</v>
       </c>
-      <c r="I25">
-        <v>8.3858311985999995E-2</v>
-      </c>
-      <c r="J25">
+      <c r="I25" s="0">
+        <v>0.083858311985999995</v>
+      </c>
+      <c r="J25" s="0">
         <v>0.61875275583599998</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="0">
         <v>0.64492110091999999</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="0">
         <v>0.25299217198320001</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="0">
         <v>0.20978542244200002</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="0">
         <v>-0.29246540666400006</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="0">
         <v>0.26069741215333336</v>
       </c>
-      <c r="B26">
-        <v>6.8039633426666676E-2</v>
-      </c>
-      <c r="C26">
-        <v>3.1002562049999998E-2</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="0">
+        <v>0.068039633426666676</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0.031002562049999998</v>
+      </c>
+      <c r="D26" s="0">
         <v>-0.2559261112666667</v>
       </c>
-      <c r="E26">
-        <v>3.7246650666666512E-3</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="0">
+        <v>0.0037246650666666512</v>
+      </c>
+      <c r="F26" s="0">
         <v>0.35185677646666669</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>0.25888162428</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>0.38162027153333328</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>0.46637981420000002</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="0">
         <v>0.16334652855666668</v>
       </c>
-      <c r="K26">
-        <v>4.8137510886666658E-2</v>
-      </c>
-      <c r="L26">
+      <c r="K26" s="0">
+        <v>0.048137510886666658</v>
+      </c>
+      <c r="L26" s="0">
         <v>0.40729006197333328</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="0">
         <v>0.79703630933333336</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="0">
         <v>0.11686673711599999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="0">
         <v>0.28860547454000002</v>
       </c>
-      <c r="B27">
-        <v>-6.0432049082000006E-2</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="0">
+        <v>-0.060432049082000006</v>
+      </c>
+      <c r="C27" s="0">
         <v>-0.15177820655400001</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>-0.12789099335999995</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>-0.12879581887999997</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>-0.15903257350980002</v>
       </c>
-      <c r="G27">
-        <v>-4.6152750822000002E-2</v>
-      </c>
-      <c r="H27">
+      <c r="G27" s="0">
+        <v>-0.046152750822000002</v>
+      </c>
+      <c r="H27" s="0">
         <v>-0.14124659523999999</v>
       </c>
-      <c r="I27">
-        <v>5.8017102320000014E-2</v>
-      </c>
-      <c r="J27">
-        <v>3.3391848489999987E-2</v>
-      </c>
-      <c r="K27">
+      <c r="I27" s="0">
+        <v>0.058017102320000014</v>
+      </c>
+      <c r="J27" s="0">
+        <v>0.033391848489999987</v>
+      </c>
+      <c r="K27" s="0">
         <v>-0.27325287987200003</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="0">
         <v>-0.180771343132</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="0">
         <v>-0.16927758550000002</v>
       </c>
-      <c r="N27">
-        <v>-1.6774903700000003E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>-2.329392313999984E-3</v>
-      </c>
-      <c r="B28">
-        <v>-9.7562366405999995E-2</v>
-      </c>
-      <c r="C28">
+      <c r="N27" s="0">
+        <v>-0.016774903700000003</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="0">
+        <v>-0.002329392313999984</v>
+      </c>
+      <c r="B28" s="0">
+        <v>-0.097562366405999995</v>
+      </c>
+      <c r="C28" s="0">
         <v>-0.108319516766</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>0.33409233712000008</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>0.48730259480000004</v>
       </c>
-      <c r="F28">
-        <v>-9.8859853582000001E-2</v>
-      </c>
-      <c r="G28">
+      <c r="F28" s="0">
+        <v>-0.098859853582000001</v>
+      </c>
+      <c r="G28" s="0">
         <v>-0.23436762565999997</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="0">
         <v>-0.11919974400399999</v>
       </c>
-      <c r="I28">
-        <v>4.5894091679999992E-2</v>
-      </c>
-      <c r="J28">
-        <v>3.3452471512000002E-2</v>
-      </c>
-      <c r="K28">
-        <v>-4.1129465720000022E-2</v>
-      </c>
-      <c r="L28">
+      <c r="I28" s="0">
+        <v>0.045894091679999992</v>
+      </c>
+      <c r="J28" s="0">
+        <v>0.033452471512000002</v>
+      </c>
+      <c r="K28" s="0">
+        <v>-0.041129465720000022</v>
+      </c>
+      <c r="L28" s="0">
         <v>0.34727018809288002</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="0">
         <v>0.32674935033999997</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="0">
         <v>0.32147694426000001</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="0">
         <v>-0.51299987750000009</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0">
         <v>-0.60315882426</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>-0.48445998169999999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>-0.57433621966400006</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>-0.84479599721999998</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>-0.88813237136000001</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0">
         <v>-0.52980314411999996</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="0">
         <v>-0.26002129243400002</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0">
         <v>-0.46681006782000001</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="0">
         <v>-0.39383254856999994</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="0">
         <v>-0.66861714714000009</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="0">
         <v>-0.97744514180800002</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="0">
         <v>-0.74542575506000008</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="0">
         <v>-0.50725000017999999</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="0">
         <v>0.20495146948000001</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0">
         <v>0.19673787740999998</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>0.28112338240000001</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>0.31134124913999994</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>0.31552584143399998</v>
       </c>
-      <c r="F30">
-        <v>8.1099611939999997E-2</v>
-      </c>
-      <c r="G30">
-        <v>6.7091928604000012E-2</v>
-      </c>
-      <c r="H30">
-        <v>5.3713779955999998E-2</v>
-      </c>
-      <c r="I30">
+      <c r="F30" s="0">
+        <v>0.081099611939999997</v>
+      </c>
+      <c r="G30" s="0">
+        <v>0.067091928604000012</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.053713779955999998</v>
+      </c>
+      <c r="I30" s="0">
         <v>0.19861087810000003</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="0">
         <v>0.45815453041999998</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="0">
         <v>0.48722581541999999</v>
       </c>
-      <c r="L30">
-        <v>-3.8798032396000007E-2</v>
-      </c>
-      <c r="M30">
+      <c r="L30" s="0">
+        <v>-0.038798032396000007</v>
+      </c>
+      <c r="M30" s="0">
         <v>0.16633625282600001</v>
       </c>
-      <c r="N30">
-        <v>9.4860079699999988E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>9.0440989240000019E-2</v>
-      </c>
-      <c r="B31">
-        <v>9.2501064300000158E-3</v>
-      </c>
-      <c r="C31">
-        <v>-3.9887556380000001E-2</v>
-      </c>
-      <c r="D31">
+      <c r="N30" s="0">
+        <v>0.094860079699999988</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.2">
+      <c r="A31" s="0">
+        <v>0.090440989240000019</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.0092501064300000158</v>
+      </c>
+      <c r="C31" s="0">
+        <v>-0.039887556380000001</v>
+      </c>
+      <c r="D31" s="0">
         <v>-0.29078415319000001</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>-0.21300893912000002</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>-0.19543592788</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0">
         <v>-0.12962781211999999</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="0">
         <v>0.11786444989800002</v>
       </c>
-      <c r="I31">
-        <v>2.2605622180000007E-3</v>
-      </c>
-      <c r="J31">
-        <v>1.5364860199999831E-3</v>
-      </c>
-      <c r="K31">
+      <c r="I31" s="0">
+        <v>0.0022605622180000007</v>
+      </c>
+      <c r="J31" s="0">
+        <v>0.0015364860199999831</v>
+      </c>
+      <c r="K31" s="0">
         <v>0.24884161912199998</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="0">
         <v>-0.63231134523999999</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="0">
         <v>-0.35544205497999998</v>
       </c>
-      <c r="N31">
-        <v>-2.3453878840000008E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>6.3033387023999993E-2</v>
-      </c>
-      <c r="B32">
+      <c r="N31" s="0">
+        <v>-0.023453878840000008</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="0">
+        <v>0.063033387023999993</v>
+      </c>
+      <c r="B32" s="0">
         <v>0.18972997528399999</v>
       </c>
-      <c r="C32">
-        <v>5.3098947886000017E-2</v>
-      </c>
-      <c r="D32">
-        <v>-7.7131672799998774E-4</v>
-      </c>
-      <c r="E32">
+      <c r="C32" s="0">
+        <v>0.053098947886000017</v>
+      </c>
+      <c r="D32" s="0">
+        <v>-0.00077131672799998774</v>
+      </c>
+      <c r="E32" s="0">
         <v>-0.135984265918</v>
       </c>
-      <c r="F32">
-        <v>3.4917140419999999E-2</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="0">
+        <v>0.034917140419999999</v>
+      </c>
+      <c r="G32" s="0">
         <v>0.13441887137200001</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="0">
         <v>-0.12770253967600001</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0">
         <v>-0.25126933253200001</v>
       </c>
-      <c r="J32">
-        <v>-8.2835546976000013E-2</v>
-      </c>
-      <c r="K32">
-        <v>7.7449787350000007E-2</v>
-      </c>
-      <c r="L32">
+      <c r="J32" s="0">
+        <v>-0.082835546976000013</v>
+      </c>
+      <c r="K32" s="0">
+        <v>0.077449787350000007</v>
+      </c>
+      <c r="L32" s="0">
         <v>-0.26666882547999993</v>
       </c>
-      <c r="M32">
-        <v>-5.0315074800000078E-3</v>
-      </c>
-      <c r="N32">
+      <c r="M32" s="0">
+        <v>-0.0050315074800000078</v>
+      </c>
+      <c r="N32" s="0">
         <v>0.32631967526399996</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="0">
         <v>0.31796575935999993</v>
       </c>
-      <c r="B33">
-        <v>-2.8224362700000005E-2</v>
-      </c>
-      <c r="C33">
-        <v>-1.4075236519999984E-2</v>
-      </c>
-      <c r="D33">
-        <v>6.1574553879999994E-2</v>
-      </c>
-      <c r="E33">
+      <c r="B33" s="0">
+        <v>-0.028224362700000005</v>
+      </c>
+      <c r="C33" s="0">
+        <v>-0.014075236519999984</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.061574553879999994</v>
+      </c>
+      <c r="E33" s="0">
         <v>-0.35043397712799995</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>0.14914319213999999</v>
       </c>
-      <c r="G33">
-        <v>-5.0978130325999994E-2</v>
-      </c>
-      <c r="H33">
+      <c r="G33" s="0">
+        <v>-0.050978130325999994</v>
+      </c>
+      <c r="H33" s="0">
         <v>0.13325466574799999</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0">
         <v>-0.12976677990000002</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="0">
         <v>-0.26610648468000003</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="0">
         <v>-0.14748443042000001</v>
       </c>
-      <c r="L33">
-        <v>-2.8963930660000005E-2</v>
-      </c>
-      <c r="M33">
+      <c r="L33" s="0">
+        <v>-0.028963930660000005</v>
+      </c>
+      <c r="M33" s="0">
         <v>-0.24313060006400003</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="0">
         <v>-0.45557891741599998</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="0">
         <v>-0.28709842332500002</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0">
         <v>-0.27696015734999996</v>
       </c>
-      <c r="C34">
-        <v>6.6860009149999969E-3</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="0">
+        <v>0.0066860009149999969</v>
+      </c>
+      <c r="D34" s="0">
         <v>-0.16945141402500002</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>-0.35243925874250004</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>-0.43293836333750002</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0">
         <v>-0.18113262052500001</v>
       </c>
-      <c r="H34">
-        <v>-7.0981948300000014E-2</v>
-      </c>
-      <c r="I34">
-        <v>-5.729710849999986E-3</v>
-      </c>
-      <c r="J34">
+      <c r="H34" s="0">
+        <v>-0.070981948300000014</v>
+      </c>
+      <c r="I34" s="0">
+        <v>-0.005729710849999986</v>
+      </c>
+      <c r="J34" s="0">
         <v>-0.27686584539999998</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="0">
         <v>-0.2230074510075</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="0">
         <v>-0.16253021644749999</v>
       </c>
-      <c r="M34">
-        <v>-7.2481414125000032E-2</v>
-      </c>
-      <c r="N34">
-        <v>-1.810579112500001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="M34" s="0">
+        <v>-0.072481414125000032</v>
+      </c>
+      <c r="N34" s="0">
+        <v>-0.01810579112500001</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.2">
+      <c r="A35" s="0">
         <v>0.17828637844</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0">
         <v>0.33629133373999992</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>-0.14194670589599998</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0">
         <v>-0.28781313060000002</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>-0.32210393577599999</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>-0.23723923125419999</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0">
         <v>-0.33211431543199998</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="0">
         <v>-0.10824108781400002</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="0">
         <v>-0.24254876112000004</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="0">
         <v>-0.37198547660000003</v>
       </c>
-      <c r="K35">
-        <v>4.733679068600001E-2</v>
-      </c>
-      <c r="L35">
-        <v>-5.3358232408000014E-2</v>
-      </c>
-      <c r="M35">
+      <c r="K35" s="0">
+        <v>0.04733679068600001</v>
+      </c>
+      <c r="L35" s="0">
+        <v>-0.053358232408000014</v>
+      </c>
+      <c r="M35" s="0">
         <v>-0.330359896514</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="0">
         <v>-0.45247226761999998</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" x14ac:dyDescent="0.2">
+      <c r="A36" s="0">
         <v>0.15840762013999998</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0">
         <v>0.19291342214000001</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>0.13026746194</v>
       </c>
-      <c r="D36">
-        <v>-1.6924051719999888E-3</v>
-      </c>
-      <c r="E36">
-        <v>-6.7196418066400004E-2</v>
-      </c>
-      <c r="F36">
+      <c r="D36" s="0">
+        <v>-0.0016924051719999888</v>
+      </c>
+      <c r="E36" s="0">
+        <v>-0.067196418066400004</v>
+      </c>
+      <c r="F36" s="0">
         <v>-0.18698463974000004</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0">
         <v>-0.20102462136000004</v>
       </c>
-      <c r="H36">
-        <v>-8.6222758439999991E-2</v>
-      </c>
-      <c r="I36">
+      <c r="H36" s="0">
+        <v>-0.086222758439999991</v>
+      </c>
+      <c r="I36" s="0">
         <v>-0.18025624676000002</v>
       </c>
-      <c r="J36">
-        <v>1.721334895379999E-2</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="0">
+        <v>0.01721334895379999</v>
+      </c>
+      <c r="K36" s="0">
         <v>-0.25095721733999998</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="0">
         <v>-0.11026961228900004</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="0">
         <v>-0.21131687469999999</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="0">
         <v>-0.41146772267799997</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>-4.8515389099999993E-2</v>
-      </c>
-      <c r="B37">
-        <v>2.2442429021999992E-2</v>
-      </c>
-      <c r="C37">
-        <v>8.9225612783999986E-2</v>
-      </c>
-      <c r="D37">
+    <row r="37" x14ac:dyDescent="0.2">
+      <c r="A37" s="0">
+        <v>-0.048515389099999993</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0.022442429021999992</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0.089225612783999986</v>
+      </c>
+      <c r="D37" s="0">
         <v>0.23146368803000006</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>0.383644252006</v>
       </c>
-      <c r="F37">
-        <v>6.9863179450000007E-2</v>
-      </c>
-      <c r="G37">
-        <v>7.1717234083999992E-2</v>
-      </c>
-      <c r="H37">
-        <v>4.8679649300000009E-2</v>
-      </c>
-      <c r="I37">
+      <c r="F37" s="0">
+        <v>0.069863179450000007</v>
+      </c>
+      <c r="G37" s="0">
+        <v>0.071717234083999992</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.048679649300000009</v>
+      </c>
+      <c r="I37" s="0">
         <v>0.20779064637800002</v>
       </c>
-      <c r="J37">
-        <v>3.053098956000002E-2</v>
-      </c>
-      <c r="K37">
-        <v>3.0679080719999974E-3</v>
-      </c>
-      <c r="L37">
+      <c r="J37" s="0">
+        <v>0.03053098956000002</v>
+      </c>
+      <c r="K37" s="0">
+        <v>0.0030679080719999974</v>
+      </c>
+      <c r="L37" s="0">
         <v>0.22722887523999996</v>
       </c>
-      <c r="M37">
-        <v>-7.0697479675999972E-2</v>
-      </c>
-      <c r="N37">
-        <v>2.5876179419999933E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="M37" s="0">
+        <v>-0.070697479675999972</v>
+      </c>
+      <c r="N37" s="0">
+        <v>0.025876179419999933</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.2">
+      <c r="A38" s="0">
         <v>0.34303131368000001</v>
       </c>
-      <c r="B38">
-        <v>6.7314346339999998E-2</v>
-      </c>
-      <c r="C38">
-        <v>1.1768279419999972E-3</v>
-      </c>
-      <c r="D38">
-        <v>-6.6287106199999497E-4</v>
-      </c>
-      <c r="E38">
-        <v>-9.1189584520000005E-2</v>
-      </c>
-      <c r="F38">
+      <c r="B38" s="0">
+        <v>0.067314346339999998</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0.0011768279419999972</v>
+      </c>
+      <c r="D38" s="0">
+        <v>-0.00066287106199999497</v>
+      </c>
+      <c r="E38" s="0">
+        <v>-0.091189584520000005</v>
+      </c>
+      <c r="F38" s="0">
         <v>0.1268872142094</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="0">
         <v>0.43074061154800003</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="0">
         <v>0.40251290829999997</v>
       </c>
-      <c r="I38">
-        <v>6.2080591966919993E-2</v>
-      </c>
-      <c r="J38">
-        <v>-3.8432387199999864E-3</v>
-      </c>
-      <c r="K38">
-        <v>1.2412596328000005E-2</v>
-      </c>
-      <c r="L38">
-        <v>1.7567036219999999E-2</v>
-      </c>
-      <c r="M38">
-        <v>-3.734047684000008E-3</v>
-      </c>
-      <c r="N38">
-        <v>-1.3081963915999983E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="I38" s="0">
+        <v>0.062080591966919993</v>
+      </c>
+      <c r="J38" s="0">
+        <v>-0.0038432387199999864</v>
+      </c>
+      <c r="K38" s="0">
+        <v>0.012412596328000005</v>
+      </c>
+      <c r="L38" s="0">
+        <v>0.017567036219999999</v>
+      </c>
+      <c r="M38" s="0">
+        <v>-0.003734047684000008</v>
+      </c>
+      <c r="N38" s="0">
+        <v>-0.013081963915999983</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.2">
+      <c r="A39" s="0">
         <v>-0.17127440141400002</v>
       </c>
-      <c r="B39">
-        <v>-8.1670548120000033E-2</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="0">
+        <v>-0.081670548120000033</v>
+      </c>
+      <c r="C39" s="0">
         <v>-0.24158087839999998</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0">
         <v>-0.37015549412000004</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>-0.27251117406000003</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>-0.28583363711999998</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0">
         <v>-0.25054201747999999</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="0">
         <v>-0.10281522648000001</v>
       </c>
-      <c r="I39">
-        <v>-2.1495291259999937E-3</v>
-      </c>
-      <c r="J39">
+      <c r="I39" s="0">
+        <v>-0.0021495291259999937</v>
+      </c>
+      <c r="J39" s="0">
         <v>-0.38283877526000004</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="0">
         <v>0.30838341045999995</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="0">
         <v>-0.13662703530799999</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="0">
         <v>0.29640374155999993</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="0">
         <v>-0.33532084834000003</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>-8.872258022E-2</v>
-      </c>
-      <c r="B40">
+    <row r="40" x14ac:dyDescent="0.2">
+      <c r="A40" s="0">
+        <v>-0.08872258022</v>
+      </c>
+      <c r="B40" s="0">
         <v>-0.38435786863999999</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>-0.68467067238599999</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0">
         <v>-0.52538681190000003</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>-0.27227063868000001</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>-0.48060765445999998</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="0">
         <v>-0.53253736800000007</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="0">
         <v>-0.28784261262799998</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="0">
         <v>-0.26161211495800002</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="0">
         <v>-0.40979904300000003</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="0">
         <v>-0.74116815720000007</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="0">
         <v>-0.74520976134599992</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="0">
         <v>-0.66987060058000003</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="0">
         <v>-0.65215878305999997</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" x14ac:dyDescent="0.2">
+      <c r="A41" s="0">
         <v>-0.24165144590600002</v>
       </c>
-      <c r="B41">
-        <v>-9.6193339101999994E-2</v>
-      </c>
-      <c r="C41">
-        <v>-8.8997562299999972E-2</v>
-      </c>
-      <c r="D41">
+      <c r="B41" s="0">
+        <v>-0.096193339101999994</v>
+      </c>
+      <c r="C41" s="0">
+        <v>-0.088997562299999972</v>
+      </c>
+      <c r="D41" s="0">
         <v>-0.12816799226</v>
       </c>
-      <c r="E41">
-        <v>6.9035401900000015E-3</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="0">
+        <v>0.0069035401900000015</v>
+      </c>
+      <c r="F41" s="0">
         <v>-0.15010649822</v>
       </c>
-      <c r="G41">
-        <v>4.3182202154000038E-2</v>
-      </c>
-      <c r="H41">
-        <v>3.1983846939000006E-2</v>
-      </c>
-      <c r="I41">
-        <v>-9.0432771120000005E-2</v>
-      </c>
-      <c r="J41">
-        <v>-9.2400238004000018E-2</v>
-      </c>
-      <c r="K41">
+      <c r="G41" s="0">
+        <v>0.043182202154000038</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0.031983846939000006</v>
+      </c>
+      <c r="I41" s="0">
+        <v>-0.090432771120000005</v>
+      </c>
+      <c r="J41" s="0">
+        <v>-0.092400238004000018</v>
+      </c>
+      <c r="K41" s="0">
         <v>-0.21006693545999999</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="0">
         <v>-0.56994116052999999</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="0">
         <v>-0.42415364868000005</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="0">
         <v>-0.16233160754799997</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" x14ac:dyDescent="0.2">
+      <c r="A42" s="0">
         <v>0.23892022555999998</v>
       </c>
-      <c r="B42">
-        <v>-5.5082159597999988E-2</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="0">
+        <v>-0.055082159597999988</v>
+      </c>
+      <c r="C42" s="0">
         <v>-0.23558269261399997</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>-0.34812335985999998</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>-0.28154700832000001</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>-0.24501491657999996</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="0">
         <v>-0.15783780606</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="0">
         <v>-0.13201754645200001</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="0">
         <v>-0.23025134887999998</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="0">
         <v>-0.64558194414000003</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="0">
         <v>-0.45530325648000003</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="0">
         <v>-0.31709955001999995</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="0">
         <v>-0.21844962612000002</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="0">
         <v>-0.50608182392000001</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>-9.9342549899999993E-2</v>
-      </c>
-      <c r="B43">
+    <row r="43" x14ac:dyDescent="0.2">
+      <c r="A43" s="0">
+        <v>-0.099342549899999993</v>
+      </c>
+      <c r="B43" s="0">
         <v>-0.18885181853240002</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>-0.21970394992000003</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>-0.55186997927999992</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>-0.54713623181999993</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>-0.24964945853999998</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="0">
         <v>-0.41511329952000003</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="0">
         <v>-0.31835093568488004</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="0">
         <v>-0.59030250732</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="0">
         <v>-0.62608172851999999</v>
       </c>
-      <c r="K43">
-        <v>2.3140955619999997E-2</v>
-      </c>
-      <c r="L43">
-        <v>4.7213396982000014E-2</v>
-      </c>
-      <c r="M43">
+      <c r="K43" s="0">
+        <v>0.023140955619999997</v>
+      </c>
+      <c r="L43" s="0">
+        <v>0.047213396982000014</v>
+      </c>
+      <c r="M43" s="0">
         <v>0.13840455969600002</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="0">
         <v>-0.85412413481999994</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" x14ac:dyDescent="0.2">
+      <c r="A44" s="0">
         <v>0.14500487538360002</v>
       </c>
-      <c r="B44">
-        <v>-5.365674614999999E-2</v>
-      </c>
-      <c r="C44">
-        <v>2.471531120000009E-3</v>
-      </c>
-      <c r="D44">
-        <v>1.6474058328000005E-2</v>
-      </c>
-      <c r="E44">
-        <v>-6.0432724548199993E-2</v>
-      </c>
-      <c r="F44">
+      <c r="B44" s="0">
+        <v>-0.05365674614999999</v>
+      </c>
+      <c r="C44" s="0">
+        <v>0.002471531120000009</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0.016474058328000005</v>
+      </c>
+      <c r="E44" s="0">
+        <v>-0.060432724548199993</v>
+      </c>
+      <c r="F44" s="0">
         <v>-0.34880840208000008</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="0">
         <v>-0.36418870679999998</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="0">
         <v>-0.15338341612</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="0">
         <v>-0.219382294984</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="0">
         <v>0.21035490028600007</v>
       </c>
-      <c r="K44">
-        <v>5.783957829240001E-2</v>
-      </c>
-      <c r="L44">
-        <v>3.2343879952400005E-2</v>
-      </c>
-      <c r="M44">
-        <v>3.7245116454000013E-2</v>
-      </c>
-      <c r="N44">
+      <c r="K44" s="0">
+        <v>0.05783957829240001</v>
+      </c>
+      <c r="L44" s="0">
+        <v>0.032343879952400005</v>
+      </c>
+      <c r="M44" s="0">
+        <v>0.037245116454000013</v>
+      </c>
+      <c r="N44" s="0">
         <v>0.22048858139999999</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45" x14ac:dyDescent="0.2">
+      <c r="A45" s="0">
         <v>-0.22452393433999998</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>-0.42774680515999997</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>-0.60222477826599996</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>-0.47775411071400004</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>-0.53915175767000001</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>-0.38694462323599998</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="0">
         <v>-0.325522451918</v>
       </c>
-      <c r="H45">
-        <v>-8.0738515425599983E-2</v>
-      </c>
-      <c r="I45">
+      <c r="H45" s="0">
+        <v>-0.080738515425599983</v>
+      </c>
+      <c r="I45" s="0">
         <v>-0.289574333746</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="0">
         <v>-0.23496150225600002</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="0">
         <v>-0.62060517382599989</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="0">
         <v>-0.57484877290000003</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="0">
         <v>-0.58573718704</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="0">
         <v>-0.69408428608000006</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46" x14ac:dyDescent="0.2">
+      <c r="A46" s="0">
         <v>-0.54869628184749997</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>-0.61763025837499996</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>-0.41324856879999999</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0">
         <v>-0.38683226457500003</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>-0.363098620175</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0">
         <v>-0.32381398037499998</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="0">
         <v>-0.67723262934999995</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="0">
         <v>-0.71271830022499993</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="0">
         <v>-0.242326588275</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="0">
         <v>-0.81410852017499991</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="0">
         <v>-0.171319853075</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="0">
         <v>-0.49577031324999998</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="0">
         <v>-0.44393838724999996</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="0">
         <v>-0.38080616832500003</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47" x14ac:dyDescent="0.2">
+      <c r="A47" s="0">
         <v>0.25961516592400002</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>0.31376273688</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>0.25633909667999999</v>
       </c>
-      <c r="D47">
-        <v>2.5520815862400004E-2</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="0">
+        <v>0.025520815862400004</v>
+      </c>
+      <c r="E47" s="0">
         <v>-0.11589974187800001</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0">
         <v>-0.22233604745999996</v>
       </c>
-      <c r="G47">
-        <v>5.2007610780000005E-2</v>
-      </c>
-      <c r="H47">
-        <v>5.2123045079999928E-3</v>
-      </c>
-      <c r="I47">
-        <v>-5.1898326140000006E-2</v>
-      </c>
-      <c r="J47">
+      <c r="G47" s="0">
+        <v>0.052007610780000005</v>
+      </c>
+      <c r="H47" s="0">
+        <v>0.0052123045079999928</v>
+      </c>
+      <c r="I47" s="0">
+        <v>-0.051898326140000006</v>
+      </c>
+      <c r="J47" s="0">
         <v>0.15052628142000002</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="0">
         <v>0.28822145581999997</v>
       </c>
-      <c r="L47">
-        <v>5.4124837200000012E-2</v>
-      </c>
-      <c r="M47">
-        <v>-9.4896728080000006E-2</v>
-      </c>
-      <c r="N47">
+      <c r="L47" s="0">
+        <v>0.054124837200000012</v>
+      </c>
+      <c r="M47" s="0">
+        <v>-0.094896728080000006</v>
+      </c>
+      <c r="N47" s="0">
         <v>0.24895233506179998</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>4.5787922062499986E-2</v>
-      </c>
-      <c r="B48">
+    <row r="48" x14ac:dyDescent="0.2">
+      <c r="A48" s="0">
+        <v>0.045787922062499986</v>
+      </c>
+      <c r="B48" s="0">
         <v>0.33056521605</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>0.28029757504999997</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0">
         <v>-0.12382340982624999</v>
       </c>
-      <c r="E48">
-        <v>2.5600726685000012E-2</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="0">
+        <v>0.025600726685000012</v>
+      </c>
+      <c r="F48" s="0">
         <v>-0.15348495312500002</v>
       </c>
-      <c r="G48">
-        <v>4.2868791449999985E-2</v>
-      </c>
-      <c r="H48">
+      <c r="G48" s="0">
+        <v>0.042868791449999985</v>
+      </c>
+      <c r="H48" s="0">
         <v>-0.15073884230500001</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="0">
         <v>-0.15848845952500001</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="0">
         <v>-0.21522283602499998</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="0">
         <v>0.53727378692499994</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="0">
         <v>0.21930938652499998</v>
       </c>
-      <c r="M48">
-        <v>4.4509813800000006E-2</v>
-      </c>
-      <c r="N48">
+      <c r="M48" s="0">
+        <v>0.044509813800000006</v>
+      </c>
+      <c r="N48" s="0">
         <v>-0.39187980410000001</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" x14ac:dyDescent="0.2">
+      <c r="A49" s="0">
         <v>0.18245619974749996</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>0.34801632097499996</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>0.24305242124999998</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0">
         <v>-0.30166896298749996</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
         <v>-0.5438189284424999</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0">
         <v>-0.19373883950000001</v>
       </c>
-      <c r="G49">
-        <v>-8.4945083669749996E-2</v>
-      </c>
-      <c r="H49">
-        <v>-1.0628448250000061E-3</v>
-      </c>
-      <c r="I49">
+      <c r="G49" s="0">
+        <v>-0.084945083669749996</v>
+      </c>
+      <c r="H49" s="0">
+        <v>-0.0010628448250000061</v>
+      </c>
+      <c r="I49" s="0">
         <v>-0.17165056315749999</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="0">
         <v>-0.33863123752500002</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="0">
         <v>0.30004967835000002</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="0">
         <v>0.13105806714999998</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="0">
         <v>0.18134324735000001</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="0">
         <v>0.31253400520000002</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" x14ac:dyDescent="0.2">
+      <c r="A50" s="0">
         <v>0.1665230486</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>0.24150959417080001</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>0.101861710334</v>
       </c>
-      <c r="D50">
-        <v>-2.6013151240000011E-2</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="0">
+        <v>-0.026013151240000011</v>
+      </c>
+      <c r="E50" s="0">
         <v>0.1649203853</v>
       </c>
-      <c r="F50">
-        <v>9.2442810900000005E-2</v>
-      </c>
-      <c r="G50">
-        <v>-9.1346487863999987E-2</v>
-      </c>
-      <c r="H50">
+      <c r="F50" s="0">
+        <v>0.092442810900000005</v>
+      </c>
+      <c r="G50" s="0">
+        <v>-0.091346487863999987</v>
+      </c>
+      <c r="H50" s="0">
         <v>-0.25651353105999997</v>
       </c>
-      <c r="I50">
-        <v>4.8224468729999991E-2</v>
-      </c>
-      <c r="J50">
+      <c r="I50" s="0">
+        <v>0.048224468729999991</v>
+      </c>
+      <c r="J50" s="0">
         <v>-0.12787740264000003</v>
       </c>
-      <c r="K50">
-        <v>6.5651893374E-2</v>
-      </c>
-      <c r="L50">
-        <v>-8.2790838233999992E-2</v>
-      </c>
-      <c r="M50">
-        <v>-4.5613992020000008E-2</v>
-      </c>
-      <c r="N50">
-        <v>-7.3874748682000002E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="K50" s="0">
+        <v>0.065651893374</v>
+      </c>
+      <c r="L50" s="0">
+        <v>-0.082790838233999992</v>
+      </c>
+      <c r="M50" s="0">
+        <v>-0.045613992020000008</v>
+      </c>
+      <c r="N50" s="0">
+        <v>-0.073874748682000002</v>
+      </c>
+    </row>
+    <row r="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="0">
         <v>0.44720758327500004</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0">
         <v>0.61870060401500004</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>0.37785885827499999</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0">
         <v>0.27727894180000001</v>
       </c>
-      <c r="E51">
-        <v>2.7456172450000038E-2</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="0">
+        <v>0.027456172450000038</v>
+      </c>
+      <c r="F51" s="0">
         <v>0.28975595652499997</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="0">
         <v>0.34980306812500001</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="0">
         <v>0.61947150262499995</v>
       </c>
-      <c r="I51">
-        <v>3.2870878349999993E-2</v>
-      </c>
-      <c r="J51">
+      <c r="I51" s="0">
+        <v>0.032870878349999993</v>
+      </c>
+      <c r="J51" s="0">
         <v>0.83989436705000009</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="0">
         <v>0.43175430042499996</v>
       </c>
-      <c r="L51">
-        <v>9.9032796100000015E-2</v>
-      </c>
-      <c r="M51">
-        <v>-5.3050557599999965E-2</v>
-      </c>
-      <c r="N51">
+      <c r="L51" s="0">
+        <v>0.099032796100000015</v>
+      </c>
+      <c r="M51" s="0">
+        <v>-0.053050557599999965</v>
+      </c>
+      <c r="N51" s="0">
         <v>0.15965113892499996</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52" x14ac:dyDescent="0.2">
+      <c r="A52" s="0">
         <v>-0.57193563189999996</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0">
         <v>-0.62378551127250004</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>-0.420907309575</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0">
         <v>-0.34313125882499995</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0">
         <v>-0.54792294782750006</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0">
         <v>-0.48342957387500002</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="0">
         <v>-0.48333162877499997</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="0">
         <v>-0.20427072222499998</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="0">
         <v>-0.15964696472749998</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="0">
         <v>-0.18851490439000002</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="0">
         <v>-0.26176031884000001</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="0">
         <v>-0.7127461746</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="0">
         <v>-0.32304998642499994</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="0">
         <v>-0.45194121640249996</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53" x14ac:dyDescent="0.2">
+      <c r="A53" s="0">
         <v>-0.43440893413333331</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0">
         <v>-0.26746878094400001</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>-0.14072008601666669</v>
       </c>
-      <c r="D53">
-        <v>5.7768459110000003E-2</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="0">
+        <v>0.057768459110000003</v>
+      </c>
+      <c r="E53" s="0">
         <v>-0.42081293070000009</v>
       </c>
-      <c r="F53">
-        <v>2.1342945766666659E-2</v>
-      </c>
-      <c r="G53">
+      <c r="F53" s="0">
+        <v>0.021342945766666659</v>
+      </c>
+      <c r="G53" s="0">
         <v>0.21437384646700006</v>
       </c>
-      <c r="H53">
-        <v>9.6737593559999988E-2</v>
-      </c>
-      <c r="I53">
+      <c r="H53" s="0">
+        <v>0.096737593559999988</v>
+      </c>
+      <c r="I53" s="0">
         <v>-0.33987850593333335</v>
       </c>
-      <c r="J53">
-        <v>5.6421349466666659E-2</v>
-      </c>
-      <c r="K53">
-        <v>8.8863727100000012E-2</v>
-      </c>
-      <c r="L53">
+      <c r="J53" s="0">
+        <v>0.056421349466666659</v>
+      </c>
+      <c r="K53" s="0">
+        <v>0.088863727100000012</v>
+      </c>
+      <c r="L53" s="0">
         <v>-0.49678464264000005</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="0">
         <v>-0.44335684653333329</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="0">
         <v>-0.12926540365999997</v>
       </c>
     </row>

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -13,7 +13,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -373,46 +457,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -457,46 +499,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -13,7 +13,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -499,46 +709,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">

--- a/code/h1_data_right.xlsx
+++ b/code/h1_data_right.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+  <si>
+    <t>IV_avg</t>
+  </si>
+  <si>
+    <t>V_avg</t>
+  </si>
+  <si>
+    <t>VI_avg</t>
+  </si>
+  <si>
+    <t>Crus_I_avg</t>
+  </si>
+  <si>
+    <t>Crus_II_avg</t>
+  </si>
+  <si>
+    <t>VIIb_avg</t>
+  </si>
+  <si>
+    <t>VIIIa_avg</t>
+  </si>
+  <si>
+    <t>VIIIb_avg</t>
+  </si>
+  <si>
+    <t>IX_avg</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VI_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_avg</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_avg</t>
+  </si>
+  <si>
+    <t>Vermis_IX_avg</t>
+  </si>
   <si>
     <t>IV_avg</t>
   </si>
@@ -709,46 +751,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
